--- a/BackTest/2019-10-21 BackTest BCD.xlsx
+++ b/BackTest/2019-10-21 BackTest BCD.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>17</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-17.64705882352941</v>
+      </c>
       <c r="L12" t="n">
         <v>549</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>20</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-26.31578947368421</v>
+      </c>
       <c r="L13" t="n">
         <v>548.4</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>24</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-4.347826086956522</v>
+      </c>
       <c r="L14" t="n">
         <v>548.3</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>28</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-23.07692307692308</v>
+      </c>
       <c r="L15" t="n">
         <v>547.8</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>29</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-15.38461538461539</v>
+      </c>
       <c r="L16" t="n">
         <v>547.3</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>29</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>546.9</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>30</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-15.78947368421053</v>
+      </c>
       <c r="L18" t="n">
         <v>547</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>31</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>546.6</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>31</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L20" t="n">
         <v>546.6</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>31</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L21" t="n">
         <v>546.4</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>31</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L22" t="n">
         <v>546.2</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>31</v>
       </c>
       <c r="K23" t="n">
-        <v>-16.12903225806452</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L23" t="n">
         <v>546.3</v>
@@ -1466,7 +1488,7 @@
         <v>31</v>
       </c>
       <c r="K24" t="n">
-        <v>-13.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>546</v>
@@ -1515,7 +1537,7 @@
         <v>31</v>
       </c>
       <c r="K25" t="n">
-        <v>-13.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>546.1</v>
@@ -1564,7 +1586,7 @@
         <v>33</v>
       </c>
       <c r="K26" t="n">
-        <v>-22.58064516129032</v>
+        <v>-50</v>
       </c>
       <c r="L26" t="n">
         <v>545.9</v>
@@ -1613,7 +1635,7 @@
         <v>37</v>
       </c>
       <c r="K27" t="n">
-        <v>-5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L27" t="n">
         <v>546.1</v>
@@ -1662,7 +1684,7 @@
         <v>40</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.03030303030303</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L28" t="n">
         <v>545.9</v>
@@ -1711,7 +1733,7 @@
         <v>41</v>
       </c>
       <c r="K29" t="n">
-        <v>-13.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>545.9</v>
@@ -1809,7 +1831,7 @@
         <v>41</v>
       </c>
       <c r="K31" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>545.9</v>
@@ -1860,7 +1882,7 @@
         <v>41</v>
       </c>
       <c r="K32" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>545.9</v>
@@ -1911,7 +1933,7 @@
         <v>42</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L33" t="n">
         <v>545.8</v>
@@ -1962,7 +1984,7 @@
         <v>43</v>
       </c>
       <c r="K34" t="n">
-        <v>-26.31578947368421</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L34" t="n">
         <v>545.6</v>
@@ -2013,7 +2035,7 @@
         <v>44</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L35" t="n">
         <v>545.5</v>
@@ -2064,7 +2086,7 @@
         <v>44</v>
       </c>
       <c r="K36" t="n">
-        <v>-6.666666666666667</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L36" t="n">
         <v>545.6</v>
@@ -2115,7 +2137,7 @@
         <v>44</v>
       </c>
       <c r="K37" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>545.3</v>
@@ -2166,7 +2188,7 @@
         <v>48</v>
       </c>
       <c r="K38" t="n">
-        <v>-33.33333333333333</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L38" t="n">
         <v>544.9</v>
@@ -2217,7 +2239,7 @@
         <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>544.6</v>
@@ -2268,7 +2290,7 @@
         <v>51</v>
       </c>
       <c r="K40" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="L40" t="n">
         <v>544.4</v>
@@ -2319,7 +2341,7 @@
         <v>52</v>
       </c>
       <c r="K41" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L41" t="n">
         <v>544.1</v>
@@ -2370,7 +2392,7 @@
         <v>53</v>
       </c>
       <c r="K42" t="n">
-        <v>-18.18181818181818</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L42" t="n">
         <v>543.7</v>
@@ -2421,7 +2443,7 @@
         <v>54</v>
       </c>
       <c r="K43" t="n">
-        <v>-21.73913043478261</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L43" t="n">
         <v>543.3</v>
@@ -2472,7 +2494,7 @@
         <v>54</v>
       </c>
       <c r="K44" t="n">
-        <v>-21.73913043478261</v>
+        <v>-40</v>
       </c>
       <c r="L44" t="n">
         <v>543</v>
@@ -2574,7 +2596,7 @@
         <v>57</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L46" t="n">
         <v>542.8</v>
@@ -2625,7 +2647,7 @@
         <v>57</v>
       </c>
       <c r="K47" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>542.7</v>
@@ -2676,7 +2698,7 @@
         <v>59</v>
       </c>
       <c r="K48" t="n">
-        <v>-15.78947368421053</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L48" t="n">
         <v>542.8</v>
@@ -2727,7 +2749,7 @@
         <v>60</v>
       </c>
       <c r="K49" t="n">
-        <v>-26.31578947368421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>542.6</v>
@@ -2778,7 +2800,7 @@
         <v>62</v>
       </c>
       <c r="K50" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>542.5</v>
@@ -2829,7 +2851,7 @@
         <v>62</v>
       </c>
       <c r="K51" t="n">
-        <v>-14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L51" t="n">
         <v>542.5</v>
@@ -2880,7 +2902,7 @@
         <v>70</v>
       </c>
       <c r="K52" t="n">
-        <v>17.24137931034483</v>
+        <v>62.5</v>
       </c>
       <c r="L52" t="n">
         <v>543.4</v>
@@ -2931,7 +2953,7 @@
         <v>77</v>
       </c>
       <c r="K53" t="n">
-        <v>-2.857142857142857</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L53" t="n">
         <v>543.7</v>
@@ -3033,7 +3055,7 @@
         <v>77</v>
       </c>
       <c r="K55" t="n">
-        <v>-3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>544</v>
@@ -3084,7 +3106,7 @@
         <v>80</v>
       </c>
       <c r="K56" t="n">
-        <v>-11.11111111111111</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L56" t="n">
         <v>543.7</v>
@@ -3135,7 +3157,7 @@
         <v>86</v>
       </c>
       <c r="K57" t="n">
-        <v>4.761904761904762</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L57" t="n">
         <v>544</v>
@@ -3186,7 +3208,7 @@
         <v>87</v>
       </c>
       <c r="K58" t="n">
-        <v>17.94871794871795</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L58" t="n">
         <v>544.6</v>
@@ -3288,7 +3310,7 @@
         <v>93</v>
       </c>
       <c r="K60" t="n">
-        <v>-4.761904761904762</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L60" t="n">
         <v>544.7</v>
@@ -3339,7 +3361,7 @@
         <v>93</v>
       </c>
       <c r="K61" t="n">
-        <v>-2.439024390243902</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L61" t="n">
         <v>544.6</v>
@@ -3390,7 +3412,7 @@
         <v>94</v>
       </c>
       <c r="K62" t="n">
-        <v>-2.439024390243902</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L62" t="n">
         <v>543.6</v>
@@ -3441,7 +3463,7 @@
         <v>94</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L63" t="n">
         <v>543.3</v>
@@ -3492,7 +3514,7 @@
         <v>95</v>
       </c>
       <c r="K64" t="n">
-        <v>-2.439024390243902</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L64" t="n">
         <v>542.9</v>
@@ -3543,7 +3565,7 @@
         <v>95</v>
       </c>
       <c r="K65" t="n">
-        <v>-10.52631578947368</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L65" t="n">
         <v>542.5</v>
@@ -3594,7 +3616,7 @@
         <v>95</v>
       </c>
       <c r="K66" t="n">
-        <v>-10.52631578947368</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L66" t="n">
         <v>542.4</v>
@@ -3645,7 +3667,7 @@
         <v>95</v>
       </c>
       <c r="K67" t="n">
-        <v>-10.52631578947368</v>
+        <v>-100</v>
       </c>
       <c r="L67" t="n">
         <v>541.7</v>
@@ -3696,7 +3718,7 @@
         <v>95</v>
       </c>
       <c r="K68" t="n">
-        <v>-5.555555555555555</v>
+        <v>-100</v>
       </c>
       <c r="L68" t="n">
         <v>540.9</v>
@@ -3747,7 +3769,7 @@
         <v>97</v>
       </c>
       <c r="K69" t="n">
-        <v>-8.108108108108109</v>
+        <v>-100</v>
       </c>
       <c r="L69" t="n">
         <v>540.4</v>
@@ -3798,7 +3820,7 @@
         <v>101</v>
       </c>
       <c r="K70" t="n">
-        <v>-2.564102564102564</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>540.4</v>
@@ -3849,7 +3871,7 @@
         <v>104</v>
       </c>
       <c r="K71" t="n">
-        <v>4.761904761904762</v>
+        <v>40</v>
       </c>
       <c r="L71" t="n">
         <v>540.7</v>
@@ -3900,7 +3922,7 @@
         <v>104</v>
       </c>
       <c r="K72" t="n">
-        <v>-17.64705882352941</v>
+        <v>40</v>
       </c>
       <c r="L72" t="n">
         <v>541.1</v>
@@ -3951,7 +3973,7 @@
         <v>105</v>
       </c>
       <c r="K73" t="n">
-        <v>7.142857142857142</v>
+        <v>60</v>
       </c>
       <c r="L73" t="n">
         <v>541.6</v>
@@ -4002,7 +4024,7 @@
         <v>107</v>
       </c>
       <c r="K74" t="n">
-        <v>13.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L74" t="n">
         <v>542.4</v>
@@ -4053,7 +4075,7 @@
         <v>108</v>
       </c>
       <c r="K75" t="n">
-        <v>16.12903225806452</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L75" t="n">
         <v>543.3</v>
@@ -4104,7 +4126,7 @@
         <v>109</v>
       </c>
       <c r="K76" t="n">
-        <v>31.03448275862069</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L76" t="n">
         <v>544.3</v>
@@ -4155,7 +4177,7 @@
         <v>109</v>
       </c>
       <c r="K77" t="n">
-        <v>13.04347826086956</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L77" t="n">
         <v>545.3</v>
@@ -4206,7 +4228,7 @@
         <v>110</v>
       </c>
       <c r="K78" t="n">
-        <v>4.347826086956522</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L78" t="n">
         <v>546.2</v>
@@ -4257,7 +4279,7 @@
         <v>111</v>
       </c>
       <c r="K79" t="n">
-        <v>36.84210526315789</v>
+        <v>80</v>
       </c>
       <c r="L79" t="n">
         <v>547.4</v>
@@ -4308,7 +4330,7 @@
         <v>112</v>
       </c>
       <c r="K80" t="n">
-        <v>36.84210526315789</v>
+        <v>50</v>
       </c>
       <c r="L80" t="n">
         <v>548.1</v>
@@ -4359,7 +4381,7 @@
         <v>113</v>
       </c>
       <c r="K81" t="n">
-        <v>40</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L81" t="n">
         <v>548.6</v>
@@ -4410,7 +4432,7 @@
         <v>114</v>
       </c>
       <c r="K82" t="n">
-        <v>40</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>549</v>
@@ -4461,7 +4483,7 @@
         <v>116</v>
       </c>
       <c r="K83" t="n">
-        <v>27.27272727272727</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L83" t="n">
         <v>549.1</v>
@@ -4512,7 +4534,7 @@
         <v>117</v>
       </c>
       <c r="K84" t="n">
-        <v>27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>548.9</v>
@@ -4563,7 +4585,7 @@
         <v>120</v>
       </c>
       <c r="K85" t="n">
-        <v>36</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L85" t="n">
         <v>548.9</v>
@@ -4614,7 +4636,7 @@
         <v>122</v>
       </c>
       <c r="K86" t="n">
-        <v>40.74074074074074</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L86" t="n">
         <v>549</v>
@@ -4665,7 +4687,7 @@
         <v>124</v>
       </c>
       <c r="K87" t="n">
-        <v>31.03448275862069</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>548.9</v>
@@ -4716,7 +4738,7 @@
         <v>124</v>
       </c>
       <c r="K88" t="n">
-        <v>31.03448275862069</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L88" t="n">
         <v>548.9</v>
@@ -4767,7 +4789,7 @@
         <v>124</v>
       </c>
       <c r="K89" t="n">
-        <v>40.74074074074074</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>548.8</v>
@@ -4818,7 +4840,7 @@
         <v>126</v>
       </c>
       <c r="K90" t="n">
-        <v>36</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L90" t="n">
         <v>549</v>
@@ -4869,7 +4891,7 @@
         <v>126</v>
       </c>
       <c r="K91" t="n">
-        <v>27.27272727272727</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L91" t="n">
         <v>549.1</v>
@@ -4920,7 +4942,7 @@
         <v>126</v>
       </c>
       <c r="K92" t="n">
-        <v>27.27272727272727</v>
+        <v>40</v>
       </c>
       <c r="L92" t="n">
         <v>549.3</v>
@@ -4971,7 +4993,7 @@
         <v>128</v>
       </c>
       <c r="K93" t="n">
-        <v>30.43478260869566</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L93" t="n">
         <v>549.9</v>
@@ -5022,7 +5044,7 @@
         <v>133</v>
       </c>
       <c r="K94" t="n">
-        <v>38.46153846153847</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L94" t="n">
         <v>551.1</v>
@@ -5073,7 +5095,7 @@
         <v>135</v>
       </c>
       <c r="K95" t="n">
-        <v>40.74074074074074</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L95" t="n">
         <v>552.2</v>
@@ -5124,7 +5146,7 @@
         <v>135</v>
       </c>
       <c r="K96" t="n">
-        <v>38.46153846153847</v>
+        <v>100</v>
       </c>
       <c r="L96" t="n">
         <v>553.1</v>
@@ -5175,7 +5197,7 @@
         <v>139</v>
       </c>
       <c r="K97" t="n">
-        <v>46.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L97" t="n">
         <v>554.6</v>
@@ -5226,7 +5248,7 @@
         <v>141</v>
       </c>
       <c r="K98" t="n">
-        <v>41.93548387096774</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L98" t="n">
         <v>555.9</v>
@@ -5277,7 +5299,7 @@
         <v>142</v>
       </c>
       <c r="K99" t="n">
-        <v>41.93548387096774</v>
+        <v>75</v>
       </c>
       <c r="L99" t="n">
         <v>557.3</v>
@@ -5328,7 +5350,7 @@
         <v>142</v>
       </c>
       <c r="K100" t="n">
-        <v>46.66666666666666</v>
+        <v>75</v>
       </c>
       <c r="L100" t="n">
         <v>558.5</v>
@@ -5379,7 +5401,7 @@
         <v>142</v>
       </c>
       <c r="K101" t="n">
-        <v>44.82758620689656</v>
+        <v>75</v>
       </c>
       <c r="L101" t="n">
         <v>559.7</v>
@@ -5430,7 +5452,7 @@
         <v>144</v>
       </c>
       <c r="K102" t="n">
-        <v>53.33333333333334</v>
+        <v>75</v>
       </c>
       <c r="L102" t="n">
         <v>561.1</v>
@@ -5481,7 +5503,7 @@
         <v>146</v>
       </c>
       <c r="K103" t="n">
-        <v>53.33333333333334</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L103" t="n">
         <v>562.1</v>
@@ -5532,7 +5554,7 @@
         <v>148</v>
       </c>
       <c r="K104" t="n">
-        <v>61.29032258064516</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L104" t="n">
         <v>562.8</v>
@@ -5583,7 +5605,7 @@
         <v>148</v>
       </c>
       <c r="K105" t="n">
-        <v>57.14285714285714</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L105" t="n">
         <v>563.3</v>
@@ -5634,7 +5656,7 @@
         <v>159</v>
       </c>
       <c r="K106" t="n">
-        <v>8.108108108108109</v>
+        <v>-50</v>
       </c>
       <c r="L106" t="n">
         <v>562.7</v>
@@ -5685,7 +5707,7 @@
         <v>167</v>
       </c>
       <c r="K107" t="n">
-        <v>30.23255813953488</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>562.5</v>
@@ -5736,7 +5758,7 @@
         <v>168</v>
       </c>
       <c r="K108" t="n">
-        <v>27.27272727272727</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L108" t="n">
         <v>562.4</v>
@@ -5787,7 +5809,7 @@
         <v>168</v>
       </c>
       <c r="K109" t="n">
-        <v>27.27272727272727</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L109" t="n">
         <v>562.2</v>
@@ -5838,7 +5860,7 @@
         <v>170</v>
       </c>
       <c r="K110" t="n">
-        <v>18.18181818181818</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L110" t="n">
         <v>561.8</v>
@@ -5889,7 +5911,7 @@
         <v>172</v>
       </c>
       <c r="K111" t="n">
-        <v>13.04347826086956</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L111" t="n">
         <v>561.2</v>
@@ -5940,7 +5962,7 @@
         <v>173</v>
       </c>
       <c r="K112" t="n">
-        <v>10.63829787234043</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L112" t="n">
         <v>560.3</v>
@@ -5991,7 +6013,7 @@
         <v>173</v>
       </c>
       <c r="K113" t="n">
-        <v>6.666666666666667</v>
+        <v>-36</v>
       </c>
       <c r="L113" t="n">
         <v>559.6</v>
@@ -6042,7 +6064,7 @@
         <v>173</v>
       </c>
       <c r="K114" t="n">
-        <v>-5</v>
+        <v>-36</v>
       </c>
       <c r="L114" t="n">
         <v>558.7</v>
@@ -6093,7 +6115,7 @@
         <v>174</v>
       </c>
       <c r="K115" t="n">
-        <v>-12.82051282051282</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L115" t="n">
         <v>557.7</v>
@@ -6144,7 +6166,7 @@
         <v>175</v>
       </c>
       <c r="K116" t="n">
-        <v>-15</v>
+        <v>-100</v>
       </c>
       <c r="L116" t="n">
         <v>557.7</v>
@@ -6195,7 +6217,7 @@
         <v>175</v>
       </c>
       <c r="K117" t="n">
-        <v>-27.77777777777778</v>
+        <v>-100</v>
       </c>
       <c r="L117" t="n">
         <v>556.9</v>
@@ -6246,7 +6268,7 @@
         <v>176</v>
       </c>
       <c r="K118" t="n">
-        <v>-25.71428571428571</v>
+        <v>-100</v>
       </c>
       <c r="L118" t="n">
         <v>556.1</v>
@@ -6297,7 +6319,7 @@
         <v>176</v>
       </c>
       <c r="K119" t="n">
-        <v>-29.41176470588236</v>
+        <v>-100</v>
       </c>
       <c r="L119" t="n">
         <v>555.3</v>
@@ -6348,7 +6370,7 @@
         <v>177</v>
       </c>
       <c r="K120" t="n">
-        <v>-31.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L120" t="n">
         <v>554.6</v>
@@ -6399,7 +6421,7 @@
         <v>178</v>
       </c>
       <c r="K121" t="n">
-        <v>-27.77777777777778</v>
+        <v>-60</v>
       </c>
       <c r="L121" t="n">
         <v>554.2</v>
@@ -6450,7 +6472,7 @@
         <v>179</v>
       </c>
       <c r="K122" t="n">
-        <v>-31.42857142857143</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>554</v>
@@ -6501,7 +6523,7 @@
         <v>179</v>
       </c>
       <c r="K123" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L123" t="n">
         <v>553.8</v>
@@ -6552,7 +6574,7 @@
         <v>179</v>
       </c>
       <c r="K124" t="n">
-        <v>-35.48387096774194</v>
+        <v>-20</v>
       </c>
       <c r="L124" t="n">
         <v>553.6</v>
@@ -6603,7 +6625,7 @@
         <v>179</v>
       </c>
       <c r="K125" t="n">
-        <v>-35.48387096774194</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>553.5</v>
@@ -6705,7 +6727,7 @@
         <v>182</v>
       </c>
       <c r="K127" t="n">
-        <v>-33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L127" t="n">
         <v>553.8</v>
@@ -6756,7 +6778,7 @@
         <v>182</v>
       </c>
       <c r="K128" t="n">
-        <v>-28.57142857142857</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L128" t="n">
         <v>554.2</v>
@@ -6807,7 +6829,7 @@
         <v>182</v>
       </c>
       <c r="K129" t="n">
-        <v>-28.57142857142857</v>
+        <v>100</v>
       </c>
       <c r="L129" t="n">
         <v>554.6</v>
@@ -6858,7 +6880,7 @@
         <v>183</v>
       </c>
       <c r="K130" t="n">
-        <v>-23.07692307692308</v>
+        <v>60</v>
       </c>
       <c r="L130" t="n">
         <v>555</v>
@@ -6909,7 +6931,7 @@
         <v>185</v>
       </c>
       <c r="K131" t="n">
-        <v>7.692307692307693</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L131" t="n">
         <v>555.5</v>
@@ -6960,7 +6982,7 @@
         <v>186</v>
       </c>
       <c r="K132" t="n">
-        <v>23.07692307692308</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L132" t="n">
         <v>556</v>
@@ -7011,7 +7033,7 @@
         <v>186</v>
       </c>
       <c r="K133" t="n">
-        <v>23.07692307692308</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L133" t="n">
         <v>556.5</v>
@@ -7062,7 +7084,7 @@
         <v>189</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L134" t="n">
         <v>556.7</v>
@@ -7113,7 +7135,7 @@
         <v>189</v>
       </c>
       <c r="K135" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L135" t="n">
         <v>556.9</v>
@@ -7164,7 +7186,7 @@
         <v>191</v>
       </c>
       <c r="K136" t="n">
-        <v>25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L136" t="n">
         <v>557.3</v>
@@ -7215,7 +7237,7 @@
         <v>191</v>
       </c>
       <c r="K137" t="n">
-        <v>25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L137" t="n">
         <v>557.4</v>
@@ -7266,7 +7288,7 @@
         <v>193</v>
       </c>
       <c r="K138" t="n">
-        <v>41.17647058823529</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L138" t="n">
         <v>557.7</v>
@@ -7317,7 +7339,7 @@
         <v>194</v>
       </c>
       <c r="K139" t="n">
-        <v>44.44444444444444</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L139" t="n">
         <v>558.1</v>
@@ -7368,7 +7390,7 @@
         <v>194</v>
       </c>
       <c r="K140" t="n">
-        <v>52.94117647058824</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L140" t="n">
         <v>558.6</v>
@@ -7419,7 +7441,7 @@
         <v>195</v>
       </c>
       <c r="K141" t="n">
-        <v>52.94117647058824</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L141" t="n">
         <v>559</v>
@@ -7470,7 +7492,7 @@
         <v>195</v>
       </c>
       <c r="K142" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L142" t="n">
         <v>559.3</v>
@@ -7521,7 +7543,7 @@
         <v>195</v>
       </c>
       <c r="K143" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L143" t="n">
         <v>559.6</v>
@@ -7572,7 +7594,7 @@
         <v>195</v>
       </c>
       <c r="K144" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L144" t="n">
         <v>560.2</v>
@@ -7623,7 +7645,7 @@
         <v>195</v>
       </c>
       <c r="K145" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L145" t="n">
         <v>560.8</v>
@@ -7674,7 +7696,7 @@
         <v>195</v>
       </c>
       <c r="K146" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L146" t="n">
         <v>561.2</v>
@@ -7725,7 +7747,7 @@
         <v>195</v>
       </c>
       <c r="K147" t="n">
-        <v>38.46153846153847</v>
+        <v>100</v>
       </c>
       <c r="L147" t="n">
         <v>561.6</v>
@@ -7776,7 +7798,7 @@
         <v>195</v>
       </c>
       <c r="K148" t="n">
-        <v>38.46153846153847</v>
+        <v>100</v>
       </c>
       <c r="L148" t="n">
         <v>561.8</v>
@@ -7827,7 +7849,7 @@
         <v>195</v>
       </c>
       <c r="K149" t="n">
-        <v>38.46153846153847</v>
+        <v>100</v>
       </c>
       <c r="L149" t="n">
         <v>561.9</v>
@@ -7877,9 +7899,7 @@
       <c r="J150" t="n">
         <v>195</v>
       </c>
-      <c r="K150" t="n">
-        <v>50</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>562</v>
       </c>
@@ -7928,9 +7948,7 @@
       <c r="J151" t="n">
         <v>195</v>
       </c>
-      <c r="K151" t="n">
-        <v>40</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>562</v>
       </c>
@@ -7980,7 +7998,7 @@
         <v>198</v>
       </c>
       <c r="K152" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L152" t="n">
         <v>562.3</v>
@@ -8031,7 +8049,7 @@
         <v>201</v>
       </c>
       <c r="K153" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>562.3</v>
@@ -8082,7 +8100,7 @@
         <v>202</v>
       </c>
       <c r="K154" t="n">
-        <v>53.84615384615385</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L154" t="n">
         <v>562.4</v>
@@ -8133,7 +8151,7 @@
         <v>203</v>
       </c>
       <c r="K155" t="n">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>562.4</v>
@@ -8184,7 +8202,7 @@
         <v>204</v>
       </c>
       <c r="K156" t="n">
-        <v>23.07692307692308</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L156" t="n">
         <v>562.3</v>
@@ -8235,7 +8253,7 @@
         <v>207</v>
       </c>
       <c r="K157" t="n">
-        <v>37.5</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L157" t="n">
         <v>562.5</v>
@@ -8286,7 +8304,7 @@
         <v>207</v>
       </c>
       <c r="K158" t="n">
-        <v>28.57142857142857</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L158" t="n">
         <v>562.7</v>
@@ -8337,7 +8355,7 @@
         <v>214</v>
       </c>
       <c r="K159" t="n">
-        <v>-20</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L159" t="n">
         <v>562.2</v>
@@ -8388,7 +8406,7 @@
         <v>219</v>
       </c>
       <c r="K160" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>562.2</v>
@@ -8439,7 +8457,7 @@
         <v>223</v>
       </c>
       <c r="K161" t="n">
-        <v>-14.28571428571428</v>
+        <v>-28</v>
       </c>
       <c r="L161" t="n">
         <v>561.8</v>
@@ -8490,7 +8508,7 @@
         <v>223</v>
       </c>
       <c r="K162" t="n">
-        <v>-14.28571428571428</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L162" t="n">
         <v>561.1</v>
@@ -8541,7 +8559,7 @@
         <v>223</v>
       </c>
       <c r="K163" t="n">
-        <v>-14.28571428571428</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L163" t="n">
         <v>560.7</v>
@@ -8592,7 +8610,7 @@
         <v>223</v>
       </c>
       <c r="K164" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L164" t="n">
         <v>560.2</v>
@@ -8643,7 +8661,7 @@
         <v>223</v>
       </c>
       <c r="K165" t="n">
-        <v>-14.28571428571428</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L165" t="n">
         <v>559.8</v>
@@ -8694,7 +8712,7 @@
         <v>223</v>
       </c>
       <c r="K166" t="n">
-        <v>-14.28571428571428</v>
+        <v>-37.5</v>
       </c>
       <c r="L166" t="n">
         <v>559.5</v>

--- a/BackTest/2019-10-21 BackTest BCD.xlsx
+++ b/BackTest/2019-10-21 BackTest BCD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S166"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,18 +596,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>549.3</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>17</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L12" t="n">
-        <v>549</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>20</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-26.31578947368421</v>
-      </c>
-      <c r="L13" t="n">
-        <v>548.4</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>24</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L14" t="n">
-        <v>548.3</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>28</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L15" t="n">
-        <v>547.8</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>29</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-15.38461538461539</v>
-      </c>
-      <c r="L16" t="n">
-        <v>547.3</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>29</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>546.9</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>30</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L18" t="n">
-        <v>547</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>31</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>546.6</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>31</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L20" t="n">
-        <v>546.6</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>31</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L21" t="n">
-        <v>546.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>547.85</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>31</v>
-      </c>
-      <c r="K22" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L22" t="n">
-        <v>546.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>547.6</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>31</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L23" t="n">
-        <v>546.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>547.35</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>31</v>
-      </c>
-      <c r="K24" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L24" t="n">
-        <v>546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>547.15</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>31</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>546.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>546.95</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>33</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L26" t="n">
-        <v>545.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>546.6</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>37</v>
-      </c>
-      <c r="K27" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L27" t="n">
-        <v>546.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>546.5</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>40</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L28" t="n">
-        <v>545.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>546.45</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>41</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>545.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>546.25</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>41</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>545.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>546.25</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>41</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>545.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>546.15</v>
-      </c>
-      <c r="N31" t="n">
-        <v>547.2</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>41</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>545.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>546.05</v>
-      </c>
-      <c r="N32" t="n">
-        <v>547.0333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>42</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L33" t="n">
-        <v>545.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>546.05</v>
-      </c>
-      <c r="N33" t="n">
-        <v>546.8333333333334</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J34" t="n">
-        <v>43</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L34" t="n">
-        <v>545.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>545.8</v>
-      </c>
-      <c r="N34" t="n">
-        <v>546.6333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>44</v>
-      </c>
-      <c r="K35" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L35" t="n">
-        <v>545.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>545.8</v>
-      </c>
-      <c r="N35" t="n">
-        <v>546.4666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>44</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L36" t="n">
-        <v>545.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>545.75</v>
-      </c>
-      <c r="N36" t="n">
-        <v>546.2666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>44</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>545.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>545.7</v>
-      </c>
-      <c r="N37" t="n">
-        <v>546.1</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J38" t="n">
-        <v>48</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L38" t="n">
-        <v>544.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>545.4</v>
-      </c>
-      <c r="N38" t="n">
-        <v>545.9333333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>50</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L39" t="n">
-        <v>544.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>545.25</v>
-      </c>
-      <c r="N39" t="n">
-        <v>545.7</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J40" t="n">
-        <v>51</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L40" t="n">
-        <v>544.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>545.15</v>
-      </c>
-      <c r="N40" t="n">
-        <v>545.6333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>52</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L41" t="n">
-        <v>544.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>545</v>
-      </c>
-      <c r="N41" t="n">
-        <v>545.4666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J42" t="n">
-        <v>53</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L42" t="n">
-        <v>543.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>544.8</v>
-      </c>
-      <c r="N42" t="n">
-        <v>545.2666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J43" t="n">
-        <v>54</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L43" t="n">
-        <v>543.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>544.55</v>
-      </c>
-      <c r="N43" t="n">
-        <v>545.1333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J44" t="n">
-        <v>54</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L44" t="n">
-        <v>543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>544.3</v>
-      </c>
-      <c r="N44" t="n">
-        <v>544.8666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,31 +1956,19 @@
         <v>545.35</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>57</v>
+        <v>544</v>
       </c>
       <c r="K45" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L45" t="n">
-        <v>542.9</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>544.2</v>
-      </c>
-      <c r="N45" t="n">
-        <v>544.8333333333334</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,31 +1995,23 @@
         <v>545.3166666666667</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>57</v>
+        <v>543</v>
       </c>
       <c r="K46" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L46" t="n">
-        <v>542.8</v>
+        <v>544</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>544.2</v>
-      </c>
-      <c r="N46" t="n">
-        <v>544.7666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,31 +2038,23 @@
         <v>545.3</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>57</v>
+        <v>544</v>
       </c>
       <c r="K47" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L47" t="n">
-        <v>542.7</v>
+        <v>544</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>544</v>
-      </c>
-      <c r="N47" t="n">
-        <v>544.7</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,31 +2081,23 @@
         <v>545.2666666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>59</v>
+        <v>542</v>
       </c>
       <c r="K48" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L48" t="n">
-        <v>542.8</v>
+        <v>544</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>543.85</v>
-      </c>
-      <c r="N48" t="n">
-        <v>544.5333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2127,18 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J49" t="n">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L49" t="n">
-        <v>542.6</v>
+        <v>544</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>543.6</v>
-      </c>
-      <c r="N49" t="n">
-        <v>544.3666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2791,31 +2165,23 @@
         <v>545.2333333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>62</v>
+        <v>543</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>542.5</v>
+        <v>544</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>543.45</v>
-      </c>
-      <c r="N50" t="n">
-        <v>544.2666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2842,31 +2208,23 @@
         <v>545.25</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>62</v>
+        <v>543</v>
       </c>
       <c r="K51" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L51" t="n">
-        <v>542.5</v>
+        <v>544</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>543.3</v>
-      </c>
-      <c r="N51" t="n">
-        <v>544.1666666666666</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2893,31 +2251,23 @@
         <v>545.4</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>70</v>
+        <v>543</v>
       </c>
       <c r="K52" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="L52" t="n">
-        <v>543.4</v>
+        <v>544</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>543.55</v>
-      </c>
-      <c r="N52" t="n">
-        <v>544.3333333333334</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,31 +2294,23 @@
         <v>545.4333333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>77</v>
+        <v>544</v>
       </c>
       <c r="K53" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L53" t="n">
-        <v>543.7</v>
+        <v>544</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>543.5</v>
-      </c>
-      <c r="N53" t="n">
-        <v>544.2666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2340,18 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J54" t="n">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>544</v>
+        <v>544</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>543.5</v>
-      </c>
-      <c r="N54" t="n">
-        <v>544.2</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2381,18 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J55" t="n">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>544</v>
+        <v>544</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>543.45</v>
-      </c>
-      <c r="N55" t="n">
-        <v>544.1333333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2422,18 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J56" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>-13.04347826086956</v>
-      </c>
-      <c r="L56" t="n">
-        <v>543.7</v>
+        <v>544</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>543.25</v>
-      </c>
-      <c r="N56" t="n">
-        <v>544.0333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2463,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J57" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>18.51851851851852</v>
-      </c>
-      <c r="L57" t="n">
-        <v>544</v>
+        <v>544</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>543.35</v>
-      </c>
-      <c r="N57" t="n">
-        <v>544</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2504,18 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J58" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>25.92592592592592</v>
-      </c>
-      <c r="L58" t="n">
-        <v>544.6</v>
+        <v>544</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>543.7</v>
-      </c>
-      <c r="N58" t="n">
-        <v>544.1</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2545,18 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J59" t="n">
-        <v>92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>544.8</v>
+        <v>544</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>543.7</v>
-      </c>
-      <c r="N59" t="n">
-        <v>544</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2586,18 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J60" t="n">
-        <v>93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>-3.225806451612903</v>
-      </c>
-      <c r="L60" t="n">
-        <v>544.7</v>
+        <v>544</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>543.6</v>
-      </c>
-      <c r="N60" t="n">
-        <v>543.8666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2627,18 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J61" t="n">
-        <v>93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>-39.1304347826087</v>
-      </c>
-      <c r="L61" t="n">
-        <v>544.6</v>
+        <v>544</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>543.55</v>
-      </c>
-      <c r="N61" t="n">
-        <v>543.7333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2668,18 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J62" t="n">
-        <v>94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L62" t="n">
-        <v>543.6</v>
+        <v>544</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>543.5</v>
-      </c>
-      <c r="N62" t="n">
-        <v>543.5666666666667</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2709,18 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J63" t="n">
-        <v>94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L63" t="n">
-        <v>543.3</v>
+        <v>544</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>543.5</v>
-      </c>
-      <c r="N63" t="n">
-        <v>543.4333333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2750,18 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J64" t="n">
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L64" t="n">
-        <v>542.9</v>
+        <v>544</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>543.45</v>
-      </c>
-      <c r="N64" t="n">
-        <v>543.3</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,31 +2788,23 @@
         <v>544.8</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>95</v>
+        <v>540</v>
       </c>
       <c r="K65" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L65" t="n">
-        <v>542.5</v>
+        <v>544</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>543.25</v>
-      </c>
-      <c r="N65" t="n">
-        <v>543.1333333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,31 +2831,23 @@
         <v>544.6166666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>95</v>
+        <v>540</v>
       </c>
       <c r="K66" t="n">
-        <v>-77.77777777777779</v>
-      </c>
-      <c r="L66" t="n">
-        <v>542.4</v>
+        <v>544</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>543.05</v>
-      </c>
-      <c r="N66" t="n">
-        <v>542.9666666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,31 +2874,23 @@
         <v>544.45</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>95</v>
+        <v>540</v>
       </c>
       <c r="K67" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L67" t="n">
-        <v>541.7</v>
+        <v>544</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>542.85</v>
-      </c>
-      <c r="N67" t="n">
-        <v>542.8</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3709,31 +2917,23 @@
         <v>544.35</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>95</v>
+        <v>540</v>
       </c>
       <c r="K68" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L68" t="n">
-        <v>540.9</v>
+        <v>544</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>542.75</v>
-      </c>
-      <c r="N68" t="n">
-        <v>542.7666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,31 +2960,23 @@
         <v>544.15</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>97</v>
+        <v>539</v>
       </c>
       <c r="K69" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L69" t="n">
-        <v>540.4</v>
+        <v>544</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>542.6</v>
-      </c>
-      <c r="N69" t="n">
-        <v>542.6</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,31 +3003,23 @@
         <v>544.0833333333334</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>101</v>
+        <v>542</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>540.4</v>
+        <v>544</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>542.55</v>
-      </c>
-      <c r="N70" t="n">
-        <v>542.5333333333333</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,31 +3046,23 @@
         <v>544.0333333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>104</v>
+        <v>545</v>
       </c>
       <c r="K71" t="n">
-        <v>40</v>
-      </c>
-      <c r="L71" t="n">
-        <v>540.7</v>
+        <v>544</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>542.65</v>
-      </c>
-      <c r="N71" t="n">
-        <v>542.6</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,31 +3089,23 @@
         <v>543.9833333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>104</v>
+        <v>545</v>
       </c>
       <c r="K72" t="n">
-        <v>40</v>
-      </c>
-      <c r="L72" t="n">
-        <v>541.1</v>
+        <v>544</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>542.35</v>
-      </c>
-      <c r="N72" t="n">
-        <v>542.7</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,31 +3132,23 @@
         <v>544</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>105</v>
+        <v>545</v>
       </c>
       <c r="K73" t="n">
-        <v>60</v>
-      </c>
-      <c r="L73" t="n">
-        <v>541.6</v>
+        <v>544</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>542.45</v>
-      </c>
-      <c r="N73" t="n">
-        <v>542.8666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4015,31 +3175,23 @@
         <v>543.9833333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>107</v>
+        <v>546</v>
       </c>
       <c r="K74" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L74" t="n">
-        <v>542.4</v>
+        <v>544</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>542.65</v>
-      </c>
-      <c r="N74" t="n">
-        <v>543.1</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3221,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>108</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L75" t="n">
-        <v>543.3</v>
+        <v>544</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>542.9</v>
-      </c>
-      <c r="N75" t="n">
-        <v>543.2666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3262,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L76" t="n">
-        <v>544.3</v>
+        <v>544</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>543.35</v>
-      </c>
-      <c r="N76" t="n">
-        <v>543.4666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3303,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L77" t="n">
-        <v>545.3</v>
+        <v>544</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>543.5</v>
-      </c>
-      <c r="N77" t="n">
-        <v>543.6666666666666</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3344,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>84.61538461538461</v>
-      </c>
-      <c r="L78" t="n">
-        <v>546.2</v>
+        <v>544</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>543.55</v>
-      </c>
-      <c r="N78" t="n">
-        <v>543.9</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3385,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>80</v>
-      </c>
-      <c r="L79" t="n">
-        <v>547.4</v>
+        <v>544</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>543.9</v>
-      </c>
-      <c r="N79" t="n">
-        <v>544.2</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3426,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J80" t="n">
-        <v>112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>50</v>
-      </c>
-      <c r="L80" t="n">
-        <v>548.1</v>
+        <v>544</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>544.25</v>
-      </c>
-      <c r="N80" t="n">
-        <v>544.4</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3467,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L81" t="n">
-        <v>548.6</v>
+        <v>544</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>544.65</v>
-      </c>
-      <c r="N81" t="n">
-        <v>544.6333333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3508,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L82" t="n">
-        <v>549</v>
+        <v>544</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>545.05</v>
-      </c>
-      <c r="N82" t="n">
-        <v>544.5666666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3549,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J83" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L83" t="n">
-        <v>549.1</v>
+        <v>544</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>545.35</v>
-      </c>
-      <c r="N83" t="n">
-        <v>544.6666666666666</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3590,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L84" t="n">
-        <v>548.9</v>
+        <v>544</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>545.65</v>
-      </c>
-      <c r="N84" t="n">
-        <v>544.7333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3631,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L85" t="n">
-        <v>548.9</v>
+        <v>544</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>546.1</v>
-      </c>
-      <c r="N85" t="n">
-        <v>544.9</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,26 +3674,16 @@
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>122</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L86" t="n">
-        <v>549</v>
+        <v>544</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>546.65</v>
-      </c>
-      <c r="N86" t="n">
-        <v>545.2333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3713,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J87" t="n">
-        <v>124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>548.9</v>
+        <v>544</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>547.1</v>
-      </c>
-      <c r="N87" t="n">
-        <v>545.3</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3754,18 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L88" t="n">
-        <v>548.9</v>
+        <v>544</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>547.55</v>
-      </c>
-      <c r="N88" t="n">
-        <v>545.3333333333334</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3795,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J89" t="n">
-        <v>124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>548.8</v>
+        <v>544</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>548.1</v>
-      </c>
-      <c r="N89" t="n">
-        <v>545.5333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4836,26 +3838,16 @@
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>126</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L90" t="n">
-        <v>549</v>
+        <v>544</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>548.55</v>
-      </c>
-      <c r="N90" t="n">
-        <v>545.8333333333334</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4887,26 +3879,16 @@
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>126</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L91" t="n">
-        <v>549.1</v>
+        <v>544</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>548.85</v>
-      </c>
-      <c r="N91" t="n">
-        <v>546.1333333333333</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4938,26 +3920,16 @@
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>126</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>40</v>
-      </c>
-      <c r="L92" t="n">
-        <v>549.3</v>
+        <v>544</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>549.15</v>
-      </c>
-      <c r="N92" t="n">
-        <v>546.4666666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3959,18 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L93" t="n">
-        <v>549.9</v>
+        <v>544</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>549.5</v>
-      </c>
-      <c r="N93" t="n">
-        <v>546.8666666666667</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4000,18 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>7</v>
-      </c>
-      <c r="J94" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L94" t="n">
-        <v>551.1</v>
+        <v>544</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>550</v>
-      </c>
-      <c r="N94" t="n">
-        <v>547.4666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4041,18 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>9</v>
-      </c>
-      <c r="J95" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L95" t="n">
-        <v>552.2</v>
+        <v>544</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>550.55</v>
-      </c>
-      <c r="N95" t="n">
-        <v>548.1333333333333</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,29 +4082,19 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>9</v>
-      </c>
-      <c r="J96" t="n">
-        <v>135</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>100</v>
-      </c>
-      <c r="L96" t="n">
-        <v>553.1</v>
+        <v>544</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>551.05</v>
-      </c>
-      <c r="N96" t="n">
-        <v>548.8</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
-        <v>1</v>
+        <v>1.024411764705882</v>
       </c>
     </row>
     <row r="97">
@@ -5191,28 +4123,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>13</v>
-      </c>
-      <c r="J97" t="n">
-        <v>139</v>
-      </c>
-      <c r="K97" t="n">
-        <v>100</v>
-      </c>
-      <c r="L97" t="n">
-        <v>554.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>551.75</v>
-      </c>
-      <c r="N97" t="n">
-        <v>549.6</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4158,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>11</v>
-      </c>
-      <c r="J98" t="n">
-        <v>141</v>
-      </c>
-      <c r="K98" t="n">
-        <v>76.47058823529412</v>
-      </c>
-      <c r="L98" t="n">
-        <v>555.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>552.4</v>
-      </c>
-      <c r="N98" t="n">
-        <v>550.3333333333334</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4193,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>142</v>
-      </c>
-      <c r="K99" t="n">
-        <v>75</v>
-      </c>
-      <c r="L99" t="n">
-        <v>557.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>553.05</v>
-      </c>
-      <c r="N99" t="n">
-        <v>551.1666666666666</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4228,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>12</v>
-      </c>
-      <c r="J100" t="n">
-        <v>142</v>
-      </c>
-      <c r="K100" t="n">
-        <v>75</v>
-      </c>
-      <c r="L100" t="n">
-        <v>558.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>553.75</v>
-      </c>
-      <c r="N100" t="n">
-        <v>551.8666666666667</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4263,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>12</v>
-      </c>
-      <c r="J101" t="n">
-        <v>142</v>
-      </c>
-      <c r="K101" t="n">
-        <v>75</v>
-      </c>
-      <c r="L101" t="n">
-        <v>559.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>554.4</v>
-      </c>
-      <c r="N101" t="n">
-        <v>552.4666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4298,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>14</v>
-      </c>
-      <c r="J102" t="n">
-        <v>144</v>
-      </c>
-      <c r="K102" t="n">
-        <v>75</v>
-      </c>
-      <c r="L102" t="n">
-        <v>561.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>555.2</v>
-      </c>
-      <c r="N102" t="n">
-        <v>553.1333333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4333,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>12</v>
-      </c>
-      <c r="J103" t="n">
-        <v>146</v>
-      </c>
-      <c r="K103" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L103" t="n">
-        <v>562.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>556</v>
-      </c>
-      <c r="N103" t="n">
-        <v>553.7</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4368,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>14</v>
-      </c>
-      <c r="J104" t="n">
-        <v>148</v>
-      </c>
-      <c r="K104" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L104" t="n">
-        <v>562.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>556.95</v>
-      </c>
-      <c r="N104" t="n">
-        <v>554.2666666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4403,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>14</v>
-      </c>
-      <c r="J105" t="n">
-        <v>148</v>
-      </c>
-      <c r="K105" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L105" t="n">
-        <v>563.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>557.75</v>
-      </c>
-      <c r="N105" t="n">
-        <v>554.8</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4438,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
-      </c>
-      <c r="J106" t="n">
-        <v>159</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L106" t="n">
-        <v>562.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>557.9</v>
-      </c>
-      <c r="N106" t="n">
-        <v>554.9333333333333</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4473,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>11</v>
-      </c>
-      <c r="J107" t="n">
-        <v>167</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>562.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>558.55</v>
-      </c>
-      <c r="N107" t="n">
-        <v>555.3333333333334</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4508,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>10</v>
-      </c>
-      <c r="J108" t="n">
-        <v>168</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L108" t="n">
-        <v>562.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>559.15</v>
-      </c>
-      <c r="N108" t="n">
-        <v>555.7333333333333</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4543,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>10</v>
-      </c>
-      <c r="J109" t="n">
-        <v>168</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L109" t="n">
-        <v>562.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>559.75</v>
-      </c>
-      <c r="N109" t="n">
-        <v>556.1</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4578,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>8</v>
-      </c>
-      <c r="J110" t="n">
-        <v>170</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L110" t="n">
-        <v>561.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>560.15</v>
-      </c>
-      <c r="N110" t="n">
-        <v>556.4333333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4613,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>6</v>
-      </c>
-      <c r="J111" t="n">
-        <v>172</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L111" t="n">
-        <v>561.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>560.45</v>
-      </c>
-      <c r="N111" t="n">
-        <v>556.6666666666666</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4648,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>5</v>
-      </c>
-      <c r="J112" t="n">
-        <v>173</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-25.92592592592592</v>
-      </c>
-      <c r="L112" t="n">
-        <v>560.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>560.7</v>
-      </c>
-      <c r="N112" t="n">
-        <v>556.9</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4683,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>5</v>
-      </c>
-      <c r="J113" t="n">
-        <v>173</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-36</v>
-      </c>
-      <c r="L113" t="n">
-        <v>559.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>560.85</v>
-      </c>
-      <c r="N113" t="n">
-        <v>557.2</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4718,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>5</v>
-      </c>
-      <c r="J114" t="n">
-        <v>173</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-36</v>
-      </c>
-      <c r="L114" t="n">
-        <v>558.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>560.75</v>
-      </c>
-      <c r="N114" t="n">
-        <v>557.5333333333333</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4753,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>4</v>
-      </c>
-      <c r="J115" t="n">
-        <v>174</v>
-      </c>
-      <c r="K115" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L115" t="n">
-        <v>557.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>560.5</v>
-      </c>
-      <c r="N115" t="n">
-        <v>557.7333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4788,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
-      </c>
-      <c r="J116" t="n">
-        <v>175</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L116" t="n">
-        <v>557.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>560.2</v>
-      </c>
-      <c r="N116" t="n">
-        <v>557.8333333333334</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4823,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
-      </c>
-      <c r="J117" t="n">
-        <v>175</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L117" t="n">
-        <v>556.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>559.7</v>
-      </c>
-      <c r="N117" t="n">
-        <v>558</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4858,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
-      </c>
-      <c r="J118" t="n">
-        <v>176</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L118" t="n">
-        <v>556.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>559.25</v>
-      </c>
-      <c r="N118" t="n">
-        <v>558.1333333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4893,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
-      </c>
-      <c r="J119" t="n">
-        <v>176</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L119" t="n">
-        <v>555.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>558.75</v>
-      </c>
-      <c r="N119" t="n">
-        <v>558.2666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4928,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>177</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L120" t="n">
-        <v>554.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>558.2</v>
-      </c>
-      <c r="N120" t="n">
-        <v>558.3</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4963,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
-      </c>
-      <c r="J121" t="n">
-        <v>178</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L121" t="n">
-        <v>554.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>557.7</v>
-      </c>
-      <c r="N121" t="n">
-        <v>558.3666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4998,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
-      </c>
-      <c r="J122" t="n">
-        <v>179</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L122" t="n">
-        <v>554</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>557.15</v>
-      </c>
-      <c r="N122" t="n">
-        <v>558.4666666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +5033,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
-      </c>
-      <c r="J123" t="n">
-        <v>179</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L123" t="n">
-        <v>553.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>556.7</v>
-      </c>
-      <c r="N123" t="n">
-        <v>558.5</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +5068,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
-      </c>
-      <c r="J124" t="n">
-        <v>179</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L124" t="n">
-        <v>553.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>556.15</v>
-      </c>
-      <c r="N124" t="n">
-        <v>558.3666666666667</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5103,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
-      </c>
-      <c r="J125" t="n">
-        <v>179</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0</v>
-      </c>
-      <c r="L125" t="n">
-        <v>553.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>555.6</v>
-      </c>
-      <c r="N125" t="n">
-        <v>558.1666666666666</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5138,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
-      </c>
-      <c r="J126" t="n">
-        <v>179</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0</v>
-      </c>
-      <c r="L126" t="n">
-        <v>553.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>555.6</v>
-      </c>
-      <c r="N126" t="n">
-        <v>557.9666666666667</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5173,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>6</v>
-      </c>
-      <c r="J127" t="n">
-        <v>182</v>
-      </c>
-      <c r="K127" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L127" t="n">
-        <v>553.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>555.35</v>
-      </c>
-      <c r="N127" t="n">
-        <v>557.7333333333333</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5208,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>6</v>
-      </c>
-      <c r="J128" t="n">
-        <v>182</v>
-      </c>
-      <c r="K128" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L128" t="n">
-        <v>554.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>555.15</v>
-      </c>
-      <c r="N128" t="n">
-        <v>557.5666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5243,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>6</v>
-      </c>
-      <c r="J129" t="n">
-        <v>182</v>
-      </c>
-      <c r="K129" t="n">
-        <v>100</v>
-      </c>
-      <c r="L129" t="n">
-        <v>554.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>554.95</v>
-      </c>
-      <c r="N129" t="n">
-        <v>557.3666666666667</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5278,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>5</v>
-      </c>
-      <c r="J130" t="n">
-        <v>183</v>
-      </c>
-      <c r="K130" t="n">
-        <v>60</v>
-      </c>
-      <c r="L130" t="n">
-        <v>555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>554.8</v>
-      </c>
-      <c r="N130" t="n">
-        <v>557.1333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5313,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>7</v>
-      </c>
-      <c r="J131" t="n">
-        <v>185</v>
-      </c>
-      <c r="K131" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L131" t="n">
-        <v>555.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>554.85</v>
-      </c>
-      <c r="N131" t="n">
-        <v>556.9666666666667</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5348,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>8</v>
-      </c>
-      <c r="J132" t="n">
-        <v>186</v>
-      </c>
-      <c r="K132" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L132" t="n">
-        <v>556</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>555</v>
-      </c>
-      <c r="N132" t="n">
-        <v>556.7666666666667</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5383,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>8</v>
-      </c>
-      <c r="J133" t="n">
-        <v>186</v>
-      </c>
-      <c r="K133" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L133" t="n">
-        <v>556.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>555.15</v>
-      </c>
-      <c r="N133" t="n">
-        <v>556.6333333333333</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5418,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>5</v>
-      </c>
-      <c r="J134" t="n">
-        <v>189</v>
-      </c>
-      <c r="K134" t="n">
-        <v>20</v>
-      </c>
-      <c r="L134" t="n">
-        <v>556.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>555.15</v>
-      </c>
-      <c r="N134" t="n">
-        <v>556.3333333333334</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5453,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>5</v>
-      </c>
-      <c r="J135" t="n">
-        <v>189</v>
-      </c>
-      <c r="K135" t="n">
-        <v>20</v>
-      </c>
-      <c r="L135" t="n">
-        <v>556.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>555.2</v>
-      </c>
-      <c r="N135" t="n">
-        <v>556.0333333333333</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5488,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>7</v>
-      </c>
-      <c r="J136" t="n">
-        <v>191</v>
-      </c>
-      <c r="K136" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L136" t="n">
-        <v>557.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>555.4</v>
-      </c>
-      <c r="N136" t="n">
-        <v>556.1666666666666</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5523,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>7</v>
-      </c>
-      <c r="J137" t="n">
-        <v>191</v>
-      </c>
-      <c r="K137" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L137" t="n">
-        <v>557.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>555.6</v>
-      </c>
-      <c r="N137" t="n">
-        <v>556.0333333333333</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5558,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>9</v>
-      </c>
-      <c r="J138" t="n">
-        <v>193</v>
-      </c>
-      <c r="K138" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L138" t="n">
-        <v>557.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>555.95</v>
-      </c>
-      <c r="N138" t="n">
-        <v>556</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5593,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>10</v>
-      </c>
-      <c r="J139" t="n">
-        <v>194</v>
-      </c>
-      <c r="K139" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L139" t="n">
-        <v>558.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>556.35</v>
-      </c>
-      <c r="N139" t="n">
-        <v>556</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5628,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>10</v>
-      </c>
-      <c r="J140" t="n">
-        <v>194</v>
-      </c>
-      <c r="K140" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L140" t="n">
-        <v>558.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>556.8</v>
-      </c>
-      <c r="N140" t="n">
-        <v>556.0666666666667</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5663,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>11</v>
-      </c>
-      <c r="J141" t="n">
-        <v>195</v>
-      </c>
-      <c r="K141" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L141" t="n">
-        <v>559</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>557.25</v>
-      </c>
-      <c r="N141" t="n">
-        <v>556.2333333333333</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5698,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>11</v>
-      </c>
-      <c r="J142" t="n">
-        <v>195</v>
-      </c>
-      <c r="K142" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L142" t="n">
-        <v>559.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>557.65</v>
-      </c>
-      <c r="N142" t="n">
-        <v>556.4333333333333</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5733,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>11</v>
-      </c>
-      <c r="J143" t="n">
-        <v>195</v>
-      </c>
-      <c r="K143" t="n">
-        <v>100</v>
-      </c>
-      <c r="L143" t="n">
-        <v>559.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>558.05</v>
-      </c>
-      <c r="N143" t="n">
-        <v>556.6333333333333</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5768,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>11</v>
-      </c>
-      <c r="J144" t="n">
-        <v>195</v>
-      </c>
-      <c r="K144" t="n">
-        <v>100</v>
-      </c>
-      <c r="L144" t="n">
-        <v>560.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>558.45</v>
-      </c>
-      <c r="N144" t="n">
-        <v>556.8333333333334</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,1095 +5803,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>11</v>
-      </c>
-      <c r="J145" t="n">
-        <v>195</v>
-      </c>
-      <c r="K145" t="n">
-        <v>100</v>
-      </c>
-      <c r="L145" t="n">
-        <v>560.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>558.85</v>
-      </c>
-      <c r="N145" t="n">
-        <v>557.0666666666667</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>562</v>
-      </c>
-      <c r="C146" t="n">
-        <v>562</v>
-      </c>
-      <c r="D146" t="n">
-        <v>562</v>
-      </c>
-      <c r="E146" t="n">
-        <v>562</v>
-      </c>
-      <c r="F146" t="n">
-        <v>270.913</v>
-      </c>
-      <c r="G146" t="n">
-        <v>557.5833333333334</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>11</v>
-      </c>
-      <c r="J146" t="n">
-        <v>195</v>
-      </c>
-      <c r="K146" t="n">
-        <v>100</v>
-      </c>
-      <c r="L146" t="n">
-        <v>561.2</v>
-      </c>
-      <c r="M146" t="n">
-        <v>559.25</v>
-      </c>
-      <c r="N146" t="n">
-        <v>557.3333333333334</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>562</v>
-      </c>
-      <c r="C147" t="n">
-        <v>562</v>
-      </c>
-      <c r="D147" t="n">
-        <v>562</v>
-      </c>
-      <c r="E147" t="n">
-        <v>562</v>
-      </c>
-      <c r="F147" t="n">
-        <v>858.3674</v>
-      </c>
-      <c r="G147" t="n">
-        <v>557.8</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>11</v>
-      </c>
-      <c r="J147" t="n">
-        <v>195</v>
-      </c>
-      <c r="K147" t="n">
-        <v>100</v>
-      </c>
-      <c r="L147" t="n">
-        <v>561.6</v>
-      </c>
-      <c r="M147" t="n">
-        <v>559.5</v>
-      </c>
-      <c r="N147" t="n">
-        <v>557.6</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>562</v>
-      </c>
-      <c r="C148" t="n">
-        <v>562</v>
-      </c>
-      <c r="D148" t="n">
-        <v>562</v>
-      </c>
-      <c r="E148" t="n">
-        <v>562</v>
-      </c>
-      <c r="F148" t="n">
-        <v>430.7143</v>
-      </c>
-      <c r="G148" t="n">
-        <v>558.0166666666667</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>11</v>
-      </c>
-      <c r="J148" t="n">
-        <v>195</v>
-      </c>
-      <c r="K148" t="n">
-        <v>100</v>
-      </c>
-      <c r="L148" t="n">
-        <v>561.8</v>
-      </c>
-      <c r="M148" t="n">
-        <v>559.75</v>
-      </c>
-      <c r="N148" t="n">
-        <v>557.9</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>562</v>
-      </c>
-      <c r="C149" t="n">
-        <v>562</v>
-      </c>
-      <c r="D149" t="n">
-        <v>562</v>
-      </c>
-      <c r="E149" t="n">
-        <v>562</v>
-      </c>
-      <c r="F149" t="n">
-        <v>112.3717</v>
-      </c>
-      <c r="G149" t="n">
-        <v>558.2333333333333</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>11</v>
-      </c>
-      <c r="J149" t="n">
-        <v>195</v>
-      </c>
-      <c r="K149" t="n">
-        <v>100</v>
-      </c>
-      <c r="L149" t="n">
-        <v>561.9</v>
-      </c>
-      <c r="M149" t="n">
-        <v>560</v>
-      </c>
-      <c r="N149" t="n">
-        <v>558.2</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>562</v>
-      </c>
-      <c r="C150" t="n">
-        <v>562</v>
-      </c>
-      <c r="D150" t="n">
-        <v>562</v>
-      </c>
-      <c r="E150" t="n">
-        <v>562</v>
-      </c>
-      <c r="F150" t="n">
-        <v>443.9419</v>
-      </c>
-      <c r="G150" t="n">
-        <v>558.4166666666666</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>11</v>
-      </c>
-      <c r="J150" t="n">
-        <v>195</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>562</v>
-      </c>
-      <c r="M150" t="n">
-        <v>560.3</v>
-      </c>
-      <c r="N150" t="n">
-        <v>558.5333333333333</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>562</v>
-      </c>
-      <c r="C151" t="n">
-        <v>562</v>
-      </c>
-      <c r="D151" t="n">
-        <v>562</v>
-      </c>
-      <c r="E151" t="n">
-        <v>562</v>
-      </c>
-      <c r="F151" t="n">
-        <v>673</v>
-      </c>
-      <c r="G151" t="n">
-        <v>558.6</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>11</v>
-      </c>
-      <c r="J151" t="n">
-        <v>195</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>562</v>
-      </c>
-      <c r="M151" t="n">
-        <v>560.5</v>
-      </c>
-      <c r="N151" t="n">
-        <v>558.8333333333334</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>562</v>
-      </c>
-      <c r="C152" t="n">
-        <v>565</v>
-      </c>
-      <c r="D152" t="n">
-        <v>565</v>
-      </c>
-      <c r="E152" t="n">
-        <v>562</v>
-      </c>
-      <c r="F152" t="n">
-        <v>24.4035</v>
-      </c>
-      <c r="G152" t="n">
-        <v>558.8333333333334</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>14</v>
-      </c>
-      <c r="J152" t="n">
-        <v>198</v>
-      </c>
-      <c r="K152" t="n">
-        <v>100</v>
-      </c>
-      <c r="L152" t="n">
-        <v>562.3</v>
-      </c>
-      <c r="M152" t="n">
-        <v>560.8</v>
-      </c>
-      <c r="N152" t="n">
-        <v>559.2</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>562</v>
-      </c>
-      <c r="C153" t="n">
-        <v>562</v>
-      </c>
-      <c r="D153" t="n">
-        <v>562</v>
-      </c>
-      <c r="E153" t="n">
-        <v>562</v>
-      </c>
-      <c r="F153" t="n">
-        <v>2701.3324</v>
-      </c>
-      <c r="G153" t="n">
-        <v>558.9833333333333</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>11</v>
-      </c>
-      <c r="J153" t="n">
-        <v>201</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0</v>
-      </c>
-      <c r="L153" t="n">
-        <v>562.3</v>
-      </c>
-      <c r="M153" t="n">
-        <v>560.95</v>
-      </c>
-      <c r="N153" t="n">
-        <v>559.4666666666667</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>562</v>
-      </c>
-      <c r="C154" t="n">
-        <v>563</v>
-      </c>
-      <c r="D154" t="n">
-        <v>563</v>
-      </c>
-      <c r="E154" t="n">
-        <v>562</v>
-      </c>
-      <c r="F154" t="n">
-        <v>447</v>
-      </c>
-      <c r="G154" t="n">
-        <v>559.0666666666667</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>12</v>
-      </c>
-      <c r="J154" t="n">
-        <v>202</v>
-      </c>
-      <c r="K154" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L154" t="n">
-        <v>562.4</v>
-      </c>
-      <c r="M154" t="n">
-        <v>561.3</v>
-      </c>
-      <c r="N154" t="n">
-        <v>559.7666666666667</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>563</v>
-      </c>
-      <c r="C155" t="n">
-        <v>562</v>
-      </c>
-      <c r="D155" t="n">
-        <v>563</v>
-      </c>
-      <c r="E155" t="n">
-        <v>562</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1584.001</v>
-      </c>
-      <c r="G155" t="n">
-        <v>559.1</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>11</v>
-      </c>
-      <c r="J155" t="n">
-        <v>203</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0</v>
-      </c>
-      <c r="L155" t="n">
-        <v>562.4</v>
-      </c>
-      <c r="M155" t="n">
-        <v>561.6</v>
-      </c>
-      <c r="N155" t="n">
-        <v>560.0333333333333</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>563</v>
-      </c>
-      <c r="C156" t="n">
-        <v>561</v>
-      </c>
-      <c r="D156" t="n">
-        <v>563</v>
-      </c>
-      <c r="E156" t="n">
-        <v>561</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1445.3607</v>
-      </c>
-      <c r="G156" t="n">
-        <v>559.1166666666667</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>10</v>
-      </c>
-      <c r="J156" t="n">
-        <v>204</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L156" t="n">
-        <v>562.3</v>
-      </c>
-      <c r="M156" t="n">
-        <v>561.75</v>
-      </c>
-      <c r="N156" t="n">
-        <v>560.2666666666667</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>562</v>
-      </c>
-      <c r="C157" t="n">
-        <v>564</v>
-      </c>
-      <c r="D157" t="n">
-        <v>564</v>
-      </c>
-      <c r="E157" t="n">
-        <v>561</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1271.6742</v>
-      </c>
-      <c r="G157" t="n">
-        <v>559.1166666666667</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>13</v>
-      </c>
-      <c r="J157" t="n">
-        <v>207</v>
-      </c>
-      <c r="K157" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L157" t="n">
-        <v>562.5</v>
-      </c>
-      <c r="M157" t="n">
-        <v>562.05</v>
-      </c>
-      <c r="N157" t="n">
-        <v>560.5</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>564</v>
-      </c>
-      <c r="C158" t="n">
-        <v>564</v>
-      </c>
-      <c r="D158" t="n">
-        <v>564</v>
-      </c>
-      <c r="E158" t="n">
-        <v>561</v>
-      </c>
-      <c r="F158" t="n">
-        <v>14.0602</v>
-      </c>
-      <c r="G158" t="n">
-        <v>559.15</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>13</v>
-      </c>
-      <c r="J158" t="n">
-        <v>207</v>
-      </c>
-      <c r="K158" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L158" t="n">
-        <v>562.7</v>
-      </c>
-      <c r="M158" t="n">
-        <v>562.25</v>
-      </c>
-      <c r="N158" t="n">
-        <v>560.7333333333333</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>561</v>
-      </c>
-      <c r="C159" t="n">
-        <v>557</v>
-      </c>
-      <c r="D159" t="n">
-        <v>564</v>
-      </c>
-      <c r="E159" t="n">
-        <v>557</v>
-      </c>
-      <c r="F159" t="n">
-        <v>3943.7567</v>
-      </c>
-      <c r="G159" t="n">
-        <v>559.05</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>6</v>
-      </c>
-      <c r="J159" t="n">
-        <v>214</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-26.31578947368421</v>
-      </c>
-      <c r="L159" t="n">
-        <v>562.2</v>
-      </c>
-      <c r="M159" t="n">
-        <v>562.05</v>
-      </c>
-      <c r="N159" t="n">
-        <v>560.7333333333333</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>562</v>
-      </c>
-      <c r="C160" t="n">
-        <v>562</v>
-      </c>
-      <c r="D160" t="n">
-        <v>562</v>
-      </c>
-      <c r="E160" t="n">
-        <v>559</v>
-      </c>
-      <c r="F160" t="n">
-        <v>23.83598861</v>
-      </c>
-      <c r="G160" t="n">
-        <v>559.0333333333333</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>11</v>
-      </c>
-      <c r="J160" t="n">
-        <v>219</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0</v>
-      </c>
-      <c r="L160" t="n">
-        <v>562.2</v>
-      </c>
-      <c r="M160" t="n">
-        <v>562.1</v>
-      </c>
-      <c r="N160" t="n">
-        <v>560.9333333333333</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>558</v>
-      </c>
-      <c r="C161" t="n">
-        <v>558</v>
-      </c>
-      <c r="D161" t="n">
-        <v>562</v>
-      </c>
-      <c r="E161" t="n">
-        <v>558</v>
-      </c>
-      <c r="F161" t="n">
-        <v>31.00863807</v>
-      </c>
-      <c r="G161" t="n">
-        <v>558.95</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>7</v>
-      </c>
-      <c r="J161" t="n">
-        <v>223</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-28</v>
-      </c>
-      <c r="L161" t="n">
-        <v>561.8</v>
-      </c>
-      <c r="M161" t="n">
-        <v>561.9</v>
-      </c>
-      <c r="N161" t="n">
-        <v>560.9333333333333</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>562</v>
-      </c>
-      <c r="C162" t="n">
-        <v>558</v>
-      </c>
-      <c r="D162" t="n">
-        <v>563</v>
-      </c>
-      <c r="E162" t="n">
-        <v>558</v>
-      </c>
-      <c r="F162" t="n">
-        <v>34.64666335</v>
-      </c>
-      <c r="G162" t="n">
-        <v>558.8333333333334</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>7</v>
-      </c>
-      <c r="J162" t="n">
-        <v>223</v>
-      </c>
-      <c r="K162" t="n">
-        <v>-18.18181818181818</v>
-      </c>
-      <c r="L162" t="n">
-        <v>561.1</v>
-      </c>
-      <c r="M162" t="n">
-        <v>561.7</v>
-      </c>
-      <c r="N162" t="n">
-        <v>560.9</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>562</v>
-      </c>
-      <c r="C163" t="n">
-        <v>558</v>
-      </c>
-      <c r="D163" t="n">
-        <v>562</v>
-      </c>
-      <c r="E163" t="n">
-        <v>558</v>
-      </c>
-      <c r="F163" t="n">
-        <v>8.548</v>
-      </c>
-      <c r="G163" t="n">
-        <v>558.75</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>7</v>
-      </c>
-      <c r="J163" t="n">
-        <v>223</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L163" t="n">
-        <v>560.7</v>
-      </c>
-      <c r="M163" t="n">
-        <v>561.5</v>
-      </c>
-      <c r="N163" t="n">
-        <v>560.8666666666667</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>558</v>
-      </c>
-      <c r="C164" t="n">
-        <v>558</v>
-      </c>
-      <c r="D164" t="n">
-        <v>558</v>
-      </c>
-      <c r="E164" t="n">
-        <v>558</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1845.2317</v>
-      </c>
-      <c r="G164" t="n">
-        <v>558.6333333333333</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>7</v>
-      </c>
-      <c r="J164" t="n">
-        <v>223</v>
-      </c>
-      <c r="K164" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L164" t="n">
-        <v>560.2</v>
-      </c>
-      <c r="M164" t="n">
-        <v>561.3</v>
-      </c>
-      <c r="N164" t="n">
-        <v>560.9333333333333</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>558</v>
-      </c>
-      <c r="C165" t="n">
-        <v>558</v>
-      </c>
-      <c r="D165" t="n">
-        <v>558</v>
-      </c>
-      <c r="E165" t="n">
-        <v>558</v>
-      </c>
-      <c r="F165" t="n">
-        <v>9.7683</v>
-      </c>
-      <c r="G165" t="n">
-        <v>558.5166666666667</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>7</v>
-      </c>
-      <c r="J165" t="n">
-        <v>223</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L165" t="n">
-        <v>559.8</v>
-      </c>
-      <c r="M165" t="n">
-        <v>561.1</v>
-      </c>
-      <c r="N165" t="n">
-        <v>561</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>558</v>
-      </c>
-      <c r="C166" t="n">
-        <v>558</v>
-      </c>
-      <c r="D166" t="n">
-        <v>558</v>
-      </c>
-      <c r="E166" t="n">
-        <v>558</v>
-      </c>
-      <c r="F166" t="n">
-        <v>100</v>
-      </c>
-      <c r="G166" t="n">
-        <v>558.5833333333334</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>7</v>
-      </c>
-      <c r="J166" t="n">
-        <v>223</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L166" t="n">
-        <v>559.5</v>
-      </c>
-      <c r="M166" t="n">
-        <v>560.9</v>
-      </c>
-      <c r="N166" t="n">
-        <v>561</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-21 BackTest BCD.xlsx
+++ b/BackTest/2019-10-21 BackTest BCD.xlsx
@@ -1956,17 +1956,13 @@
         <v>545.35</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>544</v>
-      </c>
-      <c r="K45" t="n">
-        <v>544</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
@@ -1995,278 +1991,236 @@
         <v>545.3166666666667</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>543</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
         <v>544</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="C47" t="n">
+        <v>544</v>
+      </c>
+      <c r="D47" t="n">
+        <v>544</v>
+      </c>
+      <c r="E47" t="n">
+        <v>544</v>
+      </c>
+      <c r="F47" t="n">
+        <v>531.4108</v>
+      </c>
+      <c r="G47" t="n">
+        <v>545.3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>542</v>
+      </c>
+      <c r="C48" t="n">
+        <v>542</v>
+      </c>
+      <c r="D48" t="n">
+        <v>542</v>
+      </c>
+      <c r="E48" t="n">
+        <v>542</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1036.0144</v>
+      </c>
+      <c r="G48" t="n">
+        <v>545.2666666666667</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>542</v>
+      </c>
+      <c r="C49" t="n">
+        <v>541</v>
+      </c>
+      <c r="D49" t="n">
+        <v>542</v>
+      </c>
+      <c r="E49" t="n">
+        <v>541</v>
+      </c>
+      <c r="F49" t="n">
+        <v>226.9073</v>
+      </c>
+      <c r="G49" t="n">
+        <v>545.2166666666667</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>543</v>
+      </c>
+      <c r="C50" t="n">
+        <v>543</v>
+      </c>
+      <c r="D50" t="n">
+        <v>543</v>
+      </c>
+      <c r="E50" t="n">
+        <v>543</v>
+      </c>
+      <c r="F50" t="n">
+        <v>814.2442</v>
+      </c>
+      <c r="G50" t="n">
+        <v>545.2333333333333</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>543</v>
+      </c>
+      <c r="C51" t="n">
+        <v>543</v>
+      </c>
+      <c r="D51" t="n">
+        <v>543</v>
+      </c>
+      <c r="E51" t="n">
+        <v>543</v>
+      </c>
+      <c r="F51" t="n">
+        <v>378.1134</v>
+      </c>
+      <c r="G51" t="n">
+        <v>545.25</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>543</v>
+      </c>
+      <c r="K51" t="n">
+        <v>543</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>543</v>
+      </c>
+      <c r="C52" t="n">
+        <v>551</v>
+      </c>
+      <c r="D52" t="n">
+        <v>551</v>
+      </c>
+      <c r="E52" t="n">
+        <v>543</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7900.7726</v>
+      </c>
+      <c r="G52" t="n">
+        <v>545.4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>543</v>
+      </c>
+      <c r="K52" t="n">
+        <v>543</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>544</v>
-      </c>
-      <c r="C47" t="n">
-        <v>544</v>
-      </c>
-      <c r="D47" t="n">
-        <v>544</v>
-      </c>
-      <c r="E47" t="n">
-        <v>544</v>
-      </c>
-      <c r="F47" t="n">
-        <v>531.4108</v>
-      </c>
-      <c r="G47" t="n">
-        <v>545.3</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>544</v>
-      </c>
-      <c r="K47" t="n">
-        <v>544</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>542</v>
-      </c>
-      <c r="C48" t="n">
-        <v>542</v>
-      </c>
-      <c r="D48" t="n">
-        <v>542</v>
-      </c>
-      <c r="E48" t="n">
-        <v>542</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1036.0144</v>
-      </c>
-      <c r="G48" t="n">
-        <v>545.2666666666667</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>542</v>
-      </c>
-      <c r="K48" t="n">
-        <v>544</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>542</v>
-      </c>
-      <c r="C49" t="n">
-        <v>541</v>
-      </c>
-      <c r="D49" t="n">
-        <v>542</v>
-      </c>
-      <c r="E49" t="n">
-        <v>541</v>
-      </c>
-      <c r="F49" t="n">
-        <v>226.9073</v>
-      </c>
-      <c r="G49" t="n">
-        <v>545.2166666666667</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>544</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>543</v>
-      </c>
-      <c r="C50" t="n">
-        <v>543</v>
-      </c>
-      <c r="D50" t="n">
-        <v>543</v>
-      </c>
-      <c r="E50" t="n">
-        <v>543</v>
-      </c>
-      <c r="F50" t="n">
-        <v>814.2442</v>
-      </c>
-      <c r="G50" t="n">
-        <v>545.2333333333333</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>543</v>
-      </c>
-      <c r="K50" t="n">
-        <v>544</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>543</v>
-      </c>
-      <c r="C51" t="n">
-        <v>543</v>
-      </c>
-      <c r="D51" t="n">
-        <v>543</v>
-      </c>
-      <c r="E51" t="n">
-        <v>543</v>
-      </c>
-      <c r="F51" t="n">
-        <v>378.1134</v>
-      </c>
-      <c r="G51" t="n">
-        <v>545.25</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>543</v>
-      </c>
-      <c r="K51" t="n">
-        <v>544</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>543</v>
-      </c>
-      <c r="C52" t="n">
-        <v>551</v>
-      </c>
-      <c r="D52" t="n">
-        <v>551</v>
-      </c>
-      <c r="E52" t="n">
-        <v>543</v>
-      </c>
-      <c r="F52" t="n">
-        <v>7900.7726</v>
-      </c>
-      <c r="G52" t="n">
-        <v>545.4</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>543</v>
-      </c>
-      <c r="K52" t="n">
-        <v>544</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2300,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="K53" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2344,7 +2298,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2385,7 +2339,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2426,7 +2380,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2467,7 +2421,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2508,7 +2462,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2549,7 +2503,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2590,7 +2544,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2631,7 +2585,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2672,7 +2626,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2713,7 +2667,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2754,7 +2708,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2788,16 +2742,14 @@
         <v>544.8</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>540</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2831,16 +2783,14 @@
         <v>544.6166666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>540</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2874,16 +2824,14 @@
         <v>544.45</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>540</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2917,16 +2865,14 @@
         <v>544.35</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>540</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2960,16 +2906,14 @@
         <v>544.15</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>539</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3003,16 +2947,14 @@
         <v>544.0833333333334</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>542</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3046,16 +2988,14 @@
         <v>544.0333333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>545</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3089,16 +3029,14 @@
         <v>543.9833333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>545</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3132,16 +3070,14 @@
         <v>544</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>545</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3175,16 +3111,14 @@
         <v>543.9833333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>546</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3225,7 +3159,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3266,7 +3200,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3307,7 +3241,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3348,7 +3282,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3389,7 +3323,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3430,7 +3364,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3471,7 +3405,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3512,7 +3446,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3553,7 +3487,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3594,7 +3528,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3635,7 +3569,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3676,7 +3610,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3717,7 +3651,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3758,7 +3692,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3799,7 +3733,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3840,7 +3774,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3881,7 +3815,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3922,7 +3856,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3963,7 +3897,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4004,7 +3938,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4045,7 +3979,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4082,54 +4016,60 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>560</v>
+      </c>
+      <c r="C97" t="n">
+        <v>564</v>
+      </c>
+      <c r="D97" t="n">
+        <v>566</v>
+      </c>
+      <c r="E97" t="n">
+        <v>548</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3730.79823515</v>
+      </c>
+      <c r="G97" t="n">
+        <v>546.2</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>543</v>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1.024411764705882</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>560</v>
-      </c>
-      <c r="C97" t="n">
-        <v>564</v>
-      </c>
-      <c r="D97" t="n">
-        <v>566</v>
-      </c>
-      <c r="E97" t="n">
-        <v>548</v>
-      </c>
-      <c r="F97" t="n">
-        <v>3730.79823515</v>
-      </c>
-      <c r="G97" t="n">
-        <v>546.2</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>1.033674033149171</v>
       </c>
     </row>
     <row r="98">
@@ -4158,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>

--- a/BackTest/2019-10-21 BackTest BCD.xlsx
+++ b/BackTest/2019-10-21 BackTest BCD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C2" t="n">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D2" t="n">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E2" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F2" t="n">
-        <v>2099.2832</v>
+        <v>3060.4</v>
       </c>
       <c r="G2" t="n">
-        <v>545.1166666666667</v>
+        <v>545</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>550</v>
       </c>
       <c r="F3" t="n">
-        <v>919.2763</v>
+        <v>2099.2832</v>
       </c>
       <c r="G3" t="n">
-        <v>545.25</v>
+        <v>545.1166666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>550</v>
       </c>
       <c r="C4" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D4" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E4" t="n">
         <v>550</v>
       </c>
       <c r="F4" t="n">
-        <v>360.108</v>
+        <v>919.2763</v>
       </c>
       <c r="G4" t="n">
-        <v>545.2166666666667</v>
+        <v>545.25</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>550</v>
       </c>
       <c r="F5" t="n">
-        <v>1119.272</v>
+        <v>360.108</v>
       </c>
       <c r="G5" t="n">
-        <v>545.2833333333333</v>
+        <v>545.2166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C6" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D6" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E6" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F6" t="n">
-        <v>890</v>
+        <v>1119.272</v>
       </c>
       <c r="G6" t="n">
-        <v>545.3833333333333</v>
+        <v>545.2833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C7" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D7" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E7" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F7" t="n">
-        <v>698.9098</v>
+        <v>890</v>
       </c>
       <c r="G7" t="n">
-        <v>545.4833333333333</v>
+        <v>545.3833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C8" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D8" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E8" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="F8" t="n">
-        <v>4.6537</v>
+        <v>698.9098</v>
       </c>
       <c r="G8" t="n">
-        <v>545.5333333333333</v>
+        <v>545.4833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C9" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D9" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E9" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F9" t="n">
-        <v>4.04</v>
+        <v>4.6537</v>
       </c>
       <c r="G9" t="n">
-        <v>545.5666666666667</v>
+        <v>545.5333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C10" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D10" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E10" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0027</v>
+        <v>4.04</v>
       </c>
       <c r="G10" t="n">
-        <v>545.6166666666667</v>
+        <v>545.5666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C11" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D11" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E11" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F11" t="n">
-        <v>20.5266</v>
+        <v>1.0027</v>
       </c>
       <c r="G11" t="n">
-        <v>545.7</v>
+        <v>545.6166666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C12" t="n">
         <v>548</v>
@@ -792,13 +792,13 @@
         <v>548</v>
       </c>
       <c r="E12" t="n">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F12" t="n">
-        <v>210.8572</v>
+        <v>20.5266</v>
       </c>
       <c r="G12" t="n">
-        <v>545.7833333333333</v>
+        <v>545.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>548</v>
       </c>
       <c r="C13" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D13" t="n">
         <v>548</v>
       </c>
       <c r="E13" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F13" t="n">
-        <v>2290.2892</v>
+        <v>210.8572</v>
       </c>
       <c r="G13" t="n">
-        <v>545.8166666666667</v>
+        <v>545.7833333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C14" t="n">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D14" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E14" t="n">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F14" t="n">
-        <v>2283.3311</v>
+        <v>2290.2892</v>
       </c>
       <c r="G14" t="n">
-        <v>545.9166666666666</v>
+        <v>545.8166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>549</v>
       </c>
       <c r="C15" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D15" t="n">
         <v>549</v>
       </c>
       <c r="E15" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F15" t="n">
-        <v>1474.9576</v>
+        <v>2283.3311</v>
       </c>
       <c r="G15" t="n">
-        <v>545.95</v>
+        <v>545.9166666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C16" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D16" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E16" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F16" t="n">
-        <v>0.19449542</v>
+        <v>1474.9576</v>
       </c>
       <c r="G16" t="n">
-        <v>545.9166666666666</v>
+        <v>545.95</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C17" t="n">
         <v>546</v>
       </c>
       <c r="D17" t="n">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E17" t="n">
         <v>546</v>
       </c>
       <c r="F17" t="n">
-        <v>4413.1577</v>
+        <v>0.19449542</v>
       </c>
       <c r="G17" t="n">
-        <v>545.9666666666667</v>
+        <v>545.9166666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C18" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D18" t="n">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E18" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F18" t="n">
-        <v>202.6002</v>
+        <v>4413.1577</v>
       </c>
       <c r="G18" t="n">
-        <v>546.0333333333333</v>
+        <v>545.9666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>547</v>
       </c>
       <c r="C19" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D19" t="n">
         <v>547</v>
       </c>
       <c r="E19" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F19" t="n">
-        <v>1672.3197</v>
+        <v>202.6002</v>
       </c>
       <c r="G19" t="n">
-        <v>546.1</v>
+        <v>546.0333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>546</v>
       </c>
       <c r="F20" t="n">
-        <v>1266.809</v>
+        <v>1672.3197</v>
       </c>
       <c r="G20" t="n">
-        <v>546.15</v>
+        <v>546.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C21" t="n">
         <v>546</v>
       </c>
       <c r="D21" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E21" t="n">
         <v>546</v>
       </c>
       <c r="F21" t="n">
-        <v>242.0726</v>
+        <v>1266.809</v>
       </c>
       <c r="G21" t="n">
-        <v>546.2333333333333</v>
+        <v>546.15</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>546</v>
       </c>
       <c r="F22" t="n">
-        <v>298.0286</v>
+        <v>242.0726</v>
       </c>
       <c r="G22" t="n">
-        <v>546.2833333333333</v>
+        <v>546.2333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>546</v>
       </c>
       <c r="F23" t="n">
-        <v>268.9176</v>
+        <v>298.0286</v>
       </c>
       <c r="G23" t="n">
-        <v>546.3333333333334</v>
+        <v>546.2833333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>546</v>
       </c>
       <c r="F24" t="n">
-        <v>4.4574</v>
+        <v>268.9176</v>
       </c>
       <c r="G24" t="n">
-        <v>546.3833333333333</v>
+        <v>546.3333333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>546</v>
       </c>
       <c r="F25" t="n">
-        <v>6.5426</v>
+        <v>4.4574</v>
       </c>
       <c r="G25" t="n">
-        <v>546.4</v>
+        <v>546.3833333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,19 +1273,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C26" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D26" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E26" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F26" t="n">
-        <v>23.5241</v>
+        <v>6.5426</v>
       </c>
       <c r="G26" t="n">
         <v>546.4</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C27" t="n">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D27" t="n">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E27" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F27" t="n">
-        <v>1121.3363</v>
+        <v>23.5241</v>
       </c>
       <c r="G27" t="n">
-        <v>546.4666666666667</v>
+        <v>546.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,19 +1343,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C28" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D28" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E28" t="n">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F28" t="n">
-        <v>1311.4199</v>
+        <v>1121.3363</v>
       </c>
       <c r="G28" t="n">
         <v>546.4666666666667</v>
@@ -1381,19 +1381,19 @@
         <v>546</v>
       </c>
       <c r="C29" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D29" t="n">
         <v>546</v>
       </c>
       <c r="E29" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F29" t="n">
-        <v>693.7644</v>
+        <v>1311.4199</v>
       </c>
       <c r="G29" t="n">
-        <v>546.4833333333333</v>
+        <v>546.4666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>546</v>
       </c>
       <c r="F30" t="n">
-        <v>177.0531</v>
+        <v>693.7644</v>
       </c>
       <c r="G30" t="n">
-        <v>546.5166666666667</v>
+        <v>546.4833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>177.0531</v>
       </c>
       <c r="G31" t="n">
-        <v>546.5</v>
+        <v>546.5166666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>546</v>
       </c>
       <c r="F32" t="n">
-        <v>1035.3105</v>
+        <v>177.0531</v>
       </c>
       <c r="G32" t="n">
-        <v>546.4833333333333</v>
+        <v>546.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C33" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D33" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E33" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F33" t="n">
-        <v>5.5045</v>
+        <v>1035.3105</v>
       </c>
       <c r="G33" t="n">
-        <v>546.45</v>
+        <v>546.4833333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C34" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D34" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E34" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F34" t="n">
-        <v>123.6342</v>
+        <v>5.5045</v>
       </c>
       <c r="G34" t="n">
-        <v>546.4</v>
+        <v>546.45</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C35" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D35" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E35" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F35" t="n">
-        <v>716.8605</v>
+        <v>123.6342</v>
       </c>
       <c r="G35" t="n">
-        <v>546.35</v>
+        <v>546.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>545</v>
       </c>
       <c r="F36" t="n">
-        <v>303.3397</v>
+        <v>716.8605</v>
       </c>
       <c r="G36" t="n">
-        <v>546.3</v>
+        <v>546.35</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>545</v>
       </c>
       <c r="F37" t="n">
-        <v>83.46259999999999</v>
+        <v>303.3397</v>
       </c>
       <c r="G37" t="n">
-        <v>546.2166666666667</v>
+        <v>546.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>545</v>
       </c>
       <c r="C38" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D38" t="n">
         <v>545</v>
       </c>
       <c r="E38" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F38" t="n">
-        <v>179.1701</v>
+        <v>83.46259999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>546.0666666666667</v>
+        <v>546.2166666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C39" t="n">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D39" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E39" t="n">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F39" t="n">
-        <v>3130.4621</v>
+        <v>179.1701</v>
       </c>
       <c r="G39" t="n">
-        <v>545.95</v>
+        <v>546.0666666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>543</v>
       </c>
       <c r="C40" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D40" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E40" t="n">
         <v>543</v>
       </c>
       <c r="F40" t="n">
-        <v>557.1521</v>
+        <v>3130.4621</v>
       </c>
       <c r="G40" t="n">
-        <v>545.85</v>
+        <v>545.95</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>543</v>
       </c>
       <c r="C41" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D41" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E41" t="n">
         <v>543</v>
       </c>
       <c r="F41" t="n">
-        <v>761.1503</v>
+        <v>557.1521</v>
       </c>
       <c r="G41" t="n">
-        <v>545.7</v>
+        <v>545.85</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C42" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D42" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E42" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F42" t="n">
-        <v>1269.6508</v>
+        <v>761.1503</v>
       </c>
       <c r="G42" t="n">
-        <v>545.5666666666667</v>
+        <v>545.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C43" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D43" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E43" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F43" t="n">
-        <v>1281.2455</v>
+        <v>1269.6508</v>
       </c>
       <c r="G43" t="n">
-        <v>545.4833333333333</v>
+        <v>545.5666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>541</v>
       </c>
       <c r="F44" t="n">
-        <v>259.5257</v>
+        <v>1281.2455</v>
       </c>
       <c r="G44" t="n">
-        <v>545.4</v>
+        <v>545.4833333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C45" t="n">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D45" t="n">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E45" t="n">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F45" t="n">
-        <v>817.2451</v>
+        <v>259.5257</v>
       </c>
       <c r="G45" t="n">
-        <v>545.35</v>
+        <v>545.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C46" t="n">
         <v>544</v>
@@ -1982,13 +1982,13 @@
         <v>544</v>
       </c>
       <c r="E46" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F46" t="n">
-        <v>180</v>
+        <v>817.2451</v>
       </c>
       <c r="G46" t="n">
-        <v>545.3166666666667</v>
+        <v>545.35</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C47" t="n">
         <v>544</v>
@@ -2017,13 +2017,13 @@
         <v>544</v>
       </c>
       <c r="E47" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F47" t="n">
-        <v>531.4108</v>
+        <v>180</v>
       </c>
       <c r="G47" t="n">
-        <v>545.3</v>
+        <v>545.3166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C48" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D48" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E48" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F48" t="n">
-        <v>1036.0144</v>
+        <v>531.4108</v>
       </c>
       <c r="G48" t="n">
-        <v>545.2666666666667</v>
+        <v>545.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>542</v>
       </c>
       <c r="C49" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D49" t="n">
         <v>542</v>
       </c>
       <c r="E49" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F49" t="n">
-        <v>226.9073</v>
+        <v>1036.0144</v>
       </c>
       <c r="G49" t="n">
-        <v>545.2166666666667</v>
+        <v>545.2666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,32 +2113,38 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C50" t="n">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D50" t="n">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E50" t="n">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F50" t="n">
-        <v>814.2442</v>
+        <v>226.9073</v>
       </c>
       <c r="G50" t="n">
-        <v>545.2333333333333</v>
+        <v>545.2166666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>542</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2160,10 +2166,10 @@
         <v>543</v>
       </c>
       <c r="F51" t="n">
-        <v>378.1134</v>
+        <v>814.2442</v>
       </c>
       <c r="G51" t="n">
-        <v>545.25</v>
+        <v>545.2333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2172,12 +2178,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>543</v>
-      </c>
-      <c r="K51" t="n">
-        <v>543</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
+        <v>541</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2190,19 +2198,19 @@
         <v>543</v>
       </c>
       <c r="C52" t="n">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D52" t="n">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E52" t="n">
         <v>543</v>
       </c>
       <c r="F52" t="n">
-        <v>7900.7726</v>
+        <v>378.1134</v>
       </c>
       <c r="G52" t="n">
-        <v>545.4</v>
+        <v>545.25</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2213,12 +2221,10 @@
       <c r="J52" t="n">
         <v>543</v>
       </c>
-      <c r="K52" t="n">
-        <v>543</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -2230,22 +2236,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C53" t="n">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="D53" t="n">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="E53" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F53" t="n">
-        <v>34.3658</v>
+        <v>7900.7726</v>
       </c>
       <c r="G53" t="n">
-        <v>545.4333333333333</v>
+        <v>545.4</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2254,11 +2260,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>551</v>
-      </c>
-      <c r="K53" t="n">
         <v>543</v>
       </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2285,7 +2289,7 @@
         <v>544</v>
       </c>
       <c r="F54" t="n">
-        <v>76.3342</v>
+        <v>34.3658</v>
       </c>
       <c r="G54" t="n">
         <v>545.4333333333333</v>
@@ -2297,9 +2301,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>543</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2326,10 +2328,10 @@
         <v>544</v>
       </c>
       <c r="F55" t="n">
-        <v>55.4</v>
+        <v>76.3342</v>
       </c>
       <c r="G55" t="n">
-        <v>545.4833333333333</v>
+        <v>545.4333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2338,9 +2340,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>543</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2358,19 +2358,19 @@
         <v>544</v>
       </c>
       <c r="C56" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D56" t="n">
         <v>544</v>
       </c>
       <c r="E56" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F56" t="n">
-        <v>1731.6089</v>
+        <v>55.4</v>
       </c>
       <c r="G56" t="n">
-        <v>545.5166666666667</v>
+        <v>545.4833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2379,9 +2379,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>543</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2396,22 +2394,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C57" t="n">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D57" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E57" t="n">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>1731.6089</v>
       </c>
       <c r="G57" t="n">
-        <v>545.5833333333334</v>
+        <v>545.5166666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2420,9 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>543</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2440,19 +2436,19 @@
         <v>547</v>
       </c>
       <c r="C58" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D58" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E58" t="n">
         <v>547</v>
       </c>
       <c r="F58" t="n">
-        <v>560</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>545.6666666666666</v>
+        <v>545.5833333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2461,9 +2457,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>543</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2478,22 +2472,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C59" t="n">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D59" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E59" t="n">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F59" t="n">
-        <v>560.1697</v>
+        <v>560</v>
       </c>
       <c r="G59" t="n">
-        <v>545.65</v>
+        <v>545.6666666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2502,9 +2496,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>543</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2519,22 +2511,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>544</v>
+      </c>
+      <c r="C60" t="n">
         <v>543</v>
       </c>
-      <c r="C60" t="n">
-        <v>542</v>
-      </c>
       <c r="D60" t="n">
+        <v>544</v>
+      </c>
+      <c r="E60" t="n">
         <v>543</v>
       </c>
-      <c r="E60" t="n">
-        <v>542</v>
-      </c>
       <c r="F60" t="n">
-        <v>480.5287</v>
+        <v>560.1697</v>
       </c>
       <c r="G60" t="n">
-        <v>545.5833333333334</v>
+        <v>545.65</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2543,9 +2535,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>543</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2560,22 +2550,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C61" t="n">
         <v>542</v>
       </c>
       <c r="D61" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E61" t="n">
         <v>542</v>
       </c>
       <c r="F61" t="n">
-        <v>336</v>
+        <v>480.5287</v>
       </c>
       <c r="G61" t="n">
-        <v>545.4666666666667</v>
+        <v>545.5833333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2584,9 +2574,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>543</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2601,22 +2589,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C62" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D62" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E62" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F62" t="n">
-        <v>2750.744</v>
+        <v>336</v>
       </c>
       <c r="G62" t="n">
-        <v>545.3</v>
+        <v>545.4666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2625,9 +2613,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>543</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2654,10 +2640,10 @@
         <v>541</v>
       </c>
       <c r="F63" t="n">
-        <v>488</v>
+        <v>2750.744</v>
       </c>
       <c r="G63" t="n">
-        <v>545.1333333333333</v>
+        <v>545.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2666,9 +2652,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>543</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2683,22 +2667,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C64" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D64" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E64" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F64" t="n">
-        <v>2150.5747</v>
+        <v>488</v>
       </c>
       <c r="G64" t="n">
-        <v>544.9666666666667</v>
+        <v>545.1333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2707,9 +2691,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>543</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2736,10 +2718,10 @@
         <v>540</v>
       </c>
       <c r="F65" t="n">
-        <v>488.6602</v>
+        <v>2150.5747</v>
       </c>
       <c r="G65" t="n">
-        <v>544.8</v>
+        <v>544.9666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2748,9 +2730,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>543</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2777,10 +2757,10 @@
         <v>540</v>
       </c>
       <c r="F66" t="n">
-        <v>216</v>
+        <v>488.6602</v>
       </c>
       <c r="G66" t="n">
-        <v>544.6166666666667</v>
+        <v>544.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2789,9 +2769,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>543</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2818,10 +2796,10 @@
         <v>540</v>
       </c>
       <c r="F67" t="n">
-        <v>537.3499</v>
+        <v>216</v>
       </c>
       <c r="G67" t="n">
-        <v>544.45</v>
+        <v>544.6166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2830,9 +2808,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>543</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2859,10 +2835,10 @@
         <v>540</v>
       </c>
       <c r="F68" t="n">
-        <v>1317.4421</v>
+        <v>537.3499</v>
       </c>
       <c r="G68" t="n">
-        <v>544.35</v>
+        <v>544.45</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2871,9 +2847,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>543</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2888,22 +2862,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C69" t="n">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D69" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E69" t="n">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F69" t="n">
-        <v>720</v>
+        <v>1317.4421</v>
       </c>
       <c r="G69" t="n">
-        <v>544.15</v>
+        <v>544.35</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2912,9 +2886,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>543</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2929,22 +2901,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C70" t="n">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D70" t="n">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E70" t="n">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F70" t="n">
-        <v>35.8338</v>
+        <v>720</v>
       </c>
       <c r="G70" t="n">
-        <v>544.0833333333334</v>
+        <v>544.15</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2953,9 +2925,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>543</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2970,22 +2940,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C71" t="n">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D71" t="n">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E71" t="n">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F71" t="n">
-        <v>3.4572</v>
+        <v>35.8338</v>
       </c>
       <c r="G71" t="n">
-        <v>544.0333333333333</v>
+        <v>544.0833333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2994,9 +2964,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>543</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3023,10 +2991,10 @@
         <v>545</v>
       </c>
       <c r="F72" t="n">
-        <v>305.633</v>
+        <v>3.4572</v>
       </c>
       <c r="G72" t="n">
-        <v>543.9833333333333</v>
+        <v>544.0333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3035,9 +3003,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>543</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3055,19 +3021,19 @@
         <v>545</v>
       </c>
       <c r="C73" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D73" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E73" t="n">
         <v>545</v>
       </c>
       <c r="F73" t="n">
-        <v>2731.4086</v>
+        <v>305.633</v>
       </c>
       <c r="G73" t="n">
-        <v>544</v>
+        <v>543.9833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3076,9 +3042,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>543</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3093,22 +3057,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C74" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D74" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E74" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F74" t="n">
-        <v>3086.0266</v>
+        <v>2731.4086</v>
       </c>
       <c r="G74" t="n">
-        <v>543.9833333333333</v>
+        <v>544</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3117,9 +3081,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>543</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3134,22 +3096,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>546</v>
+      </c>
+      <c r="C75" t="n">
         <v>548</v>
       </c>
-      <c r="C75" t="n">
-        <v>549</v>
-      </c>
       <c r="D75" t="n">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E75" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F75" t="n">
-        <v>1992.2775</v>
+        <v>3086.0266</v>
       </c>
       <c r="G75" t="n">
-        <v>544.05</v>
+        <v>543.9833333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3158,9 +3120,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>543</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3175,22 +3135,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>548</v>
+      </c>
+      <c r="C76" t="n">
         <v>549</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>550</v>
       </c>
-      <c r="D76" t="n">
-        <v>551</v>
-      </c>
       <c r="E76" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F76" t="n">
-        <v>5621.0185</v>
+        <v>1992.2775</v>
       </c>
       <c r="G76" t="n">
-        <v>544.1166666666667</v>
+        <v>544.05</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3199,9 +3159,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>543</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3216,22 +3174,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C77" t="n">
         <v>550</v>
       </c>
       <c r="D77" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E77" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F77" t="n">
-        <v>251.6327</v>
+        <v>5621.0185</v>
       </c>
       <c r="G77" t="n">
-        <v>544.1833333333333</v>
+        <v>544.1166666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3240,9 +3198,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>543</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3260,19 +3216,19 @@
         <v>550</v>
       </c>
       <c r="C78" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D78" t="n">
         <v>550</v>
       </c>
       <c r="E78" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F78" t="n">
-        <v>483.9135</v>
+        <v>251.6327</v>
       </c>
       <c r="G78" t="n">
-        <v>544.2166666666667</v>
+        <v>544.1833333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3281,9 +3237,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>543</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,22 +3252,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C79" t="n">
+        <v>549</v>
+      </c>
+      <c r="D79" t="n">
         <v>550</v>
       </c>
-      <c r="D79" t="n">
-        <v>551</v>
-      </c>
       <c r="E79" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F79" t="n">
-        <v>809.9646</v>
+        <v>483.9135</v>
       </c>
       <c r="G79" t="n">
-        <v>544.2833333333333</v>
+        <v>544.2166666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3322,9 +3276,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>543</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3339,22 +3291,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C80" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D80" t="n">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E80" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F80" t="n">
-        <v>18.255</v>
+        <v>809.9646</v>
       </c>
       <c r="G80" t="n">
-        <v>544.3333333333334</v>
+        <v>544.2833333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3363,9 +3315,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>543</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3383,19 +3333,19 @@
         <v>549</v>
       </c>
       <c r="C81" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D81" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E81" t="n">
         <v>549</v>
       </c>
       <c r="F81" t="n">
-        <v>1292.7727</v>
+        <v>18.255</v>
       </c>
       <c r="G81" t="n">
-        <v>544.4</v>
+        <v>544.3333333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3404,9 +3354,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>543</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3424,19 +3372,19 @@
         <v>549</v>
       </c>
       <c r="C82" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D82" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E82" t="n">
         <v>549</v>
       </c>
       <c r="F82" t="n">
-        <v>27.2276</v>
+        <v>1292.7727</v>
       </c>
       <c r="G82" t="n">
-        <v>544.45</v>
+        <v>544.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3445,9 +3393,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>543</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3462,22 +3408,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C83" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D83" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E83" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F83" t="n">
-        <v>594.1499</v>
+        <v>27.2276</v>
       </c>
       <c r="G83" t="n">
-        <v>544.4666666666667</v>
+        <v>544.45</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3486,9 +3432,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>543</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3503,19 +3447,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C84" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D84" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E84" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F84" t="n">
-        <v>516.5</v>
+        <v>594.1499</v>
       </c>
       <c r="G84" t="n">
         <v>544.4666666666667</v>
@@ -3527,9 +3471,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>543</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3547,19 +3489,19 @@
         <v>546</v>
       </c>
       <c r="C85" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D85" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E85" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F85" t="n">
-        <v>6796.3016</v>
+        <v>516.5</v>
       </c>
       <c r="G85" t="n">
-        <v>544.5166666666667</v>
+        <v>544.4666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3568,9 +3510,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>543</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3585,22 +3525,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C86" t="n">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D86" t="n">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E86" t="n">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="F86" t="n">
-        <v>1889.7368</v>
+        <v>6796.3016</v>
       </c>
       <c r="G86" t="n">
-        <v>544.6333333333333</v>
+        <v>544.5166666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3609,9 +3549,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>543</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3626,22 +3564,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C87" t="n">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D87" t="n">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E87" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F87" t="n">
-        <v>2124</v>
+        <v>1889.7368</v>
       </c>
       <c r="G87" t="n">
-        <v>544.65</v>
+        <v>544.6333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3650,9 +3588,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>543</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3679,10 +3615,10 @@
         <v>549</v>
       </c>
       <c r="F88" t="n">
-        <v>777.2094</v>
+        <v>2124</v>
       </c>
       <c r="G88" t="n">
-        <v>544.7166666666667</v>
+        <v>544.65</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3691,9 +3627,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>543</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3720,51 +3654,47 @@
         <v>549</v>
       </c>
       <c r="F89" t="n">
-        <v>49.8793</v>
+        <v>777.2094</v>
       </c>
       <c r="G89" t="n">
-        <v>544.7666666666667</v>
+        <v>544.7166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>543</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C90" t="n">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D90" t="n">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E90" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F90" t="n">
-        <v>1355.395</v>
+        <v>49.8793</v>
       </c>
       <c r="G90" t="n">
-        <v>544.85</v>
+        <v>544.7666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3773,14 +3703,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>543</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3790,7 +3714,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C91" t="n">
         <v>551</v>
@@ -3799,13 +3723,13 @@
         <v>551</v>
       </c>
       <c r="E91" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F91" t="n">
-        <v>225</v>
+        <v>1355.395</v>
       </c>
       <c r="G91" t="n">
-        <v>544.9333333333333</v>
+        <v>544.85</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3814,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>543</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3843,10 +3761,10 @@
         <v>551</v>
       </c>
       <c r="F92" t="n">
-        <v>72.6641</v>
+        <v>225</v>
       </c>
       <c r="G92" t="n">
-        <v>545.0166666666667</v>
+        <v>544.9333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3855,14 +3773,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>543</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3872,22 +3784,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C93" t="n">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D93" t="n">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E93" t="n">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F93" t="n">
-        <v>4620.0832</v>
+        <v>72.6641</v>
       </c>
       <c r="G93" t="n">
-        <v>545.15</v>
+        <v>545.0166666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3896,14 +3808,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>543</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3913,22 +3819,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>552</v>
+      </c>
+      <c r="C94" t="n">
         <v>553</v>
       </c>
-      <c r="C94" t="n">
-        <v>558</v>
-      </c>
       <c r="D94" t="n">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E94" t="n">
         <v>552</v>
       </c>
       <c r="F94" t="n">
-        <v>6653.36168841</v>
+        <v>4620.0832</v>
       </c>
       <c r="G94" t="n">
-        <v>545.3833333333333</v>
+        <v>545.15</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3937,14 +3843,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>543</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3954,22 +3854,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>553</v>
+      </c>
+      <c r="C95" t="n">
         <v>558</v>
       </c>
-      <c r="C95" t="n">
-        <v>560</v>
-      </c>
       <c r="D95" t="n">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E95" t="n">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="F95" t="n">
-        <v>6085.5887</v>
+        <v>6653.36168841</v>
       </c>
       <c r="G95" t="n">
-        <v>545.6333333333333</v>
+        <v>545.3833333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3978,14 +3878,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>543</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3995,7 +3889,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C96" t="n">
         <v>560</v>
@@ -4004,13 +3898,13 @@
         <v>560</v>
       </c>
       <c r="E96" t="n">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F96" t="n">
-        <v>149.3845</v>
+        <v>6085.5887</v>
       </c>
       <c r="G96" t="n">
-        <v>545.8833333333333</v>
+        <v>545.6333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4019,14 +3913,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>543</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4039,19 +3927,19 @@
         <v>560</v>
       </c>
       <c r="C97" t="n">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D97" t="n">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E97" t="n">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="F97" t="n">
-        <v>3730.79823515</v>
+        <v>149.3845</v>
       </c>
       <c r="G97" t="n">
-        <v>546.2</v>
+        <v>545.8833333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4060,16 +3948,10 @@
         <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>543</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>1.033674033149171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4077,22 +3959,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C98" t="n">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D98" t="n">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E98" t="n">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="F98" t="n">
-        <v>1427.4626</v>
+        <v>3730.79823515</v>
       </c>
       <c r="G98" t="n">
-        <v>546.55</v>
+        <v>546.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4112,22 +3994,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C99" t="n">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D99" t="n">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E99" t="n">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F99" t="n">
-        <v>753.6742</v>
+        <v>1427.4626</v>
       </c>
       <c r="G99" t="n">
-        <v>546.8833333333333</v>
+        <v>546.55</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4159,16 +4041,16 @@
         <v>563</v>
       </c>
       <c r="F100" t="n">
-        <v>5002.0832</v>
+        <v>753.6742</v>
       </c>
       <c r="G100" t="n">
-        <v>547.2</v>
+        <v>546.8833333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4194,10 +4076,10 @@
         <v>563</v>
       </c>
       <c r="F101" t="n">
-        <v>101</v>
+        <v>5002.0832</v>
       </c>
       <c r="G101" t="n">
-        <v>547.5333333333333</v>
+        <v>547.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4217,22 +4099,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C102" t="n">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D102" t="n">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E102" t="n">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F102" t="n">
-        <v>3286.83889168</v>
+        <v>101</v>
       </c>
       <c r="G102" t="n">
-        <v>547.9166666666666</v>
+        <v>547.5333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4252,22 +4134,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C103" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D103" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E103" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F103" t="n">
-        <v>1115.6886</v>
+        <v>3286.83889168</v>
       </c>
       <c r="G103" t="n">
-        <v>548.2833333333333</v>
+        <v>547.9166666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4287,22 +4169,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C104" t="n">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D104" t="n">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E104" t="n">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F104" t="n">
-        <v>180</v>
+        <v>1115.6886</v>
       </c>
       <c r="G104" t="n">
-        <v>548.6833333333333</v>
+        <v>548.2833333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4334,10 +4216,10 @@
         <v>565</v>
       </c>
       <c r="F105" t="n">
-        <v>531.0069999999999</v>
+        <v>180</v>
       </c>
       <c r="G105" t="n">
-        <v>549.0333333333333</v>
+        <v>548.6833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4357,22 +4239,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="C106" t="n">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="D106" t="n">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="E106" t="n">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="F106" t="n">
-        <v>7137.046</v>
+        <v>531.0069999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>549.2</v>
+        <v>549.0333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4392,22 +4274,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C107" t="n">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D107" t="n">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="E107" t="n">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F107" t="n">
-        <v>102</v>
+        <v>7137.046</v>
       </c>
       <c r="G107" t="n">
-        <v>549.5</v>
+        <v>549.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4430,19 +4312,19 @@
         <v>557</v>
       </c>
       <c r="C108" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D108" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E108" t="n">
         <v>557</v>
       </c>
       <c r="F108" t="n">
-        <v>122.88</v>
+        <v>102</v>
       </c>
       <c r="G108" t="n">
-        <v>549.8166666666667</v>
+        <v>549.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4462,7 +4344,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C109" t="n">
         <v>561</v>
@@ -4471,13 +4353,13 @@
         <v>561</v>
       </c>
       <c r="E109" t="n">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F109" t="n">
-        <v>50.3155</v>
+        <v>122.88</v>
       </c>
       <c r="G109" t="n">
-        <v>550.15</v>
+        <v>549.8166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4497,22 +4379,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C110" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D110" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E110" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F110" t="n">
-        <v>77.5581</v>
+        <v>50.3155</v>
       </c>
       <c r="G110" t="n">
-        <v>550.4166666666666</v>
+        <v>550.15</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4532,22 +4414,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C111" t="n">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D111" t="n">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E111" t="n">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F111" t="n">
-        <v>172.6097</v>
+        <v>77.5581</v>
       </c>
       <c r="G111" t="n">
-        <v>550.65</v>
+        <v>550.4166666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4567,22 +4449,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C112" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D112" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E112" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F112" t="n">
-        <v>2024.3988</v>
+        <v>172.6097</v>
       </c>
       <c r="G112" t="n">
-        <v>550.7333333333333</v>
+        <v>550.65</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4614,10 +4496,10 @@
         <v>556</v>
       </c>
       <c r="F113" t="n">
-        <v>100</v>
+        <v>2024.3988</v>
       </c>
       <c r="G113" t="n">
-        <v>550.9333333333333</v>
+        <v>550.7333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4649,10 +4531,10 @@
         <v>556</v>
       </c>
       <c r="F114" t="n">
-        <v>897.6638</v>
+        <v>100</v>
       </c>
       <c r="G114" t="n">
-        <v>551.1333333333333</v>
+        <v>550.9333333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4672,22 +4554,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C115" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D115" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E115" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F115" t="n">
-        <v>848.5817</v>
+        <v>897.6638</v>
       </c>
       <c r="G115" t="n">
-        <v>551.3166666666667</v>
+        <v>551.1333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4707,22 +4589,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C116" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D116" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E116" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F116" t="n">
-        <v>486.692</v>
+        <v>848.5817</v>
       </c>
       <c r="G116" t="n">
-        <v>551.5333333333333</v>
+        <v>551.3166666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4754,10 +4636,10 @@
         <v>554</v>
       </c>
       <c r="F117" t="n">
-        <v>393.2511</v>
+        <v>486.692</v>
       </c>
       <c r="G117" t="n">
-        <v>551.65</v>
+        <v>551.5333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4780,19 +4662,19 @@
         <v>554</v>
       </c>
       <c r="C118" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D118" t="n">
         <v>554</v>
       </c>
       <c r="E118" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F118" t="n">
-        <v>4408.9439</v>
+        <v>393.2511</v>
       </c>
       <c r="G118" t="n">
-        <v>551.7333333333333</v>
+        <v>551.65</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4812,22 +4694,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C119" t="n">
         <v>553</v>
       </c>
       <c r="D119" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E119" t="n">
         <v>553</v>
       </c>
       <c r="F119" t="n">
-        <v>1097.5079</v>
+        <v>4408.9439</v>
       </c>
       <c r="G119" t="n">
-        <v>551.9</v>
+        <v>551.7333333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4850,19 +4732,19 @@
         <v>553</v>
       </c>
       <c r="C120" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D120" t="n">
         <v>553</v>
       </c>
       <c r="E120" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F120" t="n">
-        <v>500</v>
+        <v>1097.5079</v>
       </c>
       <c r="G120" t="n">
-        <v>552.0666666666667</v>
+        <v>551.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4885,19 +4767,19 @@
         <v>553</v>
       </c>
       <c r="C121" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D121" t="n">
         <v>553</v>
       </c>
       <c r="E121" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F121" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G121" t="n">
-        <v>552.25</v>
+        <v>552.0666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4917,22 +4799,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C122" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D122" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E122" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F122" t="n">
-        <v>108.3032</v>
+        <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>552.4666666666667</v>
+        <v>552.25</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4964,10 +4846,10 @@
         <v>554</v>
       </c>
       <c r="F123" t="n">
-        <v>8.489100000000001</v>
+        <v>108.3032</v>
       </c>
       <c r="G123" t="n">
-        <v>552.6833333333333</v>
+        <v>552.4666666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4999,10 +4881,10 @@
         <v>554</v>
       </c>
       <c r="F124" t="n">
-        <v>441.3664</v>
+        <v>8.489100000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>552.9166666666666</v>
+        <v>552.6833333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5034,10 +4916,10 @@
         <v>554</v>
       </c>
       <c r="F125" t="n">
-        <v>427.0754</v>
+        <v>441.3664</v>
       </c>
       <c r="G125" t="n">
-        <v>553.15</v>
+        <v>552.9166666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5069,10 +4951,10 @@
         <v>554</v>
       </c>
       <c r="F126" t="n">
-        <v>18.7648</v>
+        <v>427.0754</v>
       </c>
       <c r="G126" t="n">
-        <v>553.3833333333333</v>
+        <v>553.15</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5092,22 +4974,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C127" t="n">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D127" t="n">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E127" t="n">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F127" t="n">
-        <v>946.0001</v>
+        <v>18.7648</v>
       </c>
       <c r="G127" t="n">
-        <v>553.6666666666666</v>
+        <v>553.3833333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5139,10 +5021,10 @@
         <v>557</v>
       </c>
       <c r="F128" t="n">
-        <v>315.621</v>
+        <v>946.0001</v>
       </c>
       <c r="G128" t="n">
-        <v>553.95</v>
+        <v>553.6666666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5174,10 +5056,10 @@
         <v>557</v>
       </c>
       <c r="F129" t="n">
-        <v>100</v>
+        <v>315.621</v>
       </c>
       <c r="G129" t="n">
-        <v>554.2666666666667</v>
+        <v>553.95</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5197,22 +5079,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C130" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D130" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E130" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F130" t="n">
-        <v>1160.1483</v>
+        <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>554.5</v>
+        <v>554.2666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5232,22 +5114,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C131" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D131" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E131" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F131" t="n">
-        <v>226.4484</v>
+        <v>1160.1483</v>
       </c>
       <c r="G131" t="n">
-        <v>554.7166666666667</v>
+        <v>554.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5267,22 +5149,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C132" t="n">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D132" t="n">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E132" t="n">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F132" t="n">
-        <v>125.0411</v>
+        <v>226.4484</v>
       </c>
       <c r="G132" t="n">
-        <v>554.95</v>
+        <v>554.7166666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5314,10 +5196,10 @@
         <v>559</v>
       </c>
       <c r="F133" t="n">
-        <v>2352.912</v>
+        <v>125.0411</v>
       </c>
       <c r="G133" t="n">
-        <v>555.1666666666666</v>
+        <v>554.95</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5340,19 +5222,19 @@
         <v>559</v>
       </c>
       <c r="C134" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D134" t="n">
         <v>559</v>
       </c>
       <c r="E134" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F134" t="n">
-        <v>2983.2829</v>
+        <v>2352.912</v>
       </c>
       <c r="G134" t="n">
-        <v>555.3</v>
+        <v>555.1666666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5372,22 +5254,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C135" t="n">
         <v>556</v>
       </c>
       <c r="D135" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E135" t="n">
         <v>556</v>
       </c>
       <c r="F135" t="n">
-        <v>774.811</v>
+        <v>2983.2829</v>
       </c>
       <c r="G135" t="n">
-        <v>555.4166666666666</v>
+        <v>555.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5407,22 +5289,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C136" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D136" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E136" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F136" t="n">
-        <v>194.2</v>
+        <v>774.811</v>
       </c>
       <c r="G136" t="n">
-        <v>555.55</v>
+        <v>555.4166666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5454,10 +5336,10 @@
         <v>558</v>
       </c>
       <c r="F137" t="n">
-        <v>157.2892</v>
+        <v>194.2</v>
       </c>
       <c r="G137" t="n">
-        <v>555.6833333333333</v>
+        <v>555.55</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5477,22 +5359,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C138" t="n">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D138" t="n">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E138" t="n">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F138" t="n">
-        <v>2025.3962</v>
+        <v>157.2892</v>
       </c>
       <c r="G138" t="n">
-        <v>555.8666666666667</v>
+        <v>555.6833333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5515,19 +5397,19 @@
         <v>560</v>
       </c>
       <c r="C139" t="n">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D139" t="n">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E139" t="n">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F139" t="n">
-        <v>5438.7063</v>
+        <v>2025.3962</v>
       </c>
       <c r="G139" t="n">
-        <v>556.05</v>
+        <v>555.8666666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5547,22 +5429,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C140" t="n">
         <v>561</v>
       </c>
       <c r="D140" t="n">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E140" t="n">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F140" t="n">
-        <v>1338.5788</v>
+        <v>5438.7063</v>
       </c>
       <c r="G140" t="n">
-        <v>556.25</v>
+        <v>556.05</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5582,22 +5464,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C141" t="n">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D141" t="n">
         <v>562</v>
       </c>
       <c r="E141" t="n">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F141" t="n">
-        <v>1433.9309</v>
+        <v>1338.5788</v>
       </c>
       <c r="G141" t="n">
-        <v>556.45</v>
+        <v>556.25</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5629,10 +5511,10 @@
         <v>562</v>
       </c>
       <c r="F142" t="n">
-        <v>1058</v>
+        <v>1433.9309</v>
       </c>
       <c r="G142" t="n">
-        <v>556.6666666666666</v>
+        <v>556.45</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5664,10 +5546,10 @@
         <v>562</v>
       </c>
       <c r="F143" t="n">
-        <v>1049.5423</v>
+        <v>1058</v>
       </c>
       <c r="G143" t="n">
-        <v>556.9166666666666</v>
+        <v>556.6666666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5699,10 +5581,10 @@
         <v>562</v>
       </c>
       <c r="F144" t="n">
-        <v>802</v>
+        <v>1049.5423</v>
       </c>
       <c r="G144" t="n">
-        <v>557.1833333333333</v>
+        <v>556.9166666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5734,10 +5616,10 @@
         <v>562</v>
       </c>
       <c r="F145" t="n">
-        <v>18.5371</v>
+        <v>802</v>
       </c>
       <c r="G145" t="n">
-        <v>557.4</v>
+        <v>557.1833333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5752,6 +5634,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>562</v>
+      </c>
+      <c r="C146" t="n">
+        <v>562</v>
+      </c>
+      <c r="D146" t="n">
+        <v>562</v>
+      </c>
+      <c r="E146" t="n">
+        <v>562</v>
+      </c>
+      <c r="F146" t="n">
+        <v>18.5371</v>
+      </c>
+      <c r="G146" t="n">
+        <v>557.4</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-21 BackTest BCD.xlsx
+++ b/BackTest/2019-10-21 BackTest BCD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>3060.4</v>
       </c>
       <c r="G2" t="n">
+        <v>543.3333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>545</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>2099.2832</v>
       </c>
       <c r="G3" t="n">
+        <v>543.7333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>545.1166666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>919.2763</v>
       </c>
       <c r="G4" t="n">
+        <v>544.2</v>
+      </c>
+      <c r="H4" t="n">
         <v>545.25</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>360.108</v>
       </c>
       <c r="G5" t="n">
+        <v>544.6</v>
+      </c>
+      <c r="H5" t="n">
         <v>545.2166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1119.272</v>
       </c>
       <c r="G6" t="n">
+        <v>545.1333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>545.2833333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>890</v>
       </c>
       <c r="G7" t="n">
+        <v>545.7333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>545.3833333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>698.9098</v>
       </c>
       <c r="G8" t="n">
+        <v>546.2666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>545.4833333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>4.6537</v>
       </c>
       <c r="G9" t="n">
+        <v>546.5333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>545.5333333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>4.04</v>
       </c>
       <c r="G10" t="n">
+        <v>546.9333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>545.5666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1.0027</v>
       </c>
       <c r="G11" t="n">
+        <v>547.2666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>545.6166666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>20.5266</v>
       </c>
       <c r="G12" t="n">
+        <v>547.8666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>545.7</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>210.8572</v>
       </c>
       <c r="G13" t="n">
+        <v>548.2</v>
+      </c>
+      <c r="H13" t="n">
         <v>545.7833333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>2290.2892</v>
       </c>
       <c r="G14" t="n">
+        <v>548.3333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>545.8166666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>2283.3311</v>
       </c>
       <c r="G15" t="n">
+        <v>548.6666666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>545.9166666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>1474.9576</v>
       </c>
       <c r="G16" t="n">
+        <v>548.6</v>
+      </c>
+      <c r="H16" t="n">
         <v>545.95</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>0.19449542</v>
       </c>
       <c r="G17" t="n">
+        <v>548.4</v>
+      </c>
+      <c r="H17" t="n">
         <v>545.9166666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>4413.1577</v>
       </c>
       <c r="G18" t="n">
+        <v>548.0666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>545.9666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>202.6002</v>
       </c>
       <c r="G19" t="n">
+        <v>547.8</v>
+      </c>
+      <c r="H19" t="n">
         <v>546.0333333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1672.3197</v>
       </c>
       <c r="G20" t="n">
+        <v>547.5333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>546.1</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>1266.809</v>
       </c>
       <c r="G21" t="n">
+        <v>547.2666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>546.15</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>242.0726</v>
       </c>
       <c r="G22" t="n">
+        <v>546.9333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>546.2333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>298.0286</v>
       </c>
       <c r="G23" t="n">
+        <v>546.6666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>546.2833333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,25 @@
         <v>268.9176</v>
       </c>
       <c r="G24" t="n">
+        <v>546.6666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>546.3333333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>546</v>
+      </c>
+      <c r="L24" t="n">
+        <v>546</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1331,27 @@
         <v>4.4574</v>
       </c>
       <c r="G25" t="n">
+        <v>546.4</v>
+      </c>
+      <c r="H25" t="n">
         <v>546.3833333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>546</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1291,15 +1378,24 @@
         <v>546.4</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>546.4</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>546</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1419,21 @@
         <v>23.5241</v>
       </c>
       <c r="G27" t="n">
+        <v>546.1333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>546.4</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1457,21 @@
         <v>1121.3363</v>
       </c>
       <c r="G28" t="n">
+        <v>546.1333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>546.4666666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1495,21 @@
         <v>1311.4199</v>
       </c>
       <c r="G29" t="n">
+        <v>546.1333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>546.4666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1533,21 @@
         <v>693.7644</v>
       </c>
       <c r="G30" t="n">
+        <v>545.9333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>546.4833333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1571,21 @@
         <v>177.0531</v>
       </c>
       <c r="G31" t="n">
+        <v>546</v>
+      </c>
+      <c r="H31" t="n">
         <v>546.5166666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1609,21 @@
         <v>177.0531</v>
       </c>
       <c r="G32" t="n">
+        <v>546</v>
+      </c>
+      <c r="H32" t="n">
         <v>546.5</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1647,21 @@
         <v>1035.3105</v>
       </c>
       <c r="G33" t="n">
+        <v>546</v>
+      </c>
+      <c r="H33" t="n">
         <v>546.4833333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1685,21 @@
         <v>5.5045</v>
       </c>
       <c r="G34" t="n">
+        <v>545.8666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>546.45</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1723,21 @@
         <v>123.6342</v>
       </c>
       <c r="G35" t="n">
+        <v>545.7333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>546.4</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1761,21 @@
         <v>716.8605</v>
       </c>
       <c r="G36" t="n">
+        <v>545.6666666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>546.35</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1799,21 @@
         <v>303.3397</v>
       </c>
       <c r="G37" t="n">
+        <v>545.6</v>
+      </c>
+      <c r="H37" t="n">
         <v>546.3</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1837,21 @@
         <v>83.46259999999999</v>
       </c>
       <c r="G38" t="n">
+        <v>545.5333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>546.2166666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1875,21 @@
         <v>179.1701</v>
       </c>
       <c r="G39" t="n">
+        <v>545.2</v>
+      </c>
+      <c r="H39" t="n">
         <v>546.0666666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1913,21 @@
         <v>3130.4621</v>
       </c>
       <c r="G40" t="n">
+        <v>545</v>
+      </c>
+      <c r="H40" t="n">
         <v>545.95</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1951,21 @@
         <v>557.1521</v>
       </c>
       <c r="G41" t="n">
+        <v>544.8666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>545.85</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1989,21 @@
         <v>761.1503</v>
       </c>
       <c r="G42" t="n">
+        <v>544.8</v>
+      </c>
+      <c r="H42" t="n">
         <v>545.7</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2027,21 @@
         <v>1269.6508</v>
       </c>
       <c r="G43" t="n">
+        <v>544.4</v>
+      </c>
+      <c r="H43" t="n">
         <v>545.5666666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2065,21 @@
         <v>1281.2455</v>
       </c>
       <c r="G44" t="n">
+        <v>544.1333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>545.4833333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2103,21 @@
         <v>259.5257</v>
       </c>
       <c r="G45" t="n">
+        <v>543.8</v>
+      </c>
+      <c r="H45" t="n">
         <v>545.4</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2141,21 @@
         <v>817.2451</v>
       </c>
       <c r="G46" t="n">
+        <v>543.6666666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>545.35</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2179,21 @@
         <v>180</v>
       </c>
       <c r="G47" t="n">
+        <v>543.5333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>545.3166666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2217,21 @@
         <v>531.4108</v>
       </c>
       <c r="G48" t="n">
+        <v>543.4</v>
+      </c>
+      <c r="H48" t="n">
         <v>545.3</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2255,21 @@
         <v>1036.0144</v>
       </c>
       <c r="G49" t="n">
+        <v>543.2</v>
+      </c>
+      <c r="H49" t="n">
         <v>545.2666666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,2180 +2293,2462 @@
         <v>226.9073</v>
       </c>
       <c r="G50" t="n">
+        <v>543</v>
+      </c>
+      <c r="H50" t="n">
         <v>545.2166666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>543</v>
+      </c>
+      <c r="C51" t="n">
+        <v>543</v>
+      </c>
+      <c r="D51" t="n">
+        <v>543</v>
+      </c>
+      <c r="E51" t="n">
+        <v>543</v>
+      </c>
+      <c r="F51" t="n">
+        <v>814.2442</v>
+      </c>
+      <c r="G51" t="n">
+        <v>542.8666666666667</v>
+      </c>
+      <c r="H51" t="n">
+        <v>545.2333333333333</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>543</v>
+      </c>
+      <c r="C52" t="n">
+        <v>543</v>
+      </c>
+      <c r="D52" t="n">
+        <v>543</v>
+      </c>
+      <c r="E52" t="n">
+        <v>543</v>
+      </c>
+      <c r="F52" t="n">
+        <v>378.1134</v>
+      </c>
+      <c r="G52" t="n">
+        <v>542.7333333333333</v>
+      </c>
+      <c r="H52" t="n">
+        <v>545.25</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>543</v>
+      </c>
+      <c r="C53" t="n">
+        <v>551</v>
+      </c>
+      <c r="D53" t="n">
+        <v>551</v>
+      </c>
+      <c r="E53" t="n">
+        <v>543</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7900.7726</v>
+      </c>
+      <c r="G53" t="n">
+        <v>543.1333333333333</v>
+      </c>
+      <c r="H53" t="n">
+        <v>545.4</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>544</v>
+      </c>
+      <c r="C54" t="n">
+        <v>544</v>
+      </c>
+      <c r="D54" t="n">
+        <v>544</v>
+      </c>
+      <c r="E54" t="n">
+        <v>544</v>
+      </c>
+      <c r="F54" t="n">
+        <v>34.3658</v>
+      </c>
+      <c r="G54" t="n">
+        <v>543.3333333333334</v>
+      </c>
+      <c r="H54" t="n">
+        <v>545.4333333333333</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>544</v>
+      </c>
+      <c r="C55" t="n">
+        <v>544</v>
+      </c>
+      <c r="D55" t="n">
+        <v>544</v>
+      </c>
+      <c r="E55" t="n">
+        <v>544</v>
+      </c>
+      <c r="F55" t="n">
+        <v>76.3342</v>
+      </c>
+      <c r="G55" t="n">
+        <v>543.4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>545.4333333333333</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>544</v>
+      </c>
+      <c r="C56" t="n">
+        <v>544</v>
+      </c>
+      <c r="D56" t="n">
+        <v>544</v>
+      </c>
+      <c r="E56" t="n">
+        <v>544</v>
+      </c>
+      <c r="F56" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="G56" t="n">
+        <v>543.4</v>
+      </c>
+      <c r="H56" t="n">
+        <v>545.4833333333333</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>544</v>
+      </c>
+      <c r="C57" t="n">
+        <v>541</v>
+      </c>
+      <c r="D57" t="n">
+        <v>544</v>
+      </c>
+      <c r="E57" t="n">
+        <v>541</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1731.6089</v>
+      </c>
+      <c r="G57" t="n">
+        <v>543.2666666666667</v>
+      </c>
+      <c r="H57" t="n">
+        <v>545.5166666666667</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>547</v>
+      </c>
+      <c r="C58" t="n">
+        <v>547</v>
+      </c>
+      <c r="D58" t="n">
+        <v>547</v>
+      </c>
+      <c r="E58" t="n">
+        <v>547</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>543.6</v>
+      </c>
+      <c r="H58" t="n">
+        <v>545.5833333333334</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>547</v>
+      </c>
+      <c r="C59" t="n">
+        <v>548</v>
+      </c>
+      <c r="D59" t="n">
+        <v>548</v>
+      </c>
+      <c r="E59" t="n">
+        <v>547</v>
+      </c>
+      <c r="F59" t="n">
+        <v>560</v>
+      </c>
+      <c r="G59" t="n">
+        <v>544.0666666666667</v>
+      </c>
+      <c r="H59" t="n">
+        <v>545.6666666666666</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>544</v>
+      </c>
+      <c r="C60" t="n">
+        <v>543</v>
+      </c>
+      <c r="D60" t="n">
+        <v>544</v>
+      </c>
+      <c r="E60" t="n">
+        <v>543</v>
+      </c>
+      <c r="F60" t="n">
+        <v>560.1697</v>
+      </c>
+      <c r="G60" t="n">
+        <v>544.2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>545.65</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>543</v>
+      </c>
+      <c r="C61" t="n">
         <v>542</v>
       </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="D61" t="n">
+        <v>543</v>
+      </c>
+      <c r="E61" t="n">
+        <v>542</v>
+      </c>
+      <c r="F61" t="n">
+        <v>480.5287</v>
+      </c>
+      <c r="G61" t="n">
+        <v>544.0666666666667</v>
+      </c>
+      <c r="H61" t="n">
+        <v>545.5833333333334</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>542</v>
+      </c>
+      <c r="C62" t="n">
+        <v>542</v>
+      </c>
+      <c r="D62" t="n">
+        <v>542</v>
+      </c>
+      <c r="E62" t="n">
+        <v>542</v>
+      </c>
+      <c r="F62" t="n">
+        <v>336</v>
+      </c>
+      <c r="G62" t="n">
+        <v>543.9333333333333</v>
+      </c>
+      <c r="H62" t="n">
+        <v>545.4666666666667</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>541</v>
+      </c>
+      <c r="C63" t="n">
+        <v>541</v>
+      </c>
+      <c r="D63" t="n">
+        <v>541</v>
+      </c>
+      <c r="E63" t="n">
+        <v>541</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2750.744</v>
+      </c>
+      <c r="G63" t="n">
+        <v>543.7333333333333</v>
+      </c>
+      <c r="H63" t="n">
+        <v>545.3</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>541</v>
+      </c>
+      <c r="C64" t="n">
+        <v>541</v>
+      </c>
+      <c r="D64" t="n">
+        <v>541</v>
+      </c>
+      <c r="E64" t="n">
+        <v>541</v>
+      </c>
+      <c r="F64" t="n">
+        <v>488</v>
+      </c>
+      <c r="G64" t="n">
+        <v>543.6666666666666</v>
+      </c>
+      <c r="H64" t="n">
+        <v>545.1333333333333</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>541</v>
+      </c>
+      <c r="L64" t="n">
+        <v>541</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>540</v>
+      </c>
+      <c r="C65" t="n">
+        <v>540</v>
+      </c>
+      <c r="D65" t="n">
+        <v>540</v>
+      </c>
+      <c r="E65" t="n">
+        <v>540</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2150.5747</v>
+      </c>
+      <c r="G65" t="n">
+        <v>543.6</v>
+      </c>
+      <c r="H65" t="n">
+        <v>544.9666666666667</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>541</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>540</v>
+      </c>
+      <c r="C66" t="n">
+        <v>540</v>
+      </c>
+      <c r="D66" t="n">
+        <v>540</v>
+      </c>
+      <c r="E66" t="n">
+        <v>540</v>
+      </c>
+      <c r="F66" t="n">
+        <v>488.6602</v>
+      </c>
+      <c r="G66" t="n">
+        <v>543.4</v>
+      </c>
+      <c r="H66" t="n">
+        <v>544.8</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>541</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>540</v>
+      </c>
+      <c r="C67" t="n">
+        <v>540</v>
+      </c>
+      <c r="D67" t="n">
+        <v>540</v>
+      </c>
+      <c r="E67" t="n">
+        <v>540</v>
+      </c>
+      <c r="F67" t="n">
+        <v>216</v>
+      </c>
+      <c r="G67" t="n">
+        <v>543.2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>544.6166666666667</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>540</v>
+      </c>
+      <c r="L67" t="n">
+        <v>540</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>540</v>
+      </c>
+      <c r="C68" t="n">
+        <v>540</v>
+      </c>
+      <c r="D68" t="n">
+        <v>540</v>
+      </c>
+      <c r="E68" t="n">
+        <v>540</v>
+      </c>
+      <c r="F68" t="n">
+        <v>537.3499</v>
+      </c>
+      <c r="G68" t="n">
+        <v>542.4666666666667</v>
+      </c>
+      <c r="H68" t="n">
+        <v>544.45</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>540</v>
+      </c>
+      <c r="L68" t="n">
+        <v>540</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>540</v>
+      </c>
+      <c r="C69" t="n">
+        <v>540</v>
+      </c>
+      <c r="D69" t="n">
+        <v>540</v>
+      </c>
+      <c r="E69" t="n">
+        <v>540</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1317.4421</v>
+      </c>
+      <c r="G69" t="n">
+        <v>542.2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>544.35</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>540</v>
+      </c>
+      <c r="L69" t="n">
+        <v>540</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>539</v>
+      </c>
+      <c r="C70" t="n">
+        <v>538</v>
+      </c>
+      <c r="D70" t="n">
+        <v>539</v>
+      </c>
+      <c r="E70" t="n">
+        <v>538</v>
+      </c>
+      <c r="F70" t="n">
+        <v>720</v>
+      </c>
+      <c r="G70" t="n">
+        <v>541.8</v>
+      </c>
+      <c r="H70" t="n">
+        <v>544.15</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>540</v>
+      </c>
+      <c r="L70" t="n">
+        <v>540</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>543</v>
-      </c>
-      <c r="C51" t="n">
-        <v>543</v>
-      </c>
-      <c r="D51" t="n">
-        <v>543</v>
-      </c>
-      <c r="E51" t="n">
-        <v>543</v>
-      </c>
-      <c r="F51" t="n">
-        <v>814.2442</v>
-      </c>
-      <c r="G51" t="n">
-        <v>545.2333333333333</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>541</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>542</v>
+      </c>
+      <c r="C71" t="n">
+        <v>542</v>
+      </c>
+      <c r="D71" t="n">
+        <v>542</v>
+      </c>
+      <c r="E71" t="n">
+        <v>542</v>
+      </c>
+      <c r="F71" t="n">
+        <v>35.8338</v>
+      </c>
+      <c r="G71" t="n">
+        <v>541.6666666666666</v>
+      </c>
+      <c r="H71" t="n">
+        <v>544.0833333333334</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>538</v>
+      </c>
+      <c r="L71" t="n">
+        <v>540</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>543</v>
-      </c>
-      <c r="C52" t="n">
-        <v>543</v>
-      </c>
-      <c r="D52" t="n">
-        <v>543</v>
-      </c>
-      <c r="E52" t="n">
-        <v>543</v>
-      </c>
-      <c r="F52" t="n">
-        <v>378.1134</v>
-      </c>
-      <c r="G52" t="n">
-        <v>545.25</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>543</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>545</v>
+      </c>
+      <c r="C72" t="n">
+        <v>545</v>
+      </c>
+      <c r="D72" t="n">
+        <v>545</v>
+      </c>
+      <c r="E72" t="n">
+        <v>545</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3.4572</v>
+      </c>
+      <c r="G72" t="n">
+        <v>541.9333333333333</v>
+      </c>
+      <c r="H72" t="n">
+        <v>544.0333333333333</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>542</v>
+      </c>
+      <c r="L72" t="n">
+        <v>540</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>543</v>
-      </c>
-      <c r="C53" t="n">
-        <v>551</v>
-      </c>
-      <c r="D53" t="n">
-        <v>551</v>
-      </c>
-      <c r="E53" t="n">
-        <v>543</v>
-      </c>
-      <c r="F53" t="n">
-        <v>7900.7726</v>
-      </c>
-      <c r="G53" t="n">
-        <v>545.4</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>543</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>545</v>
+      </c>
+      <c r="C73" t="n">
+        <v>545</v>
+      </c>
+      <c r="D73" t="n">
+        <v>545</v>
+      </c>
+      <c r="E73" t="n">
+        <v>545</v>
+      </c>
+      <c r="F73" t="n">
+        <v>305.633</v>
+      </c>
+      <c r="G73" t="n">
+        <v>541.8</v>
+      </c>
+      <c r="H73" t="n">
+        <v>543.9833333333333</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>545</v>
+      </c>
+      <c r="L73" t="n">
+        <v>540</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>545</v>
+      </c>
+      <c r="C74" t="n">
+        <v>546</v>
+      </c>
+      <c r="D74" t="n">
+        <v>546</v>
+      </c>
+      <c r="E74" t="n">
+        <v>545</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2731.4086</v>
+      </c>
+      <c r="G74" t="n">
+        <v>541.6666666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>544</v>
       </c>
-      <c r="C54" t="n">
-        <v>544</v>
-      </c>
-      <c r="D54" t="n">
-        <v>544</v>
-      </c>
-      <c r="E54" t="n">
-        <v>544</v>
-      </c>
-      <c r="F54" t="n">
-        <v>34.3658</v>
-      </c>
-      <c r="G54" t="n">
-        <v>545.4333333333333</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>540</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>544</v>
-      </c>
-      <c r="C55" t="n">
-        <v>544</v>
-      </c>
-      <c r="D55" t="n">
-        <v>544</v>
-      </c>
-      <c r="E55" t="n">
-        <v>544</v>
-      </c>
-      <c r="F55" t="n">
-        <v>76.3342</v>
-      </c>
-      <c r="G55" t="n">
-        <v>545.4333333333333</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>546</v>
+      </c>
+      <c r="C75" t="n">
+        <v>548</v>
+      </c>
+      <c r="D75" t="n">
+        <v>548</v>
+      </c>
+      <c r="E75" t="n">
+        <v>546</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3086.0266</v>
+      </c>
+      <c r="G75" t="n">
+        <v>542</v>
+      </c>
+      <c r="H75" t="n">
+        <v>543.9833333333333</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>546</v>
+      </c>
+      <c r="L75" t="n">
+        <v>540</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>544</v>
-      </c>
-      <c r="C56" t="n">
-        <v>544</v>
-      </c>
-      <c r="D56" t="n">
-        <v>544</v>
-      </c>
-      <c r="E56" t="n">
-        <v>544</v>
-      </c>
-      <c r="F56" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="G56" t="n">
-        <v>545.4833333333333</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>548</v>
+      </c>
+      <c r="C76" t="n">
+        <v>549</v>
+      </c>
+      <c r="D76" t="n">
+        <v>550</v>
+      </c>
+      <c r="E76" t="n">
+        <v>548</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1992.2775</v>
+      </c>
+      <c r="G76" t="n">
+        <v>542.4666666666667</v>
+      </c>
+      <c r="H76" t="n">
+        <v>544.05</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>540</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>544</v>
-      </c>
-      <c r="C57" t="n">
-        <v>541</v>
-      </c>
-      <c r="D57" t="n">
-        <v>544</v>
-      </c>
-      <c r="E57" t="n">
-        <v>541</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1731.6089</v>
-      </c>
-      <c r="G57" t="n">
-        <v>545.5166666666667</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>549</v>
+      </c>
+      <c r="C77" t="n">
+        <v>550</v>
+      </c>
+      <c r="D77" t="n">
+        <v>551</v>
+      </c>
+      <c r="E77" t="n">
+        <v>549</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5621.0185</v>
+      </c>
+      <c r="G77" t="n">
+        <v>543</v>
+      </c>
+      <c r="H77" t="n">
+        <v>544.1166666666667</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>540</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>547</v>
-      </c>
-      <c r="C58" t="n">
-        <v>547</v>
-      </c>
-      <c r="D58" t="n">
-        <v>547</v>
-      </c>
-      <c r="E58" t="n">
-        <v>547</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" t="n">
-        <v>545.5833333333334</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>550</v>
+      </c>
+      <c r="C78" t="n">
+        <v>550</v>
+      </c>
+      <c r="D78" t="n">
+        <v>550</v>
+      </c>
+      <c r="E78" t="n">
+        <v>550</v>
+      </c>
+      <c r="F78" t="n">
+        <v>251.6327</v>
+      </c>
+      <c r="G78" t="n">
+        <v>543.6</v>
+      </c>
+      <c r="H78" t="n">
+        <v>544.1833333333333</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>540</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>547</v>
-      </c>
-      <c r="C59" t="n">
-        <v>548</v>
-      </c>
-      <c r="D59" t="n">
-        <v>548</v>
-      </c>
-      <c r="E59" t="n">
-        <v>547</v>
-      </c>
-      <c r="F59" t="n">
-        <v>560</v>
-      </c>
-      <c r="G59" t="n">
-        <v>545.6666666666666</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>550</v>
+      </c>
+      <c r="C79" t="n">
+        <v>549</v>
+      </c>
+      <c r="D79" t="n">
+        <v>550</v>
+      </c>
+      <c r="E79" t="n">
+        <v>549</v>
+      </c>
+      <c r="F79" t="n">
+        <v>483.9135</v>
+      </c>
+      <c r="G79" t="n">
+        <v>544.1333333333333</v>
+      </c>
+      <c r="H79" t="n">
+        <v>544.2166666666667</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>540</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>544</v>
-      </c>
-      <c r="C60" t="n">
-        <v>543</v>
-      </c>
-      <c r="D60" t="n">
-        <v>544</v>
-      </c>
-      <c r="E60" t="n">
-        <v>543</v>
-      </c>
-      <c r="F60" t="n">
-        <v>560.1697</v>
-      </c>
-      <c r="G60" t="n">
-        <v>545.65</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>551</v>
+      </c>
+      <c r="C80" t="n">
+        <v>550</v>
+      </c>
+      <c r="D80" t="n">
+        <v>551</v>
+      </c>
+      <c r="E80" t="n">
+        <v>550</v>
+      </c>
+      <c r="F80" t="n">
+        <v>809.9646</v>
+      </c>
+      <c r="G80" t="n">
+        <v>544.8</v>
+      </c>
+      <c r="H80" t="n">
+        <v>544.2833333333333</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>540</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>543</v>
-      </c>
-      <c r="C61" t="n">
-        <v>542</v>
-      </c>
-      <c r="D61" t="n">
-        <v>543</v>
-      </c>
-      <c r="E61" t="n">
-        <v>542</v>
-      </c>
-      <c r="F61" t="n">
-        <v>480.5287</v>
-      </c>
-      <c r="G61" t="n">
-        <v>545.5833333333334</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>549</v>
+      </c>
+      <c r="C81" t="n">
+        <v>549</v>
+      </c>
+      <c r="D81" t="n">
+        <v>549</v>
+      </c>
+      <c r="E81" t="n">
+        <v>549</v>
+      </c>
+      <c r="F81" t="n">
+        <v>18.255</v>
+      </c>
+      <c r="G81" t="n">
+        <v>545.4</v>
+      </c>
+      <c r="H81" t="n">
+        <v>544.3333333333334</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>540</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>542</v>
-      </c>
-      <c r="C62" t="n">
-        <v>542</v>
-      </c>
-      <c r="D62" t="n">
-        <v>542</v>
-      </c>
-      <c r="E62" t="n">
-        <v>542</v>
-      </c>
-      <c r="F62" t="n">
-        <v>336</v>
-      </c>
-      <c r="G62" t="n">
-        <v>545.4666666666667</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>549</v>
+      </c>
+      <c r="C82" t="n">
+        <v>550</v>
+      </c>
+      <c r="D82" t="n">
+        <v>550</v>
+      </c>
+      <c r="E82" t="n">
+        <v>549</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1292.7727</v>
+      </c>
+      <c r="G82" t="n">
+        <v>546.0666666666667</v>
+      </c>
+      <c r="H82" t="n">
+        <v>544.4</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>540</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>541</v>
-      </c>
-      <c r="C63" t="n">
-        <v>541</v>
-      </c>
-      <c r="D63" t="n">
-        <v>541</v>
-      </c>
-      <c r="E63" t="n">
-        <v>541</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2750.744</v>
-      </c>
-      <c r="G63" t="n">
-        <v>545.3</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>549</v>
+      </c>
+      <c r="C83" t="n">
+        <v>549</v>
+      </c>
+      <c r="D83" t="n">
+        <v>549</v>
+      </c>
+      <c r="E83" t="n">
+        <v>549</v>
+      </c>
+      <c r="F83" t="n">
+        <v>27.2276</v>
+      </c>
+      <c r="G83" t="n">
+        <v>546.6666666666666</v>
+      </c>
+      <c r="H83" t="n">
+        <v>544.45</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>540</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>541</v>
-      </c>
-      <c r="C64" t="n">
-        <v>541</v>
-      </c>
-      <c r="D64" t="n">
-        <v>541</v>
-      </c>
-      <c r="E64" t="n">
-        <v>541</v>
-      </c>
-      <c r="F64" t="n">
-        <v>488</v>
-      </c>
-      <c r="G64" t="n">
-        <v>545.1333333333333</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>547</v>
+      </c>
+      <c r="C84" t="n">
+        <v>547</v>
+      </c>
+      <c r="D84" t="n">
+        <v>547</v>
+      </c>
+      <c r="E84" t="n">
+        <v>547</v>
+      </c>
+      <c r="F84" t="n">
+        <v>594.1499</v>
+      </c>
+      <c r="G84" t="n">
+        <v>547.1333333333333</v>
+      </c>
+      <c r="H84" t="n">
+        <v>544.4666666666667</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>540</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>546</v>
+      </c>
+      <c r="C85" t="n">
+        <v>546</v>
+      </c>
+      <c r="D85" t="n">
+        <v>546</v>
+      </c>
+      <c r="E85" t="n">
+        <v>546</v>
+      </c>
+      <c r="F85" t="n">
+        <v>516.5</v>
+      </c>
+      <c r="G85" t="n">
+        <v>547.6666666666666</v>
+      </c>
+      <c r="H85" t="n">
+        <v>544.4666666666667</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
         <v>540</v>
       </c>
-      <c r="C65" t="n">
-        <v>540</v>
-      </c>
-      <c r="D65" t="n">
-        <v>540</v>
-      </c>
-      <c r="E65" t="n">
-        <v>540</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2150.5747</v>
-      </c>
-      <c r="G65" t="n">
-        <v>544.9666666666667</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>546</v>
+      </c>
+      <c r="C86" t="n">
+        <v>549</v>
+      </c>
+      <c r="D86" t="n">
+        <v>549</v>
+      </c>
+      <c r="E86" t="n">
+        <v>543</v>
+      </c>
+      <c r="F86" t="n">
+        <v>6796.3016</v>
+      </c>
+      <c r="G86" t="n">
+        <v>548.1333333333333</v>
+      </c>
+      <c r="H86" t="n">
+        <v>544.5166666666667</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
         <v>540</v>
       </c>
-      <c r="C66" t="n">
-        <v>540</v>
-      </c>
-      <c r="D66" t="n">
-        <v>540</v>
-      </c>
-      <c r="E66" t="n">
-        <v>540</v>
-      </c>
-      <c r="F66" t="n">
-        <v>488.6602</v>
-      </c>
-      <c r="G66" t="n">
-        <v>544.8</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>550</v>
+      </c>
+      <c r="C87" t="n">
+        <v>551</v>
+      </c>
+      <c r="D87" t="n">
+        <v>551</v>
+      </c>
+      <c r="E87" t="n">
+        <v>550</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1889.7368</v>
+      </c>
+      <c r="G87" t="n">
+        <v>548.5333333333333</v>
+      </c>
+      <c r="H87" t="n">
+        <v>544.6333333333333</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
         <v>540</v>
       </c>
-      <c r="C67" t="n">
-        <v>540</v>
-      </c>
-      <c r="D67" t="n">
-        <v>540</v>
-      </c>
-      <c r="E67" t="n">
-        <v>540</v>
-      </c>
-      <c r="F67" t="n">
-        <v>216</v>
-      </c>
-      <c r="G67" t="n">
-        <v>544.6166666666667</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>549</v>
+      </c>
+      <c r="C88" t="n">
+        <v>549</v>
+      </c>
+      <c r="D88" t="n">
+        <v>549</v>
+      </c>
+      <c r="E88" t="n">
+        <v>549</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2124</v>
+      </c>
+      <c r="G88" t="n">
+        <v>548.8</v>
+      </c>
+      <c r="H88" t="n">
+        <v>544.65</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
         <v>540</v>
       </c>
-      <c r="C68" t="n">
-        <v>540</v>
-      </c>
-      <c r="D68" t="n">
-        <v>540</v>
-      </c>
-      <c r="E68" t="n">
-        <v>540</v>
-      </c>
-      <c r="F68" t="n">
-        <v>537.3499</v>
-      </c>
-      <c r="G68" t="n">
-        <v>544.45</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>549</v>
+      </c>
+      <c r="C89" t="n">
+        <v>549</v>
+      </c>
+      <c r="D89" t="n">
+        <v>549</v>
+      </c>
+      <c r="E89" t="n">
+        <v>549</v>
+      </c>
+      <c r="F89" t="n">
+        <v>777.2094</v>
+      </c>
+      <c r="G89" t="n">
+        <v>549</v>
+      </c>
+      <c r="H89" t="n">
+        <v>544.7166666666667</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
         <v>540</v>
       </c>
-      <c r="C69" t="n">
-        <v>540</v>
-      </c>
-      <c r="D69" t="n">
-        <v>540</v>
-      </c>
-      <c r="E69" t="n">
-        <v>540</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1317.4421</v>
-      </c>
-      <c r="G69" t="n">
-        <v>544.35</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>539</v>
-      </c>
-      <c r="C70" t="n">
-        <v>538</v>
-      </c>
-      <c r="D70" t="n">
-        <v>539</v>
-      </c>
-      <c r="E70" t="n">
-        <v>538</v>
-      </c>
-      <c r="F70" t="n">
-        <v>720</v>
-      </c>
-      <c r="G70" t="n">
-        <v>544.15</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>549</v>
+      </c>
+      <c r="C90" t="n">
+        <v>549</v>
+      </c>
+      <c r="D90" t="n">
+        <v>549</v>
+      </c>
+      <c r="E90" t="n">
+        <v>549</v>
+      </c>
+      <c r="F90" t="n">
+        <v>49.8793</v>
+      </c>
+      <c r="G90" t="n">
+        <v>549.0666666666667</v>
+      </c>
+      <c r="H90" t="n">
+        <v>544.7666666666667</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>540</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>542</v>
-      </c>
-      <c r="C71" t="n">
-        <v>542</v>
-      </c>
-      <c r="D71" t="n">
-        <v>542</v>
-      </c>
-      <c r="E71" t="n">
-        <v>542</v>
-      </c>
-      <c r="F71" t="n">
-        <v>35.8338</v>
-      </c>
-      <c r="G71" t="n">
-        <v>544.0833333333334</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>550</v>
+      </c>
+      <c r="C91" t="n">
+        <v>551</v>
+      </c>
+      <c r="D91" t="n">
+        <v>551</v>
+      </c>
+      <c r="E91" t="n">
+        <v>550</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1355.395</v>
+      </c>
+      <c r="G91" t="n">
+        <v>549.2</v>
+      </c>
+      <c r="H91" t="n">
+        <v>544.85</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>540</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>545</v>
-      </c>
-      <c r="C72" t="n">
-        <v>545</v>
-      </c>
-      <c r="D72" t="n">
-        <v>545</v>
-      </c>
-      <c r="E72" t="n">
-        <v>545</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3.4572</v>
-      </c>
-      <c r="G72" t="n">
-        <v>544.0333333333333</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>551</v>
+      </c>
+      <c r="C92" t="n">
+        <v>551</v>
+      </c>
+      <c r="D92" t="n">
+        <v>551</v>
+      </c>
+      <c r="E92" t="n">
+        <v>551</v>
+      </c>
+      <c r="F92" t="n">
+        <v>225</v>
+      </c>
+      <c r="G92" t="n">
+        <v>549.2666666666667</v>
+      </c>
+      <c r="H92" t="n">
+        <v>544.9333333333333</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>540</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>545</v>
-      </c>
-      <c r="C73" t="n">
-        <v>545</v>
-      </c>
-      <c r="D73" t="n">
-        <v>545</v>
-      </c>
-      <c r="E73" t="n">
-        <v>545</v>
-      </c>
-      <c r="F73" t="n">
-        <v>305.633</v>
-      </c>
-      <c r="G73" t="n">
-        <v>543.9833333333333</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>551</v>
+      </c>
+      <c r="C93" t="n">
+        <v>551</v>
+      </c>
+      <c r="D93" t="n">
+        <v>551</v>
+      </c>
+      <c r="E93" t="n">
+        <v>551</v>
+      </c>
+      <c r="F93" t="n">
+        <v>72.6641</v>
+      </c>
+      <c r="G93" t="n">
+        <v>549.3333333333334</v>
+      </c>
+      <c r="H93" t="n">
+        <v>545.0166666666667</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>540</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>545</v>
-      </c>
-      <c r="C74" t="n">
-        <v>546</v>
-      </c>
-      <c r="D74" t="n">
-        <v>546</v>
-      </c>
-      <c r="E74" t="n">
-        <v>545</v>
-      </c>
-      <c r="F74" t="n">
-        <v>2731.4086</v>
-      </c>
-      <c r="G74" t="n">
-        <v>544</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>552</v>
+      </c>
+      <c r="C94" t="n">
+        <v>553</v>
+      </c>
+      <c r="D94" t="n">
+        <v>553</v>
+      </c>
+      <c r="E94" t="n">
+        <v>552</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4620.0832</v>
+      </c>
+      <c r="G94" t="n">
+        <v>549.6</v>
+      </c>
+      <c r="H94" t="n">
+        <v>545.15</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>540</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>546</v>
-      </c>
-      <c r="C75" t="n">
-        <v>548</v>
-      </c>
-      <c r="D75" t="n">
-        <v>548</v>
-      </c>
-      <c r="E75" t="n">
-        <v>546</v>
-      </c>
-      <c r="F75" t="n">
-        <v>3086.0266</v>
-      </c>
-      <c r="G75" t="n">
-        <v>543.9833333333333</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>553</v>
+      </c>
+      <c r="C95" t="n">
+        <v>558</v>
+      </c>
+      <c r="D95" t="n">
+        <v>558</v>
+      </c>
+      <c r="E95" t="n">
+        <v>552</v>
+      </c>
+      <c r="F95" t="n">
+        <v>6653.36168841</v>
+      </c>
+      <c r="G95" t="n">
+        <v>550.1333333333333</v>
+      </c>
+      <c r="H95" t="n">
+        <v>545.3833333333333</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>540</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>548</v>
-      </c>
-      <c r="C76" t="n">
-        <v>549</v>
-      </c>
-      <c r="D76" t="n">
-        <v>550</v>
-      </c>
-      <c r="E76" t="n">
-        <v>548</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1992.2775</v>
-      </c>
-      <c r="G76" t="n">
-        <v>544.05</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>558</v>
+      </c>
+      <c r="C96" t="n">
+        <v>560</v>
+      </c>
+      <c r="D96" t="n">
+        <v>560</v>
+      </c>
+      <c r="E96" t="n">
+        <v>558</v>
+      </c>
+      <c r="F96" t="n">
+        <v>6085.5887</v>
+      </c>
+      <c r="G96" t="n">
+        <v>550.8666666666667</v>
+      </c>
+      <c r="H96" t="n">
+        <v>545.6333333333333</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>540</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>549</v>
-      </c>
-      <c r="C77" t="n">
-        <v>550</v>
-      </c>
-      <c r="D77" t="n">
-        <v>551</v>
-      </c>
-      <c r="E77" t="n">
-        <v>549</v>
-      </c>
-      <c r="F77" t="n">
-        <v>5621.0185</v>
-      </c>
-      <c r="G77" t="n">
-        <v>544.1166666666667</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>560</v>
+      </c>
+      <c r="C97" t="n">
+        <v>560</v>
+      </c>
+      <c r="D97" t="n">
+        <v>560</v>
+      </c>
+      <c r="E97" t="n">
+        <v>560</v>
+      </c>
+      <c r="F97" t="n">
+        <v>149.3845</v>
+      </c>
+      <c r="G97" t="n">
+        <v>551.5333333333333</v>
+      </c>
+      <c r="H97" t="n">
+        <v>545.8833333333333</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>540</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>550</v>
-      </c>
-      <c r="C78" t="n">
-        <v>550</v>
-      </c>
-      <c r="D78" t="n">
-        <v>550</v>
-      </c>
-      <c r="E78" t="n">
-        <v>550</v>
-      </c>
-      <c r="F78" t="n">
-        <v>251.6327</v>
-      </c>
-      <c r="G78" t="n">
-        <v>544.1833333333333</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>560</v>
+      </c>
+      <c r="C98" t="n">
+        <v>564</v>
+      </c>
+      <c r="D98" t="n">
+        <v>566</v>
+      </c>
+      <c r="E98" t="n">
+        <v>548</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3730.79823515</v>
+      </c>
+      <c r="G98" t="n">
+        <v>552.5333333333333</v>
+      </c>
+      <c r="H98" t="n">
+        <v>546.2</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>540</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>550</v>
-      </c>
-      <c r="C79" t="n">
-        <v>549</v>
-      </c>
-      <c r="D79" t="n">
-        <v>550</v>
-      </c>
-      <c r="E79" t="n">
-        <v>549</v>
-      </c>
-      <c r="F79" t="n">
-        <v>483.9135</v>
-      </c>
-      <c r="G79" t="n">
-        <v>544.2166666666667</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>562</v>
+      </c>
+      <c r="C99" t="n">
+        <v>562</v>
+      </c>
+      <c r="D99" t="n">
+        <v>562</v>
+      </c>
+      <c r="E99" t="n">
+        <v>562</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1427.4626</v>
+      </c>
+      <c r="G99" t="n">
+        <v>553.5333333333333</v>
+      </c>
+      <c r="H99" t="n">
+        <v>546.55</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>540</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>551</v>
-      </c>
-      <c r="C80" t="n">
-        <v>550</v>
-      </c>
-      <c r="D80" t="n">
-        <v>551</v>
-      </c>
-      <c r="E80" t="n">
-        <v>550</v>
-      </c>
-      <c r="F80" t="n">
-        <v>809.9646</v>
-      </c>
-      <c r="G80" t="n">
-        <v>544.2833333333333</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>563</v>
+      </c>
+      <c r="C100" t="n">
+        <v>563</v>
+      </c>
+      <c r="D100" t="n">
+        <v>563</v>
+      </c>
+      <c r="E100" t="n">
+        <v>563</v>
+      </c>
+      <c r="F100" t="n">
+        <v>753.6742</v>
+      </c>
+      <c r="G100" t="n">
+        <v>554.6666666666666</v>
+      </c>
+      <c r="H100" t="n">
+        <v>546.8833333333333</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>540</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>549</v>
-      </c>
-      <c r="C81" t="n">
-        <v>549</v>
-      </c>
-      <c r="D81" t="n">
-        <v>549</v>
-      </c>
-      <c r="E81" t="n">
-        <v>549</v>
-      </c>
-      <c r="F81" t="n">
-        <v>18.255</v>
-      </c>
-      <c r="G81" t="n">
-        <v>544.3333333333334</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>563</v>
+      </c>
+      <c r="C101" t="n">
+        <v>563</v>
+      </c>
+      <c r="D101" t="n">
+        <v>563</v>
+      </c>
+      <c r="E101" t="n">
+        <v>563</v>
+      </c>
+      <c r="F101" t="n">
+        <v>5002.0832</v>
+      </c>
+      <c r="G101" t="n">
+        <v>555.6</v>
+      </c>
+      <c r="H101" t="n">
+        <v>547.2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>540</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>549</v>
-      </c>
-      <c r="C82" t="n">
-        <v>550</v>
-      </c>
-      <c r="D82" t="n">
-        <v>550</v>
-      </c>
-      <c r="E82" t="n">
-        <v>549</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1292.7727</v>
-      </c>
-      <c r="G82" t="n">
-        <v>544.4</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>563</v>
+      </c>
+      <c r="C102" t="n">
+        <v>563</v>
+      </c>
+      <c r="D102" t="n">
+        <v>563</v>
+      </c>
+      <c r="E102" t="n">
+        <v>563</v>
+      </c>
+      <c r="F102" t="n">
+        <v>101</v>
+      </c>
+      <c r="G102" t="n">
+        <v>556.4</v>
+      </c>
+      <c r="H102" t="n">
+        <v>547.5333333333333</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>540</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>549</v>
-      </c>
-      <c r="C83" t="n">
-        <v>549</v>
-      </c>
-      <c r="D83" t="n">
-        <v>549</v>
-      </c>
-      <c r="E83" t="n">
-        <v>549</v>
-      </c>
-      <c r="F83" t="n">
-        <v>27.2276</v>
-      </c>
-      <c r="G83" t="n">
-        <v>544.45</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>564</v>
+      </c>
+      <c r="C103" t="n">
+        <v>565</v>
+      </c>
+      <c r="D103" t="n">
+        <v>565</v>
+      </c>
+      <c r="E103" t="n">
+        <v>564</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3286.83889168</v>
+      </c>
+      <c r="G103" t="n">
+        <v>557.4666666666667</v>
+      </c>
+      <c r="H103" t="n">
+        <v>547.9166666666666</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>540</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>547</v>
-      </c>
-      <c r="C84" t="n">
-        <v>547</v>
-      </c>
-      <c r="D84" t="n">
-        <v>547</v>
-      </c>
-      <c r="E84" t="n">
-        <v>547</v>
-      </c>
-      <c r="F84" t="n">
-        <v>594.1499</v>
-      </c>
-      <c r="G84" t="n">
-        <v>544.4666666666667</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>563</v>
+      </c>
+      <c r="C104" t="n">
+        <v>563</v>
+      </c>
+      <c r="D104" t="n">
+        <v>563</v>
+      </c>
+      <c r="E104" t="n">
+        <v>563</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1115.6886</v>
+      </c>
+      <c r="G104" t="n">
+        <v>558.4</v>
+      </c>
+      <c r="H104" t="n">
+        <v>548.2833333333333</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>540</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>546</v>
-      </c>
-      <c r="C85" t="n">
-        <v>546</v>
-      </c>
-      <c r="D85" t="n">
-        <v>546</v>
-      </c>
-      <c r="E85" t="n">
-        <v>546</v>
-      </c>
-      <c r="F85" t="n">
-        <v>516.5</v>
-      </c>
-      <c r="G85" t="n">
-        <v>544.4666666666667</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>565</v>
+      </c>
+      <c r="C105" t="n">
+        <v>565</v>
+      </c>
+      <c r="D105" t="n">
+        <v>565</v>
+      </c>
+      <c r="E105" t="n">
+        <v>565</v>
+      </c>
+      <c r="F105" t="n">
+        <v>180</v>
+      </c>
+      <c r="G105" t="n">
+        <v>559.4666666666667</v>
+      </c>
+      <c r="H105" t="n">
+        <v>548.6833333333333</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>540</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>546</v>
-      </c>
-      <c r="C86" t="n">
-        <v>549</v>
-      </c>
-      <c r="D86" t="n">
-        <v>549</v>
-      </c>
-      <c r="E86" t="n">
-        <v>543</v>
-      </c>
-      <c r="F86" t="n">
-        <v>6796.3016</v>
-      </c>
-      <c r="G86" t="n">
-        <v>544.5166666666667</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>565</v>
+      </c>
+      <c r="C106" t="n">
+        <v>565</v>
+      </c>
+      <c r="D106" t="n">
+        <v>565</v>
+      </c>
+      <c r="E106" t="n">
+        <v>565</v>
+      </c>
+      <c r="F106" t="n">
+        <v>531.0069999999999</v>
+      </c>
+      <c r="G106" t="n">
+        <v>560.4</v>
+      </c>
+      <c r="H106" t="n">
+        <v>549.0333333333333</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>540</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>550</v>
-      </c>
-      <c r="C87" t="n">
-        <v>551</v>
-      </c>
-      <c r="D87" t="n">
-        <v>551</v>
-      </c>
-      <c r="E87" t="n">
-        <v>550</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1889.7368</v>
-      </c>
-      <c r="G87" t="n">
-        <v>544.6333333333333</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>549</v>
-      </c>
-      <c r="C88" t="n">
-        <v>549</v>
-      </c>
-      <c r="D88" t="n">
-        <v>549</v>
-      </c>
-      <c r="E88" t="n">
-        <v>549</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2124</v>
-      </c>
-      <c r="G88" t="n">
-        <v>544.65</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>549</v>
-      </c>
-      <c r="C89" t="n">
-        <v>549</v>
-      </c>
-      <c r="D89" t="n">
-        <v>549</v>
-      </c>
-      <c r="E89" t="n">
-        <v>549</v>
-      </c>
-      <c r="F89" t="n">
-        <v>777.2094</v>
-      </c>
-      <c r="G89" t="n">
-        <v>544.7166666666667</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>554</v>
+      </c>
+      <c r="C107" t="n">
+        <v>554</v>
+      </c>
+      <c r="D107" t="n">
+        <v>554</v>
+      </c>
+      <c r="E107" t="n">
+        <v>554</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7137.046</v>
+      </c>
+      <c r="G107" t="n">
+        <v>560.6</v>
+      </c>
+      <c r="H107" t="n">
+        <v>549.2</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>540</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>549</v>
-      </c>
-      <c r="C90" t="n">
-        <v>549</v>
-      </c>
-      <c r="D90" t="n">
-        <v>549</v>
-      </c>
-      <c r="E90" t="n">
-        <v>549</v>
-      </c>
-      <c r="F90" t="n">
-        <v>49.8793</v>
-      </c>
-      <c r="G90" t="n">
-        <v>544.7666666666667</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>550</v>
-      </c>
-      <c r="C91" t="n">
-        <v>551</v>
-      </c>
-      <c r="D91" t="n">
-        <v>551</v>
-      </c>
-      <c r="E91" t="n">
-        <v>550</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1355.395</v>
-      </c>
-      <c r="G91" t="n">
-        <v>544.85</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>551</v>
-      </c>
-      <c r="C92" t="n">
-        <v>551</v>
-      </c>
-      <c r="D92" t="n">
-        <v>551</v>
-      </c>
-      <c r="E92" t="n">
-        <v>551</v>
-      </c>
-      <c r="F92" t="n">
-        <v>225</v>
-      </c>
-      <c r="G92" t="n">
-        <v>544.9333333333333</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>551</v>
-      </c>
-      <c r="C93" t="n">
-        <v>551</v>
-      </c>
-      <c r="D93" t="n">
-        <v>551</v>
-      </c>
-      <c r="E93" t="n">
-        <v>551</v>
-      </c>
-      <c r="F93" t="n">
-        <v>72.6641</v>
-      </c>
-      <c r="G93" t="n">
-        <v>545.0166666666667</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>552</v>
-      </c>
-      <c r="C94" t="n">
-        <v>553</v>
-      </c>
-      <c r="D94" t="n">
-        <v>553</v>
-      </c>
-      <c r="E94" t="n">
-        <v>552</v>
-      </c>
-      <c r="F94" t="n">
-        <v>4620.0832</v>
-      </c>
-      <c r="G94" t="n">
-        <v>545.15</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>553</v>
-      </c>
-      <c r="C95" t="n">
-        <v>558</v>
-      </c>
-      <c r="D95" t="n">
-        <v>558</v>
-      </c>
-      <c r="E95" t="n">
-        <v>552</v>
-      </c>
-      <c r="F95" t="n">
-        <v>6653.36168841</v>
-      </c>
-      <c r="G95" t="n">
-        <v>545.3833333333333</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>558</v>
-      </c>
-      <c r="C96" t="n">
-        <v>560</v>
-      </c>
-      <c r="D96" t="n">
-        <v>560</v>
-      </c>
-      <c r="E96" t="n">
-        <v>558</v>
-      </c>
-      <c r="F96" t="n">
-        <v>6085.5887</v>
-      </c>
-      <c r="G96" t="n">
-        <v>545.6333333333333</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>560</v>
-      </c>
-      <c r="C97" t="n">
-        <v>560</v>
-      </c>
-      <c r="D97" t="n">
-        <v>560</v>
-      </c>
-      <c r="E97" t="n">
-        <v>560</v>
-      </c>
-      <c r="F97" t="n">
-        <v>149.3845</v>
-      </c>
-      <c r="G97" t="n">
-        <v>545.8833333333333</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>560</v>
-      </c>
-      <c r="C98" t="n">
-        <v>564</v>
-      </c>
-      <c r="D98" t="n">
-        <v>566</v>
-      </c>
-      <c r="E98" t="n">
-        <v>548</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3730.79823515</v>
-      </c>
-      <c r="G98" t="n">
-        <v>546.2</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>562</v>
-      </c>
-      <c r="C99" t="n">
-        <v>562</v>
-      </c>
-      <c r="D99" t="n">
-        <v>562</v>
-      </c>
-      <c r="E99" t="n">
-        <v>562</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1427.4626</v>
-      </c>
-      <c r="G99" t="n">
-        <v>546.55</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>563</v>
-      </c>
-      <c r="C100" t="n">
-        <v>563</v>
-      </c>
-      <c r="D100" t="n">
-        <v>563</v>
-      </c>
-      <c r="E100" t="n">
-        <v>563</v>
-      </c>
-      <c r="F100" t="n">
-        <v>753.6742</v>
-      </c>
-      <c r="G100" t="n">
-        <v>546.8833333333333</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>563</v>
-      </c>
-      <c r="C101" t="n">
-        <v>563</v>
-      </c>
-      <c r="D101" t="n">
-        <v>563</v>
-      </c>
-      <c r="E101" t="n">
-        <v>563</v>
-      </c>
-      <c r="F101" t="n">
-        <v>5002.0832</v>
-      </c>
-      <c r="G101" t="n">
-        <v>547.2</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>563</v>
-      </c>
-      <c r="C102" t="n">
-        <v>563</v>
-      </c>
-      <c r="D102" t="n">
-        <v>563</v>
-      </c>
-      <c r="E102" t="n">
-        <v>563</v>
-      </c>
-      <c r="F102" t="n">
-        <v>101</v>
-      </c>
-      <c r="G102" t="n">
-        <v>547.5333333333333</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>564</v>
-      </c>
-      <c r="C103" t="n">
-        <v>565</v>
-      </c>
-      <c r="D103" t="n">
-        <v>565</v>
-      </c>
-      <c r="E103" t="n">
-        <v>564</v>
-      </c>
-      <c r="F103" t="n">
-        <v>3286.83889168</v>
-      </c>
-      <c r="G103" t="n">
-        <v>547.9166666666666</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>563</v>
-      </c>
-      <c r="C104" t="n">
-        <v>563</v>
-      </c>
-      <c r="D104" t="n">
-        <v>563</v>
-      </c>
-      <c r="E104" t="n">
-        <v>563</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1115.6886</v>
-      </c>
-      <c r="G104" t="n">
-        <v>548.2833333333333</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>565</v>
-      </c>
-      <c r="C105" t="n">
-        <v>565</v>
-      </c>
-      <c r="D105" t="n">
-        <v>565</v>
-      </c>
-      <c r="E105" t="n">
-        <v>565</v>
-      </c>
-      <c r="F105" t="n">
-        <v>180</v>
-      </c>
-      <c r="G105" t="n">
-        <v>548.6833333333333</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>565</v>
-      </c>
-      <c r="C106" t="n">
-        <v>565</v>
-      </c>
-      <c r="D106" t="n">
-        <v>565</v>
-      </c>
-      <c r="E106" t="n">
-        <v>565</v>
-      </c>
-      <c r="F106" t="n">
-        <v>531.0069999999999</v>
-      </c>
-      <c r="G106" t="n">
-        <v>549.0333333333333</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>554</v>
-      </c>
-      <c r="C107" t="n">
-        <v>554</v>
-      </c>
-      <c r="D107" t="n">
-        <v>554</v>
-      </c>
-      <c r="E107" t="n">
-        <v>554</v>
-      </c>
-      <c r="F107" t="n">
-        <v>7137.046</v>
-      </c>
-      <c r="G107" t="n">
-        <v>549.2</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
+      <c r="N107" t="n">
+        <v>1.020925925925926</v>
       </c>
     </row>
     <row r="108">
@@ -4324,18 +4771,21 @@
         <v>102</v>
       </c>
       <c r="G108" t="n">
+        <v>561.3333333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>549.5</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4359,18 +4809,21 @@
         <v>122.88</v>
       </c>
       <c r="G109" t="n">
+        <v>561.8666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>549.8166666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,18 +4847,21 @@
         <v>50.3155</v>
       </c>
       <c r="G110" t="n">
+        <v>562.0666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>550.15</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4429,18 +4885,21 @@
         <v>77.5581</v>
       </c>
       <c r="G111" t="n">
+        <v>562</v>
+      </c>
+      <c r="H111" t="n">
         <v>550.4166666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4464,18 +4923,21 @@
         <v>172.6097</v>
       </c>
       <c r="G112" t="n">
+        <v>561.8</v>
+      </c>
+      <c r="H112" t="n">
         <v>550.65</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4499,18 +4961,21 @@
         <v>2024.3988</v>
       </c>
       <c r="G113" t="n">
+        <v>561.2666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>550.7333333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4534,18 +4999,21 @@
         <v>100</v>
       </c>
       <c r="G114" t="n">
+        <v>560.8666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>550.9333333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4569,18 +5037,21 @@
         <v>897.6638</v>
       </c>
       <c r="G115" t="n">
+        <v>560.4</v>
+      </c>
+      <c r="H115" t="n">
         <v>551.1333333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4604,18 +5075,21 @@
         <v>848.5817</v>
       </c>
       <c r="G116" t="n">
+        <v>559.8666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>551.3166666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4639,18 +5113,21 @@
         <v>486.692</v>
       </c>
       <c r="G117" t="n">
+        <v>559.2666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>551.5333333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,18 +5151,21 @@
         <v>393.2511</v>
       </c>
       <c r="G118" t="n">
+        <v>558.5333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>551.65</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4709,18 +5189,21 @@
         <v>4408.9439</v>
       </c>
       <c r="G119" t="n">
+        <v>557.8666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>551.7333333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4744,18 +5227,21 @@
         <v>1097.5079</v>
       </c>
       <c r="G120" t="n">
+        <v>557.0666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>551.9</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4779,18 +5265,21 @@
         <v>500</v>
       </c>
       <c r="G121" t="n">
+        <v>556.2</v>
+      </c>
+      <c r="H121" t="n">
         <v>552.0666666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4814,18 +5303,21 @@
         <v>10</v>
       </c>
       <c r="G122" t="n">
+        <v>556.1333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>552.25</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4849,18 +5341,21 @@
         <v>108.3032</v>
       </c>
       <c r="G123" t="n">
+        <v>555.6</v>
+      </c>
+      <c r="H123" t="n">
         <v>552.4666666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,18 +5379,21 @@
         <v>8.489100000000001</v>
       </c>
       <c r="G124" t="n">
+        <v>555.1333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>552.6833333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4919,18 +5417,21 @@
         <v>441.3664</v>
       </c>
       <c r="G125" t="n">
+        <v>554.6666666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>552.9166666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4954,18 +5455,21 @@
         <v>427.0754</v>
       </c>
       <c r="G126" t="n">
+        <v>554.3333333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>553.15</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4989,18 +5493,21 @@
         <v>18.7648</v>
       </c>
       <c r="G127" t="n">
+        <v>554.1333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>553.3833333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5024,18 +5531,21 @@
         <v>946.0001</v>
       </c>
       <c r="G128" t="n">
+        <v>554.2</v>
+      </c>
+      <c r="H128" t="n">
         <v>553.6666666666666</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5059,18 +5569,21 @@
         <v>315.621</v>
       </c>
       <c r="G129" t="n">
+        <v>554.2666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>553.95</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5094,18 +5607,21 @@
         <v>100</v>
       </c>
       <c r="G130" t="n">
+        <v>554.3333333333334</v>
+      </c>
+      <c r="H130" t="n">
         <v>554.2666666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5129,18 +5645,21 @@
         <v>1160.1483</v>
       </c>
       <c r="G131" t="n">
+        <v>554.4</v>
+      </c>
+      <c r="H131" t="n">
         <v>554.5</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5164,18 +5683,21 @@
         <v>226.4484</v>
       </c>
       <c r="G132" t="n">
+        <v>554.6666666666666</v>
+      </c>
+      <c r="H132" t="n">
         <v>554.7166666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5199,18 +5721,21 @@
         <v>125.0411</v>
       </c>
       <c r="G133" t="n">
+        <v>555</v>
+      </c>
+      <c r="H133" t="n">
         <v>554.95</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5234,18 +5759,21 @@
         <v>2352.912</v>
       </c>
       <c r="G134" t="n">
+        <v>555.4</v>
+      </c>
+      <c r="H134" t="n">
         <v>555.1666666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5269,18 +5797,21 @@
         <v>2983.2829</v>
       </c>
       <c r="G135" t="n">
+        <v>555.6</v>
+      </c>
+      <c r="H135" t="n">
         <v>555.3</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5304,18 +5835,21 @@
         <v>774.811</v>
       </c>
       <c r="G136" t="n">
+        <v>555.8666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>555.4166666666666</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5339,18 +5873,21 @@
         <v>194.2</v>
       </c>
       <c r="G137" t="n">
+        <v>556.2</v>
+      </c>
+      <c r="H137" t="n">
         <v>555.55</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5374,18 +5911,21 @@
         <v>157.2892</v>
       </c>
       <c r="G138" t="n">
+        <v>556.4666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>555.6833333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5409,18 +5949,21 @@
         <v>2025.3962</v>
       </c>
       <c r="G139" t="n">
+        <v>556.8666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>555.8666666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5444,18 +5987,21 @@
         <v>5438.7063</v>
       </c>
       <c r="G140" t="n">
+        <v>557.3333333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>556.05</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5479,18 +6025,21 @@
         <v>1338.5788</v>
       </c>
       <c r="G141" t="n">
+        <v>557.8</v>
+      </c>
+      <c r="H141" t="n">
         <v>556.25</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5514,18 +6063,21 @@
         <v>1433.9309</v>
       </c>
       <c r="G142" t="n">
+        <v>558.3333333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>556.45</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5549,18 +6101,21 @@
         <v>1058</v>
       </c>
       <c r="G143" t="n">
+        <v>558.6666666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>556.6666666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5584,18 +6139,21 @@
         <v>1049.5423</v>
       </c>
       <c r="G144" t="n">
+        <v>559</v>
+      </c>
+      <c r="H144" t="n">
         <v>556.9166666666666</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5619,18 +6177,21 @@
         <v>802</v>
       </c>
       <c r="G145" t="n">
+        <v>559.3333333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>557.1833333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5654,18 +6215,401 @@
         <v>18.5371</v>
       </c>
       <c r="G146" t="n">
+        <v>559.7333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>557.4</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>562</v>
+      </c>
+      <c r="C147" t="n">
+        <v>562</v>
+      </c>
+      <c r="D147" t="n">
+        <v>562</v>
+      </c>
+      <c r="E147" t="n">
+        <v>562</v>
+      </c>
+      <c r="F147" t="n">
+        <v>270.913</v>
+      </c>
+      <c r="G147" t="n">
+        <v>560</v>
+      </c>
+      <c r="H147" t="n">
+        <v>557.5833333333334</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>562</v>
+      </c>
+      <c r="C148" t="n">
+        <v>562</v>
+      </c>
+      <c r="D148" t="n">
+        <v>562</v>
+      </c>
+      <c r="E148" t="n">
+        <v>562</v>
+      </c>
+      <c r="F148" t="n">
+        <v>858.3674</v>
+      </c>
+      <c r="G148" t="n">
+        <v>560.2</v>
+      </c>
+      <c r="H148" t="n">
+        <v>557.8</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>562</v>
+      </c>
+      <c r="C149" t="n">
+        <v>562</v>
+      </c>
+      <c r="D149" t="n">
+        <v>562</v>
+      </c>
+      <c r="E149" t="n">
+        <v>562</v>
+      </c>
+      <c r="F149" t="n">
+        <v>430.7143</v>
+      </c>
+      <c r="G149" t="n">
+        <v>560.4</v>
+      </c>
+      <c r="H149" t="n">
+        <v>558.0166666666667</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>562</v>
+      </c>
+      <c r="C150" t="n">
+        <v>562</v>
+      </c>
+      <c r="D150" t="n">
+        <v>562</v>
+      </c>
+      <c r="E150" t="n">
+        <v>562</v>
+      </c>
+      <c r="F150" t="n">
+        <v>112.3717</v>
+      </c>
+      <c r="G150" t="n">
+        <v>560.8</v>
+      </c>
+      <c r="H150" t="n">
+        <v>558.2333333333333</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>562</v>
+      </c>
+      <c r="C151" t="n">
+        <v>562</v>
+      </c>
+      <c r="D151" t="n">
+        <v>562</v>
+      </c>
+      <c r="E151" t="n">
+        <v>562</v>
+      </c>
+      <c r="F151" t="n">
+        <v>443.9419</v>
+      </c>
+      <c r="G151" t="n">
+        <v>561.2</v>
+      </c>
+      <c r="H151" t="n">
+        <v>558.4166666666666</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>562</v>
+      </c>
+      <c r="C152" t="n">
+        <v>562</v>
+      </c>
+      <c r="D152" t="n">
+        <v>562</v>
+      </c>
+      <c r="E152" t="n">
+        <v>562</v>
+      </c>
+      <c r="F152" t="n">
+        <v>673</v>
+      </c>
+      <c r="G152" t="n">
+        <v>561.4666666666667</v>
+      </c>
+      <c r="H152" t="n">
+        <v>558.6</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>562</v>
+      </c>
+      <c r="C153" t="n">
+        <v>565</v>
+      </c>
+      <c r="D153" t="n">
+        <v>565</v>
+      </c>
+      <c r="E153" t="n">
+        <v>562</v>
+      </c>
+      <c r="F153" t="n">
+        <v>24.4035</v>
+      </c>
+      <c r="G153" t="n">
+        <v>561.9333333333333</v>
+      </c>
+      <c r="H153" t="n">
+        <v>558.8333333333334</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>562</v>
+      </c>
+      <c r="C154" t="n">
+        <v>562</v>
+      </c>
+      <c r="D154" t="n">
+        <v>562</v>
+      </c>
+      <c r="E154" t="n">
+        <v>562</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2701.3324</v>
+      </c>
+      <c r="G154" t="n">
+        <v>562.0666666666667</v>
+      </c>
+      <c r="H154" t="n">
+        <v>558.9833333333333</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>562</v>
+      </c>
+      <c r="C155" t="n">
+        <v>563</v>
+      </c>
+      <c r="D155" t="n">
+        <v>563</v>
+      </c>
+      <c r="E155" t="n">
+        <v>562</v>
+      </c>
+      <c r="F155" t="n">
+        <v>447</v>
+      </c>
+      <c r="G155" t="n">
+        <v>562.2</v>
+      </c>
+      <c r="H155" t="n">
+        <v>559.0666666666667</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>563</v>
+      </c>
+      <c r="C156" t="n">
+        <v>562</v>
+      </c>
+      <c r="D156" t="n">
+        <v>563</v>
+      </c>
+      <c r="E156" t="n">
+        <v>562</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1584.001</v>
+      </c>
+      <c r="G156" t="n">
+        <v>562.2666666666667</v>
+      </c>
+      <c r="H156" t="n">
+        <v>559.1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-21 BackTest BCD.xlsx
+++ b/BackTest/2019-10-21 BackTest BCD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C2" t="n">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D2" t="n">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E2" t="n">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F2" t="n">
-        <v>2283.3311</v>
+        <v>1420.4552</v>
       </c>
       <c r="G2" t="n">
-        <v>11440.01941425</v>
+        <v>4429.30100266</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C3" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D3" t="n">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E3" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F3" t="n">
-        <v>1474.9576</v>
+        <v>5408.93821159</v>
       </c>
       <c r="G3" t="n">
-        <v>9965.061814250001</v>
+        <v>9838.239214249999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>543</v>
+      </c>
+      <c r="K3" t="n">
+        <v>543</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -522,10 +526,10 @@
         <v>546</v>
       </c>
       <c r="F4" t="n">
-        <v>0.19449542</v>
+        <v>619.9891</v>
       </c>
       <c r="G4" t="n">
-        <v>9965.256309670001</v>
+        <v>9218.250114249999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -534,8 +538,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>543</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +556,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C5" t="n">
+        <v>545</v>
+      </c>
+      <c r="D5" t="n">
+        <v>545</v>
+      </c>
+      <c r="E5" t="n">
+        <v>545</v>
+      </c>
+      <c r="F5" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9045.750114249999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>546</v>
       </c>
-      <c r="D5" t="n">
-        <v>551</v>
-      </c>
-      <c r="E5" t="n">
-        <v>546</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4413.1577</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9965.256309670001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>543</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,31 +600,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C6" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D6" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E6" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F6" t="n">
-        <v>202.6002</v>
+        <v>172.5</v>
       </c>
       <c r="G6" t="n">
-        <v>10167.85650967</v>
+        <v>8873.250114249999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>545</v>
+      </c>
+      <c r="K6" t="n">
+        <v>545</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,32 +640,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C7" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D7" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E7" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F7" t="n">
-        <v>1672.3197</v>
+        <v>357.3911</v>
       </c>
       <c r="G7" t="n">
-        <v>8495.536809670002</v>
+        <v>8515.859014249998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>544</v>
+      </c>
+      <c r="K7" t="n">
+        <v>545</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +684,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C8" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D8" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E8" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F8" t="n">
-        <v>1266.809</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>8495.536809670002</v>
+        <v>8516.859014249998</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +708,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>545</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +726,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C9" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D9" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E9" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F9" t="n">
-        <v>242.0726</v>
+        <v>1240.2151</v>
       </c>
       <c r="G9" t="n">
-        <v>8495.536809670002</v>
+        <v>7276.643914249998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +750,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>545</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +768,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C10" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D10" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E10" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F10" t="n">
-        <v>298.0286</v>
+        <v>368.3241</v>
       </c>
       <c r="G10" t="n">
-        <v>8495.536809670002</v>
+        <v>7276.643914249998</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +792,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>545</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +810,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C11" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D11" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E11" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F11" t="n">
-        <v>268.9176</v>
+        <v>150.045</v>
       </c>
       <c r="G11" t="n">
-        <v>8495.536809670002</v>
+        <v>7276.643914249998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +834,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>545</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +852,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C12" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D12" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E12" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F12" t="n">
-        <v>4.4574</v>
+        <v>327.4844</v>
       </c>
       <c r="G12" t="n">
-        <v>8495.536809670002</v>
+        <v>7276.643914249998</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +876,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>545</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +894,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C13" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D13" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E13" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F13" t="n">
-        <v>6.5426</v>
+        <v>1238.0541</v>
       </c>
       <c r="G13" t="n">
-        <v>8495.536809670002</v>
+        <v>7276.643914249998</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +918,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>545</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +936,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C14" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D14" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E14" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F14" t="n">
-        <v>23.5241</v>
+        <v>540.25</v>
       </c>
       <c r="G14" t="n">
-        <v>8472.012709670002</v>
+        <v>7276.643914249998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +960,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>545</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -918,10 +990,10 @@
         <v>547</v>
       </c>
       <c r="F15" t="n">
-        <v>1121.3363</v>
+        <v>176.6665</v>
       </c>
       <c r="G15" t="n">
-        <v>9593.349009670001</v>
+        <v>7453.310414249999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +1002,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>545</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1020,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C16" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D16" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E16" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F16" t="n">
-        <v>1311.4199</v>
+        <v>215.3649</v>
       </c>
       <c r="G16" t="n">
-        <v>8281.92910967</v>
+        <v>7237.945514249999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1044,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>545</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1062,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C17" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D17" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E17" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F17" t="n">
-        <v>693.7644</v>
+        <v>1759.9173</v>
       </c>
       <c r="G17" t="n">
-        <v>8975.69350967</v>
+        <v>7237.945514249999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1086,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>545</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1104,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C18" t="n">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D18" t="n">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E18" t="n">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F18" t="n">
-        <v>177.0531</v>
+        <v>1541.5555</v>
       </c>
       <c r="G18" t="n">
-        <v>8975.69350967</v>
+        <v>5696.390014249999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1128,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>545</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1146,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C19" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D19" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E19" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F19" t="n">
-        <v>177.0531</v>
+        <v>3.5248</v>
       </c>
       <c r="G19" t="n">
-        <v>8975.69350967</v>
+        <v>5699.914814249999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1170,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>545</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1188,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C20" t="n">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D20" t="n">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E20" t="n">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F20" t="n">
-        <v>1035.3105</v>
+        <v>1000</v>
       </c>
       <c r="G20" t="n">
-        <v>8975.69350967</v>
+        <v>4699.914814249999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1212,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>545</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1230,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C21" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D21" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E21" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F21" t="n">
-        <v>5.5045</v>
+        <v>460</v>
       </c>
       <c r="G21" t="n">
-        <v>8970.189009670001</v>
+        <v>5159.914814249999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1254,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>545</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1272,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C22" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D22" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E22" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F22" t="n">
-        <v>123.6342</v>
+        <v>303.0909</v>
       </c>
       <c r="G22" t="n">
-        <v>8846.55480967</v>
+        <v>5159.914814249999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1296,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>545</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1314,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C23" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D23" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E23" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F23" t="n">
-        <v>716.8605</v>
+        <v>539.7705</v>
       </c>
       <c r="G23" t="n">
-        <v>9563.415309670001</v>
+        <v>5159.914814249999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1338,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>545</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,7 +1356,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C24" t="n">
         <v>545</v>
@@ -1239,23 +1365,31 @@
         <v>545</v>
       </c>
       <c r="E24" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F24" t="n">
-        <v>303.3397</v>
+        <v>1334.09868495</v>
       </c>
       <c r="G24" t="n">
-        <v>9563.415309670001</v>
+        <v>6494.013499199998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>543</v>
+      </c>
+      <c r="K24" t="n">
+        <v>545</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1400,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C25" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D25" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E25" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F25" t="n">
-        <v>83.46259999999999</v>
+        <v>14.1628</v>
       </c>
       <c r="G25" t="n">
-        <v>9563.415309670001</v>
+        <v>6479.850699199998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1424,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>545</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1442,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C26" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D26" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E26" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F26" t="n">
-        <v>179.1701</v>
+        <v>101.4871</v>
       </c>
       <c r="G26" t="n">
-        <v>9384.245209670002</v>
+        <v>6479.850699199998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1466,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>545</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1484,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C27" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D27" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E27" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F27" t="n">
-        <v>3130.4621</v>
+        <v>824.55111505</v>
       </c>
       <c r="G27" t="n">
-        <v>12514.70730967</v>
+        <v>7304.401814249998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1508,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>545</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1526,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C28" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D28" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E28" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F28" t="n">
-        <v>557.1521</v>
+        <v>46.19888495</v>
       </c>
       <c r="G28" t="n">
-        <v>13071.85940967</v>
+        <v>7304.401814249998</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1398,12 +1550,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>543</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+        <v>545</v>
+      </c>
+      <c r="K28" t="n">
+        <v>545</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1416,22 +1570,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C29" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D29" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E29" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F29" t="n">
-        <v>761.1503</v>
+        <v>5.7681</v>
       </c>
       <c r="G29" t="n">
-        <v>12310.70910967</v>
+        <v>7298.633714249998</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1440,9 +1594,11 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>544</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+        <v>545</v>
+      </c>
+      <c r="K29" t="n">
+        <v>545</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1458,22 +1614,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C30" t="n">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D30" t="n">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="E30" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="F30" t="n">
-        <v>1269.6508</v>
+        <v>1941.1538</v>
       </c>
       <c r="G30" t="n">
-        <v>11041.05830967</v>
+        <v>9239.787514249998</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1482,9 +1638,11 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>543</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+        <v>544</v>
+      </c>
+      <c r="K30" t="n">
+        <v>545</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1500,33 +1658,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C31" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D31" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="E31" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="F31" t="n">
-        <v>1281.2455</v>
+        <v>500</v>
       </c>
       <c r="G31" t="n">
-        <v>9759.812809670002</v>
+        <v>9239.787514249998</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>542</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>545</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1542,33 +1700,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C32" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D32" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="E32" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="F32" t="n">
-        <v>259.5257</v>
+        <v>1226.1985</v>
       </c>
       <c r="G32" t="n">
-        <v>9759.812809670002</v>
+        <v>9239.787514249998</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>541</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>545</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1584,33 +1742,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C33" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D33" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E33" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F33" t="n">
-        <v>817.2451</v>
+        <v>49.2077</v>
       </c>
       <c r="G33" t="n">
-        <v>10577.05790967</v>
+        <v>9239.787514249998</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>541</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>545</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1626,33 +1784,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C34" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D34" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E34" t="n">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="F34" t="n">
-        <v>180</v>
+        <v>3306.0793</v>
       </c>
       <c r="G34" t="n">
-        <v>10577.05790967</v>
+        <v>12545.86681425</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>544</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>545</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1668,33 +1826,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C35" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D35" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E35" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="F35" t="n">
-        <v>531.4108</v>
+        <v>375.0962</v>
       </c>
       <c r="G35" t="n">
-        <v>10577.05790967</v>
+        <v>12545.86681425</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>544</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>545</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1710,33 +1868,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C36" t="n">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="D36" t="n">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="E36" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="F36" t="n">
-        <v>1036.0144</v>
+        <v>2268.6624</v>
       </c>
       <c r="G36" t="n">
-        <v>9541.043509670002</v>
+        <v>14814.52921425</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>544</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>545</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1752,33 +1910,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="C37" t="n">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="D37" t="n">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="E37" t="n">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="F37" t="n">
-        <v>226.9073</v>
+        <v>1131.7067</v>
       </c>
       <c r="G37" t="n">
-        <v>9314.136209670001</v>
+        <v>14814.52921425</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>542</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>545</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1794,33 +1952,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="C38" t="n">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="D38" t="n">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="E38" t="n">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="F38" t="n">
-        <v>814.2442</v>
+        <v>183</v>
       </c>
       <c r="G38" t="n">
-        <v>10128.38040967</v>
+        <v>14814.52921425</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>541</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>545</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1836,33 +1994,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="C39" t="n">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="D39" t="n">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="E39" t="n">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="F39" t="n">
-        <v>378.1134</v>
+        <v>91.5</v>
       </c>
       <c r="G39" t="n">
-        <v>10128.38040967</v>
+        <v>14814.52921425</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>543</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>545</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1878,33 +2036,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="C40" t="n">
+        <v>552</v>
+      </c>
+      <c r="D40" t="n">
+        <v>552</v>
+      </c>
+      <c r="E40" t="n">
         <v>551</v>
       </c>
-      <c r="D40" t="n">
-        <v>551</v>
-      </c>
-      <c r="E40" t="n">
-        <v>543</v>
-      </c>
       <c r="F40" t="n">
-        <v>7900.7726</v>
+        <v>1813.9311</v>
       </c>
       <c r="G40" t="n">
-        <v>18029.15300967</v>
+        <v>16628.46031425</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>543</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>545</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1920,22 +2078,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C41" t="n">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D41" t="n">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="E41" t="n">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F41" t="n">
-        <v>34.3658</v>
+        <v>57.2391</v>
       </c>
       <c r="G41" t="n">
-        <v>17994.78720967</v>
+        <v>16571.22121425</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1944,7 +2102,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>545</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1960,22 +2120,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C42" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D42" t="n">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E42" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F42" t="n">
-        <v>76.3342</v>
+        <v>860</v>
       </c>
       <c r="G42" t="n">
-        <v>17994.78720967</v>
+        <v>15711.22121425</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1984,7 +2144,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>545</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2000,22 +2162,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C43" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D43" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E43" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F43" t="n">
-        <v>55.4</v>
+        <v>572.9145</v>
       </c>
       <c r="G43" t="n">
-        <v>17994.78720967</v>
+        <v>15711.22121425</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2024,7 +2186,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>545</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2040,22 +2204,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C44" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D44" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E44" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="F44" t="n">
-        <v>1731.6089</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>16263.17830967</v>
+        <v>15788.62121425</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2064,7 +2228,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>545</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2080,22 +2246,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C45" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D45" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E45" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>184.4117</v>
       </c>
       <c r="G45" t="n">
-        <v>16264.17830967</v>
+        <v>15604.20951425</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2104,7 +2270,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>545</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2120,22 +2288,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C46" t="n">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D46" t="n">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E46" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F46" t="n">
-        <v>560</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>16824.17830967</v>
+        <v>15526.80951425</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2144,7 +2312,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>545</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2163,19 +2333,19 @@
         <v>544</v>
       </c>
       <c r="C47" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D47" t="n">
         <v>544</v>
       </c>
       <c r="E47" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F47" t="n">
-        <v>560.1697</v>
+        <v>133</v>
       </c>
       <c r="G47" t="n">
-        <v>16264.00860967</v>
+        <v>15393.80951425</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2184,7 +2354,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>545</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2200,22 +2372,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C48" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D48" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E48" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F48" t="n">
-        <v>480.5287</v>
+        <v>901.7122000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>15783.47990967</v>
+        <v>15393.80951425</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2224,7 +2396,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>545</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2252,10 +2426,10 @@
         <v>542</v>
       </c>
       <c r="F49" t="n">
-        <v>336</v>
+        <v>627.8920000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>15783.47990967</v>
+        <v>14765.91751425</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2264,7 +2438,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>545</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2280,22 +2456,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C50" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D50" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E50" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F50" t="n">
-        <v>2750.744</v>
+        <v>810</v>
       </c>
       <c r="G50" t="n">
-        <v>13032.73590967</v>
+        <v>14765.91751425</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2304,7 +2480,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>545</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2320,22 +2498,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C51" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D51" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E51" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F51" t="n">
-        <v>488</v>
+        <v>1568.2656</v>
       </c>
       <c r="G51" t="n">
-        <v>13032.73590967</v>
+        <v>14765.91751425</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2344,7 +2522,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>545</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2360,31 +2540,35 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C52" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D52" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E52" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F52" t="n">
-        <v>2150.5747</v>
+        <v>93.1512</v>
       </c>
       <c r="G52" t="n">
-        <v>10882.16120967</v>
+        <v>14765.91751425</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>542</v>
+      </c>
+      <c r="K52" t="n">
+        <v>545</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2400,31 +2584,35 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C53" t="n">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D53" t="n">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E53" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F53" t="n">
-        <v>488.6602</v>
+        <v>958.1529</v>
       </c>
       <c r="G53" t="n">
-        <v>10882.16120967</v>
+        <v>15724.07041425</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>542</v>
+      </c>
+      <c r="K53" t="n">
+        <v>545</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2440,31 +2628,35 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C54" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D54" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E54" t="n">
         <v>540</v>
       </c>
       <c r="F54" t="n">
-        <v>216</v>
+        <v>7983.2082</v>
       </c>
       <c r="G54" t="n">
-        <v>10882.16120967</v>
+        <v>7740.86221425</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>544</v>
+      </c>
+      <c r="K54" t="n">
+        <v>545</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2480,22 +2672,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C55" t="n">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D55" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E55" t="n">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F55" t="n">
-        <v>537.3499</v>
+        <v>3377.3231</v>
       </c>
       <c r="G55" t="n">
-        <v>10882.16120967</v>
+        <v>4363.539114249999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2504,7 +2696,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>545</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2520,22 +2714,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C56" t="n">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D56" t="n">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E56" t="n">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F56" t="n">
-        <v>1317.4421</v>
+        <v>155.4263</v>
       </c>
       <c r="G56" t="n">
-        <v>10882.16120967</v>
+        <v>4518.965414249999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2544,7 +2738,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>545</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2560,31 +2756,35 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C57" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D57" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E57" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="F57" t="n">
-        <v>720</v>
+        <v>1570.0423</v>
       </c>
       <c r="G57" t="n">
-        <v>10162.16120967</v>
+        <v>4518.965414249999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>543</v>
+      </c>
+      <c r="K57" t="n">
+        <v>545</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2600,22 +2800,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C58" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D58" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E58" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F58" t="n">
-        <v>35.8338</v>
+        <v>1348.4365</v>
       </c>
       <c r="G58" t="n">
-        <v>10197.99500967</v>
+        <v>5867.401914249999</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -2624,9 +2824,11 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>538</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+        <v>543</v>
+      </c>
+      <c r="K58" t="n">
+        <v>545</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2645,19 +2847,19 @@
         <v>545</v>
       </c>
       <c r="C59" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D59" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E59" t="n">
         <v>545</v>
       </c>
       <c r="F59" t="n">
-        <v>3.4572</v>
+        <v>570</v>
       </c>
       <c r="G59" t="n">
-        <v>10201.45220967</v>
+        <v>6437.401914249999</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -2666,9 +2868,11 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>542</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+        <v>544</v>
+      </c>
+      <c r="K59" t="n">
+        <v>545</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2684,22 +2888,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C60" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D60" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E60" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F60" t="n">
-        <v>305.633</v>
+        <v>3060.4</v>
       </c>
       <c r="G60" t="n">
-        <v>10201.45220967</v>
+        <v>9497.80191425</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -2708,9 +2912,11 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>545</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+        <v>546</v>
+      </c>
+      <c r="K60" t="n">
+        <v>545</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2726,31 +2932,35 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C61" t="n">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D61" t="n">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="E61" t="n">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="F61" t="n">
-        <v>2731.4086</v>
+        <v>2099.2832</v>
       </c>
       <c r="G61" t="n">
-        <v>12932.86080967</v>
+        <v>11597.08511425</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>549</v>
+      </c>
+      <c r="K61" t="n">
+        <v>545</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2766,22 +2976,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C62" t="n">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D62" t="n">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E62" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="F62" t="n">
-        <v>3086.0266</v>
+        <v>919.2763</v>
       </c>
       <c r="G62" t="n">
-        <v>16018.88740967</v>
+        <v>11597.08511425</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2790,7 +3000,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>545</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2806,22 +3018,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C63" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D63" t="n">
         <v>550</v>
       </c>
       <c r="E63" t="n">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F63" t="n">
-        <v>1992.2775</v>
+        <v>360.108</v>
       </c>
       <c r="G63" t="n">
-        <v>18011.16490967</v>
+        <v>11236.97711425</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2830,7 +3042,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>545</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2846,22 +3060,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C64" t="n">
         <v>550</v>
       </c>
       <c r="D64" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E64" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F64" t="n">
-        <v>5621.0185</v>
+        <v>1119.272</v>
       </c>
       <c r="G64" t="n">
-        <v>23632.18340967</v>
+        <v>11236.97711425</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2870,7 +3084,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>545</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2886,22 +3102,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C65" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D65" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E65" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F65" t="n">
-        <v>251.6327</v>
+        <v>890</v>
       </c>
       <c r="G65" t="n">
-        <v>23632.18340967</v>
+        <v>12126.97711425</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2910,7 +3126,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>545</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2929,19 +3147,19 @@
         <v>550</v>
       </c>
       <c r="C66" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D66" t="n">
         <v>550</v>
       </c>
       <c r="E66" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F66" t="n">
-        <v>483.9135</v>
+        <v>698.9098</v>
       </c>
       <c r="G66" t="n">
-        <v>23148.26990967001</v>
+        <v>11428.06731425</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2950,7 +3168,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>545</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2966,22 +3186,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C67" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D67" t="n">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E67" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F67" t="n">
-        <v>809.9646</v>
+        <v>4.6537</v>
       </c>
       <c r="G67" t="n">
-        <v>23958.23450967</v>
+        <v>11423.41361425</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2990,7 +3210,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>545</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3006,31 +3228,35 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C68" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D68" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E68" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F68" t="n">
-        <v>18.255</v>
+        <v>4.04</v>
       </c>
       <c r="G68" t="n">
-        <v>23939.97950967</v>
+        <v>11427.45361425</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>546</v>
+      </c>
+      <c r="K68" t="n">
+        <v>545</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3046,22 +3272,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C69" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D69" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E69" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F69" t="n">
-        <v>1292.7727</v>
+        <v>1.0027</v>
       </c>
       <c r="G69" t="n">
-        <v>25232.75220967</v>
+        <v>11426.45091425</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3070,7 +3296,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>545</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3086,31 +3314,35 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C70" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D70" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E70" t="n">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F70" t="n">
-        <v>27.2276</v>
+        <v>20.5266</v>
       </c>
       <c r="G70" t="n">
-        <v>25205.52460967001</v>
+        <v>11446.97751425</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>546</v>
+      </c>
+      <c r="K70" t="n">
+        <v>545</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3126,31 +3358,35 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C71" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D71" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E71" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F71" t="n">
-        <v>594.1499</v>
+        <v>210.8572</v>
       </c>
       <c r="G71" t="n">
-        <v>24611.37470967001</v>
+        <v>11446.97751425</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>548</v>
+      </c>
+      <c r="K71" t="n">
+        <v>545</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3166,31 +3402,35 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C72" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D72" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E72" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F72" t="n">
-        <v>516.5</v>
+        <v>2290.2892</v>
       </c>
       <c r="G72" t="n">
-        <v>24094.87470967001</v>
+        <v>9156.688314250001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>548</v>
+      </c>
+      <c r="K72" t="n">
+        <v>545</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3206,7 +3446,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C73" t="n">
         <v>549</v>
@@ -3215,22 +3455,26 @@
         <v>549</v>
       </c>
       <c r="E73" t="n">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="F73" t="n">
-        <v>6796.3016</v>
+        <v>2283.3311</v>
       </c>
       <c r="G73" t="n">
-        <v>30891.17630967001</v>
+        <v>11440.01941425</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>545</v>
+      </c>
+      <c r="K73" t="n">
+        <v>545</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3246,31 +3490,35 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C74" t="n">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D74" t="n">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E74" t="n">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F74" t="n">
-        <v>1889.7368</v>
+        <v>1474.9576</v>
       </c>
       <c r="G74" t="n">
-        <v>32780.91310967001</v>
+        <v>9965.061814250001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>549</v>
+      </c>
+      <c r="K74" t="n">
+        <v>545</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3286,31 +3534,35 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C75" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D75" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E75" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F75" t="n">
-        <v>2124</v>
+        <v>0.19449542</v>
       </c>
       <c r="G75" t="n">
-        <v>30656.91310967001</v>
+        <v>9965.256309670001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>545</v>
+      </c>
+      <c r="K75" t="n">
+        <v>545</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3329,28 +3581,32 @@
         <v>549</v>
       </c>
       <c r="C76" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D76" t="n">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E76" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F76" t="n">
-        <v>777.2094</v>
+        <v>4413.1577</v>
       </c>
       <c r="G76" t="n">
-        <v>30656.91310967001</v>
+        <v>9965.256309670001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>546</v>
+      </c>
+      <c r="K76" t="n">
+        <v>545</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3366,22 +3622,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C77" t="n">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D77" t="n">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E77" t="n">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F77" t="n">
-        <v>49.8793</v>
+        <v>202.6002</v>
       </c>
       <c r="G77" t="n">
-        <v>30656.91310967001</v>
+        <v>10167.85650967</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3390,7 +3646,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>545</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3406,22 +3664,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C78" t="n">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D78" t="n">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E78" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F78" t="n">
-        <v>1355.395</v>
+        <v>1672.3197</v>
       </c>
       <c r="G78" t="n">
-        <v>32012.30810967001</v>
+        <v>8495.536809670002</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3430,7 +3688,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>545</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3446,22 +3706,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C79" t="n">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D79" t="n">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E79" t="n">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F79" t="n">
-        <v>225</v>
+        <v>1266.809</v>
       </c>
       <c r="G79" t="n">
-        <v>32012.30810967001</v>
+        <v>8495.536809670002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3470,7 +3730,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>545</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3486,22 +3748,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C80" t="n">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D80" t="n">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E80" t="n">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F80" t="n">
-        <v>72.6641</v>
+        <v>242.0726</v>
       </c>
       <c r="G80" t="n">
-        <v>32012.30810967001</v>
+        <v>8495.536809670002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3510,7 +3772,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>545</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3526,22 +3790,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C81" t="n">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D81" t="n">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E81" t="n">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F81" t="n">
-        <v>4620.0832</v>
+        <v>298.0286</v>
       </c>
       <c r="G81" t="n">
-        <v>36632.39130967001</v>
+        <v>8495.536809670002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3550,7 +3814,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>545</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3566,22 +3832,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C82" t="n">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="D82" t="n">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="E82" t="n">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F82" t="n">
-        <v>6653.36168841</v>
+        <v>268.9176</v>
       </c>
       <c r="G82" t="n">
-        <v>43285.75299808</v>
+        <v>8495.536809670002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3590,7 +3856,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>545</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3606,22 +3874,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C83" t="n">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="D83" t="n">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="E83" t="n">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="F83" t="n">
-        <v>6085.5887</v>
+        <v>4.4574</v>
       </c>
       <c r="G83" t="n">
-        <v>49371.34169808</v>
+        <v>8495.536809670002</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3630,7 +3898,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>545</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3646,22 +3916,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="C84" t="n">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="D84" t="n">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="E84" t="n">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="F84" t="n">
-        <v>149.3845</v>
+        <v>6.5426</v>
       </c>
       <c r="G84" t="n">
-        <v>49371.34169808</v>
+        <v>8495.536809670002</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3670,7 +3940,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>545</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3686,22 +3958,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="C85" t="n">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="D85" t="n">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="E85" t="n">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F85" t="n">
-        <v>3730.79823515</v>
+        <v>23.5241</v>
       </c>
       <c r="G85" t="n">
-        <v>53102.13993323001</v>
+        <v>8472.012709670002</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3710,7 +3982,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>545</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3726,22 +4000,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="C86" t="n">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="D86" t="n">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="E86" t="n">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="F86" t="n">
-        <v>1427.4626</v>
+        <v>1121.3363</v>
       </c>
       <c r="G86" t="n">
-        <v>51674.67733323001</v>
+        <v>9593.349009670001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3750,7 +4024,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>545</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3766,22 +4042,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="C87" t="n">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="D87" t="n">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="E87" t="n">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="F87" t="n">
-        <v>753.6742</v>
+        <v>1311.4199</v>
       </c>
       <c r="G87" t="n">
-        <v>52428.35153323001</v>
+        <v>8281.92910967</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3790,7 +4066,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>545</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3806,22 +4084,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="C88" t="n">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="D88" t="n">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="E88" t="n">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="F88" t="n">
-        <v>5002.0832</v>
+        <v>693.7644</v>
       </c>
       <c r="G88" t="n">
-        <v>52428.35153323001</v>
+        <v>8975.69350967</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3830,7 +4108,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>545</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3846,22 +4126,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="C89" t="n">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="D89" t="n">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="E89" t="n">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="F89" t="n">
-        <v>101</v>
+        <v>177.0531</v>
       </c>
       <c r="G89" t="n">
-        <v>52428.35153323001</v>
+        <v>8975.69350967</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3870,7 +4150,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>545</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3886,22 +4168,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="C90" t="n">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="D90" t="n">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="E90" t="n">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="F90" t="n">
-        <v>3286.83889168</v>
+        <v>177.0531</v>
       </c>
       <c r="G90" t="n">
-        <v>55715.19042491001</v>
+        <v>8975.69350967</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3910,7 +4192,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>545</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,22 +4210,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="C91" t="n">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="D91" t="n">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="E91" t="n">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="F91" t="n">
-        <v>1115.6886</v>
+        <v>1035.3105</v>
       </c>
       <c r="G91" t="n">
-        <v>54599.50182491001</v>
+        <v>8975.69350967</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3950,7 +4234,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>545</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3966,22 +4252,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="C92" t="n">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="D92" t="n">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="E92" t="n">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="F92" t="n">
-        <v>180</v>
+        <v>5.5045</v>
       </c>
       <c r="G92" t="n">
-        <v>54779.50182491001</v>
+        <v>8970.189009670001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3990,7 +4276,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>545</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4006,31 +4294,35 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="C93" t="n">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="D93" t="n">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="E93" t="n">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="F93" t="n">
-        <v>531.0069999999999</v>
+        <v>123.6342</v>
       </c>
       <c r="G93" t="n">
-        <v>54779.50182491001</v>
+        <v>8846.55480967</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>545</v>
+      </c>
+      <c r="K93" t="n">
+        <v>545</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,31 +4338,35 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="C94" t="n">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D94" t="n">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="E94" t="n">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="F94" t="n">
-        <v>7137.046</v>
+        <v>716.8605</v>
       </c>
       <c r="G94" t="n">
-        <v>47642.45582491001</v>
+        <v>9563.415309670001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>544</v>
+      </c>
+      <c r="K94" t="n">
+        <v>545</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4086,31 +4382,35 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C95" t="n">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="D95" t="n">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="E95" t="n">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F95" t="n">
-        <v>102</v>
+        <v>303.3397</v>
       </c>
       <c r="G95" t="n">
-        <v>47744.45582491001</v>
+        <v>9563.415309670001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>545</v>
+      </c>
+      <c r="K95" t="n">
+        <v>545</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4126,31 +4426,35 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C96" t="n">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="D96" t="n">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="E96" t="n">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F96" t="n">
-        <v>122.88</v>
+        <v>83.46259999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>47621.57582491001</v>
+        <v>9563.415309670001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>545</v>
+      </c>
+      <c r="K96" t="n">
+        <v>545</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4166,31 +4470,35 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="C97" t="n">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="D97" t="n">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="E97" t="n">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="F97" t="n">
-        <v>50.3155</v>
+        <v>179.1701</v>
       </c>
       <c r="G97" t="n">
-        <v>47621.57582491001</v>
+        <v>9384.245209670002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>545</v>
+      </c>
+      <c r="K97" t="n">
+        <v>545</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4206,31 +4514,35 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="C98" t="n">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="D98" t="n">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="E98" t="n">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F98" t="n">
-        <v>77.5581</v>
+        <v>3130.4621</v>
       </c>
       <c r="G98" t="n">
-        <v>47544.01772491001</v>
+        <v>12514.70730967</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>541</v>
+      </c>
+      <c r="K98" t="n">
+        <v>545</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4246,31 +4558,35 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="C99" t="n">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="D99" t="n">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="E99" t="n">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="F99" t="n">
-        <v>172.6097</v>
+        <v>557.1521</v>
       </c>
       <c r="G99" t="n">
-        <v>47371.40802491001</v>
+        <v>13071.85940967</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>543</v>
+      </c>
+      <c r="K99" t="n">
+        <v>545</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4286,31 +4602,35 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="C100" t="n">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="D100" t="n">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="E100" t="n">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="F100" t="n">
-        <v>2024.3988</v>
+        <v>761.1503</v>
       </c>
       <c r="G100" t="n">
-        <v>45347.00922491001</v>
+        <v>12310.70910967</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>544</v>
+      </c>
+      <c r="K100" t="n">
+        <v>545</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4326,31 +4646,35 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="C101" t="n">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="D101" t="n">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="E101" t="n">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="F101" t="n">
-        <v>100</v>
+        <v>1269.6508</v>
       </c>
       <c r="G101" t="n">
-        <v>45347.00922491001</v>
+        <v>11041.05830967</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>543</v>
+      </c>
+      <c r="K101" t="n">
+        <v>545</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4366,31 +4690,35 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="C102" t="n">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="D102" t="n">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="E102" t="n">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="F102" t="n">
-        <v>897.6638</v>
+        <v>1281.2455</v>
       </c>
       <c r="G102" t="n">
-        <v>45347.00922491001</v>
+        <v>9759.812809670002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>542</v>
+      </c>
+      <c r="K102" t="n">
+        <v>545</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4406,31 +4734,35 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="C103" t="n">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="D103" t="n">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="E103" t="n">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F103" t="n">
-        <v>848.5817</v>
+        <v>259.5257</v>
       </c>
       <c r="G103" t="n">
-        <v>44498.42752491</v>
+        <v>9759.812809670002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>541</v>
+      </c>
+      <c r="K103" t="n">
+        <v>545</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4446,31 +4778,35 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C104" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D104" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E104" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="F104" t="n">
-        <v>486.692</v>
+        <v>817.2451</v>
       </c>
       <c r="G104" t="n">
-        <v>44011.73552491</v>
+        <v>10577.05790967</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>541</v>
+      </c>
+      <c r="K104" t="n">
+        <v>545</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4486,22 +4822,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="C105" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D105" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E105" t="n">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="F105" t="n">
-        <v>393.2511</v>
+        <v>180</v>
       </c>
       <c r="G105" t="n">
-        <v>44011.73552491</v>
+        <v>10577.05790967</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4510,7 +4846,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>545</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4526,22 +4864,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C106" t="n">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="D106" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E106" t="n">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F106" t="n">
-        <v>4408.9439</v>
+        <v>531.4108</v>
       </c>
       <c r="G106" t="n">
-        <v>39602.79162491</v>
+        <v>10577.05790967</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4550,7 +4888,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>545</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4566,22 +4906,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="C107" t="n">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="D107" t="n">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="E107" t="n">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="F107" t="n">
-        <v>1097.5079</v>
+        <v>1036.0144</v>
       </c>
       <c r="G107" t="n">
-        <v>39602.79162491</v>
+        <v>9541.043509670002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4590,7 +4930,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>545</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4606,22 +4948,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="C108" t="n">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="D108" t="n">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="E108" t="n">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="F108" t="n">
-        <v>500</v>
+        <v>226.9073</v>
       </c>
       <c r="G108" t="n">
-        <v>39102.79162491</v>
+        <v>9314.136209670001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4630,7 +4972,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>545</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4646,31 +4990,35 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="C109" t="n">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="D109" t="n">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E109" t="n">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>814.2442</v>
       </c>
       <c r="G109" t="n">
-        <v>39112.79162491</v>
+        <v>10128.38040967</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>541</v>
+      </c>
+      <c r="K109" t="n">
+        <v>545</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4686,31 +5034,35 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="C110" t="n">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="D110" t="n">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="E110" t="n">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="F110" t="n">
-        <v>108.3032</v>
+        <v>378.1134</v>
       </c>
       <c r="G110" t="n">
-        <v>39221.09482491</v>
+        <v>10128.38040967</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>543</v>
+      </c>
+      <c r="K110" t="n">
+        <v>545</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4726,31 +5078,35 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="C111" t="n">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D111" t="n">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E111" t="n">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="F111" t="n">
-        <v>8.489100000000001</v>
+        <v>7900.7726</v>
       </c>
       <c r="G111" t="n">
-        <v>39221.09482491</v>
+        <v>18029.15300967</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>543</v>
+      </c>
+      <c r="K111" t="n">
+        <v>545</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4766,22 +5122,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C112" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D112" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E112" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="F112" t="n">
-        <v>441.3664</v>
+        <v>34.3658</v>
       </c>
       <c r="G112" t="n">
-        <v>39221.09482491</v>
+        <v>17994.78720967</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4790,7 +5146,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>545</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4806,22 +5164,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C113" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D113" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E113" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="F113" t="n">
-        <v>427.0754</v>
+        <v>76.3342</v>
       </c>
       <c r="G113" t="n">
-        <v>39221.09482491</v>
+        <v>17994.78720967</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4830,7 +5188,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>545</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4846,22 +5206,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C114" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D114" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E114" t="n">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="F114" t="n">
-        <v>18.7648</v>
+        <v>55.4</v>
       </c>
       <c r="G114" t="n">
-        <v>39221.09482491</v>
+        <v>17994.78720967</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4870,7 +5230,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>545</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4886,22 +5248,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="C115" t="n">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="D115" t="n">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="E115" t="n">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="F115" t="n">
-        <v>946.0001</v>
+        <v>1731.6089</v>
       </c>
       <c r="G115" t="n">
-        <v>40167.09492491</v>
+        <v>16263.17830967</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4910,7 +5272,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>545</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4926,22 +5290,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C116" t="n">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D116" t="n">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="E116" t="n">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F116" t="n">
-        <v>315.621</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>40167.09492491</v>
+        <v>16264.17830967</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4950,7 +5314,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>545</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4966,22 +5332,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C117" t="n">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="D117" t="n">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="E117" t="n">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F117" t="n">
-        <v>100</v>
+        <v>560</v>
       </c>
       <c r="G117" t="n">
-        <v>40167.09492491</v>
+        <v>16824.17830967</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4990,7 +5356,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>545</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5006,22 +5374,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="C118" t="n">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="D118" t="n">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E118" t="n">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="F118" t="n">
-        <v>1160.1483</v>
+        <v>560.1697</v>
       </c>
       <c r="G118" t="n">
-        <v>39006.94662491</v>
+        <v>16264.00860967</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5030,7 +5398,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>545</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5046,22 +5416,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="C119" t="n">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="D119" t="n">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="E119" t="n">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="F119" t="n">
-        <v>226.4484</v>
+        <v>480.5287</v>
       </c>
       <c r="G119" t="n">
-        <v>39233.39502491</v>
+        <v>15783.47990967</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5070,7 +5440,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>545</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5086,22 +5458,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="C120" t="n">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="D120" t="n">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="E120" t="n">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="F120" t="n">
-        <v>125.0411</v>
+        <v>336</v>
       </c>
       <c r="G120" t="n">
-        <v>39358.43612491</v>
+        <v>15783.47990967</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5110,7 +5482,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>545</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5126,22 +5500,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="C121" t="n">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="D121" t="n">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="E121" t="n">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="F121" t="n">
-        <v>2352.912</v>
+        <v>2750.744</v>
       </c>
       <c r="G121" t="n">
-        <v>39358.43612491</v>
+        <v>13032.73590967</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5150,7 +5524,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>545</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5166,22 +5542,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="C122" t="n">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="D122" t="n">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="E122" t="n">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="F122" t="n">
-        <v>2983.2829</v>
+        <v>488</v>
       </c>
       <c r="G122" t="n">
-        <v>36375.15322491001</v>
+        <v>13032.73590967</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5190,7 +5566,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>545</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5206,22 +5584,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="C123" t="n">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="D123" t="n">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="E123" t="n">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="F123" t="n">
-        <v>774.811</v>
+        <v>2150.5747</v>
       </c>
       <c r="G123" t="n">
-        <v>36375.15322491001</v>
+        <v>10882.16120967</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5230,7 +5608,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>545</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5246,22 +5626,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="C124" t="n">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="D124" t="n">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="E124" t="n">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="F124" t="n">
-        <v>194.2</v>
+        <v>488.6602</v>
       </c>
       <c r="G124" t="n">
-        <v>36569.35322491</v>
+        <v>10882.16120967</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5270,7 +5650,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>545</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5286,22 +5668,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="C125" t="n">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="D125" t="n">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="E125" t="n">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="F125" t="n">
-        <v>157.2892</v>
+        <v>216</v>
       </c>
       <c r="G125" t="n">
-        <v>36569.35322491</v>
+        <v>10882.16120967</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5310,7 +5692,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>545</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5326,22 +5710,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C126" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="D126" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="E126" t="n">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="F126" t="n">
-        <v>2025.3962</v>
+        <v>537.3499</v>
       </c>
       <c r="G126" t="n">
-        <v>38594.74942491001</v>
+        <v>10882.16120967</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5350,7 +5734,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>545</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5366,31 +5752,35 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C127" t="n">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="D127" t="n">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="E127" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="F127" t="n">
-        <v>5438.7063</v>
+        <v>1317.4421</v>
       </c>
       <c r="G127" t="n">
-        <v>44033.45572491</v>
+        <v>10882.16120967</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>540</v>
+      </c>
+      <c r="K127" t="n">
+        <v>545</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5406,31 +5796,35 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="C128" t="n">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="D128" t="n">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="E128" t="n">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="F128" t="n">
-        <v>1338.5788</v>
+        <v>720</v>
       </c>
       <c r="G128" t="n">
-        <v>44033.45572491</v>
+        <v>10162.16120967</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>540</v>
+      </c>
+      <c r="K128" t="n">
+        <v>545</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5446,31 +5840,35 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="C129" t="n">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="D129" t="n">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="E129" t="n">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="F129" t="n">
-        <v>1433.9309</v>
+        <v>35.8338</v>
       </c>
       <c r="G129" t="n">
-        <v>45467.38662491</v>
+        <v>10197.99500967</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>538</v>
+      </c>
+      <c r="K129" t="n">
+        <v>545</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5486,31 +5884,35 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C130" t="n">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="D130" t="n">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="E130" t="n">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="F130" t="n">
-        <v>1058</v>
+        <v>3.4572</v>
       </c>
       <c r="G130" t="n">
-        <v>45467.38662491</v>
+        <v>10201.45220967</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>542</v>
+      </c>
+      <c r="K130" t="n">
+        <v>545</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5526,37 +5928,43 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C131" t="n">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="D131" t="n">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="E131" t="n">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="F131" t="n">
-        <v>1049.5423</v>
+        <v>305.633</v>
       </c>
       <c r="G131" t="n">
-        <v>45467.38662491</v>
+        <v>10201.45220967</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>545</v>
+      </c>
+      <c r="K131" t="n">
+        <v>545</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
       <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -5564,32 +5972,40 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C132" t="n">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="D132" t="n">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="E132" t="n">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="F132" t="n">
-        <v>802</v>
+        <v>2731.4086</v>
       </c>
       <c r="G132" t="n">
-        <v>45467.38662491</v>
+        <v>12932.86080967</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>545</v>
+      </c>
+      <c r="K132" t="n">
+        <v>545</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5600,32 +6016,40 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="C133" t="n">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="D133" t="n">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="E133" t="n">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="F133" t="n">
-        <v>18.5371</v>
+        <v>3086.0266</v>
       </c>
       <c r="G133" t="n">
-        <v>45467.38662491</v>
+        <v>16018.88740967</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>546</v>
+      </c>
+      <c r="K133" t="n">
+        <v>545</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5636,32 +6060,40 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="C134" t="n">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="D134" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E134" t="n">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="F134" t="n">
-        <v>270.913</v>
+        <v>1992.2775</v>
       </c>
       <c r="G134" t="n">
-        <v>45467.38662491</v>
+        <v>18011.16490967</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>548</v>
+      </c>
+      <c r="K134" t="n">
+        <v>545</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5672,32 +6104,38 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="C135" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D135" t="n">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="E135" t="n">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="F135" t="n">
-        <v>858.3674</v>
+        <v>5621.0185</v>
       </c>
       <c r="G135" t="n">
-        <v>45467.38662491</v>
+        <v>23632.18340967</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>545</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5708,32 +6146,38 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C136" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D136" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E136" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="F136" t="n">
-        <v>430.7143</v>
+        <v>251.6327</v>
       </c>
       <c r="G136" t="n">
-        <v>45467.38662491</v>
+        <v>23632.18340967</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>545</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5744,32 +6188,38 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C137" t="n">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="D137" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E137" t="n">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="F137" t="n">
-        <v>112.3717</v>
+        <v>483.9135</v>
       </c>
       <c r="G137" t="n">
-        <v>45467.38662491</v>
+        <v>23148.26990967001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>545</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5780,32 +6230,38 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="C138" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D138" t="n">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="E138" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="F138" t="n">
-        <v>443.9419</v>
+        <v>809.9646</v>
       </c>
       <c r="G138" t="n">
-        <v>45467.38662491</v>
+        <v>23958.23450967</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>545</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5816,32 +6272,38 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="C139" t="n">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="D139" t="n">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="E139" t="n">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="F139" t="n">
-        <v>673</v>
+        <v>18.255</v>
       </c>
       <c r="G139" t="n">
-        <v>45467.38662491</v>
+        <v>23939.97950967</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>545</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5852,32 +6314,38 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="C140" t="n">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="D140" t="n">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="E140" t="n">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="F140" t="n">
-        <v>24.4035</v>
+        <v>1292.7727</v>
       </c>
       <c r="G140" t="n">
-        <v>45491.79012491</v>
+        <v>25232.75220967</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>545</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5888,32 +6356,38 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="C141" t="n">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="D141" t="n">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="E141" t="n">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="F141" t="n">
-        <v>2701.3324</v>
+        <v>27.2276</v>
       </c>
       <c r="G141" t="n">
-        <v>42790.45772491</v>
+        <v>25205.52460967001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>545</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5924,32 +6398,38 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="C142" t="n">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="D142" t="n">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="E142" t="n">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="F142" t="n">
-        <v>447</v>
+        <v>594.1499</v>
       </c>
       <c r="G142" t="n">
-        <v>43237.45772491</v>
+        <v>24611.37470967001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>545</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5960,36 +6440,2718 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>546</v>
+      </c>
+      <c r="C143" t="n">
+        <v>546</v>
+      </c>
+      <c r="D143" t="n">
+        <v>546</v>
+      </c>
+      <c r="E143" t="n">
+        <v>546</v>
+      </c>
+      <c r="F143" t="n">
+        <v>516.5</v>
+      </c>
+      <c r="G143" t="n">
+        <v>24094.87470967001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>545</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>546</v>
+      </c>
+      <c r="C144" t="n">
+        <v>549</v>
+      </c>
+      <c r="D144" t="n">
+        <v>549</v>
+      </c>
+      <c r="E144" t="n">
+        <v>543</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6796.3016</v>
+      </c>
+      <c r="G144" t="n">
+        <v>30891.17630967001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>545</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>550</v>
+      </c>
+      <c r="C145" t="n">
+        <v>551</v>
+      </c>
+      <c r="D145" t="n">
+        <v>551</v>
+      </c>
+      <c r="E145" t="n">
+        <v>550</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1889.7368</v>
+      </c>
+      <c r="G145" t="n">
+        <v>32780.91310967001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>545</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>549</v>
+      </c>
+      <c r="C146" t="n">
+        <v>549</v>
+      </c>
+      <c r="D146" t="n">
+        <v>549</v>
+      </c>
+      <c r="E146" t="n">
+        <v>549</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2124</v>
+      </c>
+      <c r="G146" t="n">
+        <v>30656.91310967001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>545</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>549</v>
+      </c>
+      <c r="C147" t="n">
+        <v>549</v>
+      </c>
+      <c r="D147" t="n">
+        <v>549</v>
+      </c>
+      <c r="E147" t="n">
+        <v>549</v>
+      </c>
+      <c r="F147" t="n">
+        <v>777.2094</v>
+      </c>
+      <c r="G147" t="n">
+        <v>30656.91310967001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>545</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>549</v>
+      </c>
+      <c r="C148" t="n">
+        <v>549</v>
+      </c>
+      <c r="D148" t="n">
+        <v>549</v>
+      </c>
+      <c r="E148" t="n">
+        <v>549</v>
+      </c>
+      <c r="F148" t="n">
+        <v>49.8793</v>
+      </c>
+      <c r="G148" t="n">
+        <v>30656.91310967001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>545</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>550</v>
+      </c>
+      <c r="C149" t="n">
+        <v>551</v>
+      </c>
+      <c r="D149" t="n">
+        <v>551</v>
+      </c>
+      <c r="E149" t="n">
+        <v>550</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1355.395</v>
+      </c>
+      <c r="G149" t="n">
+        <v>32012.30810967001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>545</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>551</v>
+      </c>
+      <c r="C150" t="n">
+        <v>551</v>
+      </c>
+      <c r="D150" t="n">
+        <v>551</v>
+      </c>
+      <c r="E150" t="n">
+        <v>551</v>
+      </c>
+      <c r="F150" t="n">
+        <v>225</v>
+      </c>
+      <c r="G150" t="n">
+        <v>32012.30810967001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>545</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>551</v>
+      </c>
+      <c r="C151" t="n">
+        <v>551</v>
+      </c>
+      <c r="D151" t="n">
+        <v>551</v>
+      </c>
+      <c r="E151" t="n">
+        <v>551</v>
+      </c>
+      <c r="F151" t="n">
+        <v>72.6641</v>
+      </c>
+      <c r="G151" t="n">
+        <v>32012.30810967001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>545</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>552</v>
+      </c>
+      <c r="C152" t="n">
+        <v>553</v>
+      </c>
+      <c r="D152" t="n">
+        <v>553</v>
+      </c>
+      <c r="E152" t="n">
+        <v>552</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4620.0832</v>
+      </c>
+      <c r="G152" t="n">
+        <v>36632.39130967001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>545</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>553</v>
+      </c>
+      <c r="C153" t="n">
+        <v>558</v>
+      </c>
+      <c r="D153" t="n">
+        <v>558</v>
+      </c>
+      <c r="E153" t="n">
+        <v>552</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6653.36168841</v>
+      </c>
+      <c r="G153" t="n">
+        <v>43285.75299808</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>545</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>558</v>
+      </c>
+      <c r="C154" t="n">
+        <v>560</v>
+      </c>
+      <c r="D154" t="n">
+        <v>560</v>
+      </c>
+      <c r="E154" t="n">
+        <v>558</v>
+      </c>
+      <c r="F154" t="n">
+        <v>6085.5887</v>
+      </c>
+      <c r="G154" t="n">
+        <v>49371.34169808</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>545</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>560</v>
+      </c>
+      <c r="C155" t="n">
+        <v>560</v>
+      </c>
+      <c r="D155" t="n">
+        <v>560</v>
+      </c>
+      <c r="E155" t="n">
+        <v>560</v>
+      </c>
+      <c r="F155" t="n">
+        <v>149.3845</v>
+      </c>
+      <c r="G155" t="n">
+        <v>49371.34169808</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>545</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>560</v>
+      </c>
+      <c r="C156" t="n">
+        <v>564</v>
+      </c>
+      <c r="D156" t="n">
+        <v>566</v>
+      </c>
+      <c r="E156" t="n">
+        <v>548</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3730.79823515</v>
+      </c>
+      <c r="G156" t="n">
+        <v>53102.13993323001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>545</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>562</v>
+      </c>
+      <c r="C157" t="n">
+        <v>562</v>
+      </c>
+      <c r="D157" t="n">
+        <v>562</v>
+      </c>
+      <c r="E157" t="n">
+        <v>562</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1427.4626</v>
+      </c>
+      <c r="G157" t="n">
+        <v>51674.67733323001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>545</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
         <v>563</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C158" t="n">
+        <v>563</v>
+      </c>
+      <c r="D158" t="n">
+        <v>563</v>
+      </c>
+      <c r="E158" t="n">
+        <v>563</v>
+      </c>
+      <c r="F158" t="n">
+        <v>753.6742</v>
+      </c>
+      <c r="G158" t="n">
+        <v>52428.35153323001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>545</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>563</v>
+      </c>
+      <c r="C159" t="n">
+        <v>563</v>
+      </c>
+      <c r="D159" t="n">
+        <v>563</v>
+      </c>
+      <c r="E159" t="n">
+        <v>563</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5002.0832</v>
+      </c>
+      <c r="G159" t="n">
+        <v>52428.35153323001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>545</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>563</v>
+      </c>
+      <c r="C160" t="n">
+        <v>563</v>
+      </c>
+      <c r="D160" t="n">
+        <v>563</v>
+      </c>
+      <c r="E160" t="n">
+        <v>563</v>
+      </c>
+      <c r="F160" t="n">
+        <v>101</v>
+      </c>
+      <c r="G160" t="n">
+        <v>52428.35153323001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>545</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>564</v>
+      </c>
+      <c r="C161" t="n">
+        <v>565</v>
+      </c>
+      <c r="D161" t="n">
+        <v>565</v>
+      </c>
+      <c r="E161" t="n">
+        <v>564</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3286.83889168</v>
+      </c>
+      <c r="G161" t="n">
+        <v>55715.19042491001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>545</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>563</v>
+      </c>
+      <c r="C162" t="n">
+        <v>563</v>
+      </c>
+      <c r="D162" t="n">
+        <v>563</v>
+      </c>
+      <c r="E162" t="n">
+        <v>563</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1115.6886</v>
+      </c>
+      <c r="G162" t="n">
+        <v>54599.50182491001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>545</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>565</v>
+      </c>
+      <c r="C163" t="n">
+        <v>565</v>
+      </c>
+      <c r="D163" t="n">
+        <v>565</v>
+      </c>
+      <c r="E163" t="n">
+        <v>565</v>
+      </c>
+      <c r="F163" t="n">
+        <v>180</v>
+      </c>
+      <c r="G163" t="n">
+        <v>54779.50182491001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>545</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1.031697247706422</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>565</v>
+      </c>
+      <c r="C164" t="n">
+        <v>565</v>
+      </c>
+      <c r="D164" t="n">
+        <v>565</v>
+      </c>
+      <c r="E164" t="n">
+        <v>565</v>
+      </c>
+      <c r="F164" t="n">
+        <v>531.0069999999999</v>
+      </c>
+      <c r="G164" t="n">
+        <v>54779.50182491001</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>554</v>
+      </c>
+      <c r="C165" t="n">
+        <v>554</v>
+      </c>
+      <c r="D165" t="n">
+        <v>554</v>
+      </c>
+      <c r="E165" t="n">
+        <v>554</v>
+      </c>
+      <c r="F165" t="n">
+        <v>7137.046</v>
+      </c>
+      <c r="G165" t="n">
+        <v>47642.45582491001</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>557</v>
+      </c>
+      <c r="C166" t="n">
         <v>562</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D166" t="n">
+        <v>562</v>
+      </c>
+      <c r="E166" t="n">
+        <v>557</v>
+      </c>
+      <c r="F166" t="n">
+        <v>102</v>
+      </c>
+      <c r="G166" t="n">
+        <v>47744.45582491001</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>557</v>
+      </c>
+      <c r="C167" t="n">
+        <v>561</v>
+      </c>
+      <c r="D167" t="n">
+        <v>561</v>
+      </c>
+      <c r="E167" t="n">
+        <v>557</v>
+      </c>
+      <c r="F167" t="n">
+        <v>122.88</v>
+      </c>
+      <c r="G167" t="n">
+        <v>47621.57582491001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>561</v>
+      </c>
+      <c r="C168" t="n">
+        <v>561</v>
+      </c>
+      <c r="D168" t="n">
+        <v>561</v>
+      </c>
+      <c r="E168" t="n">
+        <v>561</v>
+      </c>
+      <c r="F168" t="n">
+        <v>50.3155</v>
+      </c>
+      <c r="G168" t="n">
+        <v>47621.57582491001</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>559</v>
+      </c>
+      <c r="C169" t="n">
+        <v>559</v>
+      </c>
+      <c r="D169" t="n">
+        <v>559</v>
+      </c>
+      <c r="E169" t="n">
+        <v>559</v>
+      </c>
+      <c r="F169" t="n">
+        <v>77.5581</v>
+      </c>
+      <c r="G169" t="n">
+        <v>47544.01772491001</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>557</v>
+      </c>
+      <c r="C170" t="n">
+        <v>557</v>
+      </c>
+      <c r="D170" t="n">
+        <v>557</v>
+      </c>
+      <c r="E170" t="n">
+        <v>557</v>
+      </c>
+      <c r="F170" t="n">
+        <v>172.6097</v>
+      </c>
+      <c r="G170" t="n">
+        <v>47371.40802491001</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>556</v>
+      </c>
+      <c r="C171" t="n">
+        <v>556</v>
+      </c>
+      <c r="D171" t="n">
+        <v>556</v>
+      </c>
+      <c r="E171" t="n">
+        <v>556</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2024.3988</v>
+      </c>
+      <c r="G171" t="n">
+        <v>45347.00922491001</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>556</v>
+      </c>
+      <c r="C172" t="n">
+        <v>556</v>
+      </c>
+      <c r="D172" t="n">
+        <v>556</v>
+      </c>
+      <c r="E172" t="n">
+        <v>556</v>
+      </c>
+      <c r="F172" t="n">
+        <v>100</v>
+      </c>
+      <c r="G172" t="n">
+        <v>45347.00922491001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>556</v>
+      </c>
+      <c r="C173" t="n">
+        <v>556</v>
+      </c>
+      <c r="D173" t="n">
+        <v>556</v>
+      </c>
+      <c r="E173" t="n">
+        <v>556</v>
+      </c>
+      <c r="F173" t="n">
+        <v>897.6638</v>
+      </c>
+      <c r="G173" t="n">
+        <v>45347.00922491001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>555</v>
+      </c>
+      <c r="C174" t="n">
+        <v>555</v>
+      </c>
+      <c r="D174" t="n">
+        <v>555</v>
+      </c>
+      <c r="E174" t="n">
+        <v>555</v>
+      </c>
+      <c r="F174" t="n">
+        <v>848.5817</v>
+      </c>
+      <c r="G174" t="n">
+        <v>44498.42752491</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>554</v>
+      </c>
+      <c r="C175" t="n">
+        <v>554</v>
+      </c>
+      <c r="D175" t="n">
+        <v>554</v>
+      </c>
+      <c r="E175" t="n">
+        <v>554</v>
+      </c>
+      <c r="F175" t="n">
+        <v>486.692</v>
+      </c>
+      <c r="G175" t="n">
+        <v>44011.73552491</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>554</v>
+      </c>
+      <c r="C176" t="n">
+        <v>554</v>
+      </c>
+      <c r="D176" t="n">
+        <v>554</v>
+      </c>
+      <c r="E176" t="n">
+        <v>554</v>
+      </c>
+      <c r="F176" t="n">
+        <v>393.2511</v>
+      </c>
+      <c r="G176" t="n">
+        <v>44011.73552491</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>554</v>
+      </c>
+      <c r="C177" t="n">
+        <v>553</v>
+      </c>
+      <c r="D177" t="n">
+        <v>554</v>
+      </c>
+      <c r="E177" t="n">
+        <v>553</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4408.9439</v>
+      </c>
+      <c r="G177" t="n">
+        <v>39602.79162491</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>553</v>
+      </c>
+      <c r="C178" t="n">
+        <v>553</v>
+      </c>
+      <c r="D178" t="n">
+        <v>553</v>
+      </c>
+      <c r="E178" t="n">
+        <v>553</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1097.5079</v>
+      </c>
+      <c r="G178" t="n">
+        <v>39602.79162491</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>553</v>
+      </c>
+      <c r="C179" t="n">
+        <v>552</v>
+      </c>
+      <c r="D179" t="n">
+        <v>553</v>
+      </c>
+      <c r="E179" t="n">
+        <v>552</v>
+      </c>
+      <c r="F179" t="n">
+        <v>500</v>
+      </c>
+      <c r="G179" t="n">
+        <v>39102.79162491</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>553</v>
+      </c>
+      <c r="C180" t="n">
+        <v>553</v>
+      </c>
+      <c r="D180" t="n">
+        <v>553</v>
+      </c>
+      <c r="E180" t="n">
+        <v>553</v>
+      </c>
+      <c r="F180" t="n">
+        <v>10</v>
+      </c>
+      <c r="G180" t="n">
+        <v>39112.79162491</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>554</v>
+      </c>
+      <c r="C181" t="n">
+        <v>554</v>
+      </c>
+      <c r="D181" t="n">
+        <v>554</v>
+      </c>
+      <c r="E181" t="n">
+        <v>554</v>
+      </c>
+      <c r="F181" t="n">
+        <v>108.3032</v>
+      </c>
+      <c r="G181" t="n">
+        <v>39221.09482491</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>554</v>
+      </c>
+      <c r="C182" t="n">
+        <v>554</v>
+      </c>
+      <c r="D182" t="n">
+        <v>554</v>
+      </c>
+      <c r="E182" t="n">
+        <v>554</v>
+      </c>
+      <c r="F182" t="n">
+        <v>8.489100000000001</v>
+      </c>
+      <c r="G182" t="n">
+        <v>39221.09482491</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>554</v>
+      </c>
+      <c r="C183" t="n">
+        <v>554</v>
+      </c>
+      <c r="D183" t="n">
+        <v>554</v>
+      </c>
+      <c r="E183" t="n">
+        <v>554</v>
+      </c>
+      <c r="F183" t="n">
+        <v>441.3664</v>
+      </c>
+      <c r="G183" t="n">
+        <v>39221.09482491</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>554</v>
+      </c>
+      <c r="C184" t="n">
+        <v>554</v>
+      </c>
+      <c r="D184" t="n">
+        <v>554</v>
+      </c>
+      <c r="E184" t="n">
+        <v>554</v>
+      </c>
+      <c r="F184" t="n">
+        <v>427.0754</v>
+      </c>
+      <c r="G184" t="n">
+        <v>39221.09482491</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>554</v>
+      </c>
+      <c r="C185" t="n">
+        <v>554</v>
+      </c>
+      <c r="D185" t="n">
+        <v>554</v>
+      </c>
+      <c r="E185" t="n">
+        <v>554</v>
+      </c>
+      <c r="F185" t="n">
+        <v>18.7648</v>
+      </c>
+      <c r="G185" t="n">
+        <v>39221.09482491</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>557</v>
+      </c>
+      <c r="C186" t="n">
+        <v>557</v>
+      </c>
+      <c r="D186" t="n">
+        <v>557</v>
+      </c>
+      <c r="E186" t="n">
+        <v>557</v>
+      </c>
+      <c r="F186" t="n">
+        <v>946.0001</v>
+      </c>
+      <c r="G186" t="n">
+        <v>40167.09492491</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>557</v>
+      </c>
+      <c r="C187" t="n">
+        <v>557</v>
+      </c>
+      <c r="D187" t="n">
+        <v>557</v>
+      </c>
+      <c r="E187" t="n">
+        <v>557</v>
+      </c>
+      <c r="F187" t="n">
+        <v>315.621</v>
+      </c>
+      <c r="G187" t="n">
+        <v>40167.09492491</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>557</v>
+      </c>
+      <c r="C188" t="n">
+        <v>557</v>
+      </c>
+      <c r="D188" t="n">
+        <v>557</v>
+      </c>
+      <c r="E188" t="n">
+        <v>557</v>
+      </c>
+      <c r="F188" t="n">
+        <v>100</v>
+      </c>
+      <c r="G188" t="n">
+        <v>40167.09492491</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>556</v>
+      </c>
+      <c r="C189" t="n">
+        <v>556</v>
+      </c>
+      <c r="D189" t="n">
+        <v>556</v>
+      </c>
+      <c r="E189" t="n">
+        <v>556</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1160.1483</v>
+      </c>
+      <c r="G189" t="n">
+        <v>39006.94662491</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>558</v>
+      </c>
+      <c r="C190" t="n">
+        <v>558</v>
+      </c>
+      <c r="D190" t="n">
+        <v>558</v>
+      </c>
+      <c r="E190" t="n">
+        <v>558</v>
+      </c>
+      <c r="F190" t="n">
+        <v>226.4484</v>
+      </c>
+      <c r="G190" t="n">
+        <v>39233.39502491</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>559</v>
+      </c>
+      <c r="C191" t="n">
+        <v>559</v>
+      </c>
+      <c r="D191" t="n">
+        <v>559</v>
+      </c>
+      <c r="E191" t="n">
+        <v>559</v>
+      </c>
+      <c r="F191" t="n">
+        <v>125.0411</v>
+      </c>
+      <c r="G191" t="n">
+        <v>39358.43612491</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>559</v>
+      </c>
+      <c r="C192" t="n">
+        <v>559</v>
+      </c>
+      <c r="D192" t="n">
+        <v>559</v>
+      </c>
+      <c r="E192" t="n">
+        <v>559</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2352.912</v>
+      </c>
+      <c r="G192" t="n">
+        <v>39358.43612491</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>559</v>
+      </c>
+      <c r="C193" t="n">
+        <v>556</v>
+      </c>
+      <c r="D193" t="n">
+        <v>559</v>
+      </c>
+      <c r="E193" t="n">
+        <v>556</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2983.2829</v>
+      </c>
+      <c r="G193" t="n">
+        <v>36375.15322491001</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>556</v>
+      </c>
+      <c r="C194" t="n">
+        <v>556</v>
+      </c>
+      <c r="D194" t="n">
+        <v>556</v>
+      </c>
+      <c r="E194" t="n">
+        <v>556</v>
+      </c>
+      <c r="F194" t="n">
+        <v>774.811</v>
+      </c>
+      <c r="G194" t="n">
+        <v>36375.15322491001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>558</v>
+      </c>
+      <c r="C195" t="n">
+        <v>558</v>
+      </c>
+      <c r="D195" t="n">
+        <v>558</v>
+      </c>
+      <c r="E195" t="n">
+        <v>558</v>
+      </c>
+      <c r="F195" t="n">
+        <v>194.2</v>
+      </c>
+      <c r="G195" t="n">
+        <v>36569.35322491</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>558</v>
+      </c>
+      <c r="C196" t="n">
+        <v>558</v>
+      </c>
+      <c r="D196" t="n">
+        <v>558</v>
+      </c>
+      <c r="E196" t="n">
+        <v>558</v>
+      </c>
+      <c r="F196" t="n">
+        <v>157.2892</v>
+      </c>
+      <c r="G196" t="n">
+        <v>36569.35322491</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>560</v>
+      </c>
+      <c r="C197" t="n">
+        <v>560</v>
+      </c>
+      <c r="D197" t="n">
+        <v>560</v>
+      </c>
+      <c r="E197" t="n">
+        <v>559</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2025.3962</v>
+      </c>
+      <c r="G197" t="n">
+        <v>38594.74942491001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>560</v>
+      </c>
+      <c r="C198" t="n">
+        <v>561</v>
+      </c>
+      <c r="D198" t="n">
+        <v>561</v>
+      </c>
+      <c r="E198" t="n">
+        <v>560</v>
+      </c>
+      <c r="F198" t="n">
+        <v>5438.7063</v>
+      </c>
+      <c r="G198" t="n">
+        <v>44033.45572491</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>561</v>
+      </c>
+      <c r="C199" t="n">
+        <v>561</v>
+      </c>
+      <c r="D199" t="n">
+        <v>562</v>
+      </c>
+      <c r="E199" t="n">
+        <v>561</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1338.5788</v>
+      </c>
+      <c r="G199" t="n">
+        <v>44033.45572491</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>562</v>
+      </c>
+      <c r="C200" t="n">
+        <v>562</v>
+      </c>
+      <c r="D200" t="n">
+        <v>562</v>
+      </c>
+      <c r="E200" t="n">
+        <v>562</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1433.9309</v>
+      </c>
+      <c r="G200" t="n">
+        <v>45467.38662491</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>562</v>
+      </c>
+      <c r="C201" t="n">
+        <v>562</v>
+      </c>
+      <c r="D201" t="n">
+        <v>562</v>
+      </c>
+      <c r="E201" t="n">
+        <v>562</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1058</v>
+      </c>
+      <c r="G201" t="n">
+        <v>45467.38662491</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>562</v>
+      </c>
+      <c r="C202" t="n">
+        <v>562</v>
+      </c>
+      <c r="D202" t="n">
+        <v>562</v>
+      </c>
+      <c r="E202" t="n">
+        <v>562</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1049.5423</v>
+      </c>
+      <c r="G202" t="n">
+        <v>45467.38662491</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>562</v>
+      </c>
+      <c r="C203" t="n">
+        <v>562</v>
+      </c>
+      <c r="D203" t="n">
+        <v>562</v>
+      </c>
+      <c r="E203" t="n">
+        <v>562</v>
+      </c>
+      <c r="F203" t="n">
+        <v>802</v>
+      </c>
+      <c r="G203" t="n">
+        <v>45467.38662491</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>562</v>
+      </c>
+      <c r="C204" t="n">
+        <v>562</v>
+      </c>
+      <c r="D204" t="n">
+        <v>562</v>
+      </c>
+      <c r="E204" t="n">
+        <v>562</v>
+      </c>
+      <c r="F204" t="n">
+        <v>18.5371</v>
+      </c>
+      <c r="G204" t="n">
+        <v>45467.38662491</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>562</v>
+      </c>
+      <c r="C205" t="n">
+        <v>562</v>
+      </c>
+      <c r="D205" t="n">
+        <v>562</v>
+      </c>
+      <c r="E205" t="n">
+        <v>562</v>
+      </c>
+      <c r="F205" t="n">
+        <v>270.913</v>
+      </c>
+      <c r="G205" t="n">
+        <v>45467.38662491</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>562</v>
+      </c>
+      <c r="C206" t="n">
+        <v>562</v>
+      </c>
+      <c r="D206" t="n">
+        <v>562</v>
+      </c>
+      <c r="E206" t="n">
+        <v>562</v>
+      </c>
+      <c r="F206" t="n">
+        <v>858.3674</v>
+      </c>
+      <c r="G206" t="n">
+        <v>45467.38662491</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>562</v>
+      </c>
+      <c r="C207" t="n">
+        <v>562</v>
+      </c>
+      <c r="D207" t="n">
+        <v>562</v>
+      </c>
+      <c r="E207" t="n">
+        <v>562</v>
+      </c>
+      <c r="F207" t="n">
+        <v>430.7143</v>
+      </c>
+      <c r="G207" t="n">
+        <v>45467.38662491</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>562</v>
+      </c>
+      <c r="C208" t="n">
+        <v>562</v>
+      </c>
+      <c r="D208" t="n">
+        <v>562</v>
+      </c>
+      <c r="E208" t="n">
+        <v>562</v>
+      </c>
+      <c r="F208" t="n">
+        <v>112.3717</v>
+      </c>
+      <c r="G208" t="n">
+        <v>45467.38662491</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>562</v>
+      </c>
+      <c r="C209" t="n">
+        <v>562</v>
+      </c>
+      <c r="D209" t="n">
+        <v>562</v>
+      </c>
+      <c r="E209" t="n">
+        <v>562</v>
+      </c>
+      <c r="F209" t="n">
+        <v>443.9419</v>
+      </c>
+      <c r="G209" t="n">
+        <v>45467.38662491</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>562</v>
+      </c>
+      <c r="C210" t="n">
+        <v>562</v>
+      </c>
+      <c r="D210" t="n">
+        <v>562</v>
+      </c>
+      <c r="E210" t="n">
+        <v>562</v>
+      </c>
+      <c r="F210" t="n">
+        <v>673</v>
+      </c>
+      <c r="G210" t="n">
+        <v>45467.38662491</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>562</v>
+      </c>
+      <c r="C211" t="n">
+        <v>565</v>
+      </c>
+      <c r="D211" t="n">
+        <v>565</v>
+      </c>
+      <c r="E211" t="n">
+        <v>562</v>
+      </c>
+      <c r="F211" t="n">
+        <v>24.4035</v>
+      </c>
+      <c r="G211" t="n">
+        <v>45491.79012491</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>562</v>
+      </c>
+      <c r="C212" t="n">
+        <v>562</v>
+      </c>
+      <c r="D212" t="n">
+        <v>562</v>
+      </c>
+      <c r="E212" t="n">
+        <v>562</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2701.3324</v>
+      </c>
+      <c r="G212" t="n">
+        <v>42790.45772491</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>562</v>
+      </c>
+      <c r="C213" t="n">
         <v>563</v>
       </c>
-      <c r="E143" t="n">
+      <c r="D213" t="n">
+        <v>563</v>
+      </c>
+      <c r="E213" t="n">
         <v>562</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F213" t="n">
+        <v>447</v>
+      </c>
+      <c r="G213" t="n">
+        <v>43237.45772491</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>563</v>
+      </c>
+      <c r="C214" t="n">
+        <v>562</v>
+      </c>
+      <c r="D214" t="n">
+        <v>563</v>
+      </c>
+      <c r="E214" t="n">
+        <v>562</v>
+      </c>
+      <c r="F214" t="n">
         <v>1584.001</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G214" t="n">
         <v>41653.45672491001</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-21 BackTest BCD.xlsx
+++ b/BackTest/2019-10-21 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N214"/>
+  <dimension ref="A1:M214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>4429.30100266</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>9838.239214249999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="J3" t="n">
         <v>543</v>
       </c>
-      <c r="K3" t="n">
-        <v>543</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,22 +523,19 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>543</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>543</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,26 +560,21 @@
         <v>9045.750114249999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>546</v>
-      </c>
-      <c r="K5" t="n">
-        <v>543</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,22 +599,15 @@
         <v>8873.250114249999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>545</v>
-      </c>
-      <c r="K6" t="n">
-        <v>545</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -658,26 +632,15 @@
         <v>8515.859014249998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>544</v>
-      </c>
-      <c r="K7" t="n">
-        <v>545</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,22 +667,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>545</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -746,22 +700,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>545</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,22 +733,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>545</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -830,22 +766,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>545</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -872,22 +799,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>545</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -914,22 +832,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>545</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -956,22 +865,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>545</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -998,22 +898,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>545</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1040,22 +931,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>545</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1082,22 +964,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>545</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1124,22 +997,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>545</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1166,22 +1030,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>545</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1208,22 +1063,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>545</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1250,22 +1096,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>545</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1292,22 +1129,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>545</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1334,22 +1162,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>545</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1374,26 +1193,15 @@
         <v>6494.013499199998</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>543</v>
-      </c>
-      <c r="K24" t="n">
-        <v>545</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1420,22 +1228,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>545</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1462,22 +1261,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>545</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1504,22 +1294,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>545</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1544,26 +1325,15 @@
         <v>7304.401814249998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>545</v>
-      </c>
-      <c r="K28" t="n">
-        <v>545</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1588,26 +1358,15 @@
         <v>7298.633714249998</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>545</v>
-      </c>
-      <c r="K29" t="n">
-        <v>545</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1632,26 +1391,15 @@
         <v>9239.787514249998</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>544</v>
-      </c>
-      <c r="K30" t="n">
-        <v>545</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1678,22 +1426,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>545</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1720,22 +1459,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>545</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1762,22 +1492,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>545</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1804,22 +1525,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>545</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1846,22 +1558,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>545</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1888,22 +1591,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>545</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1930,22 +1624,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>545</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1972,22 +1657,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>545</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2014,22 +1690,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>545</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2056,22 +1723,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>545</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2098,22 +1756,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>545</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2140,22 +1789,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>545</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2182,22 +1822,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>545</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2224,22 +1855,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>545</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2266,22 +1888,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>545</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2308,22 +1921,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>545</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2350,22 +1954,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>545</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2392,22 +1987,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>545</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2432,24 +2018,19 @@
         <v>14765.91751425</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>545</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>544</v>
+      </c>
+      <c r="J49" t="n">
+        <v>544</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2474,24 +2055,23 @@
         <v>14765.91751425</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>545</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="J50" t="n">
+        <v>544</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2516,24 +2096,23 @@
         <v>14765.91751425</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>545</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="J51" t="n">
+        <v>544</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2558,26 +2137,19 @@
         <v>14765.91751425</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="J52" t="n">
         <v>542</v>
       </c>
-      <c r="K52" t="n">
-        <v>545</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2602,26 +2174,23 @@
         <v>15724.07041425</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="J53" t="n">
         <v>542</v>
       </c>
-      <c r="K53" t="n">
-        <v>545</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2646,26 +2215,23 @@
         <v>7740.86221425</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="J54" t="n">
-        <v>544</v>
-      </c>
-      <c r="K54" t="n">
-        <v>545</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2692,22 +2258,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>545</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>542</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2734,22 +2297,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>545</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>542</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2774,26 +2334,21 @@
         <v>4518.965414249999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>543</v>
-      </c>
-      <c r="K57" t="n">
-        <v>545</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2818,26 +2373,21 @@
         <v>5867.401914249999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>543</v>
-      </c>
-      <c r="K58" t="n">
-        <v>545</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2862,26 +2412,21 @@
         <v>6437.401914249999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>544</v>
-      </c>
-      <c r="K59" t="n">
-        <v>545</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2906,26 +2451,21 @@
         <v>9497.80191425</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>546</v>
-      </c>
-      <c r="K60" t="n">
-        <v>545</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2950,26 +2490,21 @@
         <v>11597.08511425</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>549</v>
-      </c>
-      <c r="K61" t="n">
-        <v>545</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2996,22 +2531,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>545</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>542</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3038,22 +2570,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>545</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>542</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3080,22 +2609,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>545</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>542</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3122,22 +2648,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>545</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>542</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3164,22 +2687,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>545</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>542</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3204,24 +2724,23 @@
         <v>11423.41361425</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>545</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>550</v>
+      </c>
+      <c r="J67" t="n">
+        <v>542</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3246,26 +2765,23 @@
         <v>11427.45361425</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="J68" t="n">
-        <v>546</v>
-      </c>
-      <c r="K68" t="n">
-        <v>545</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3292,22 +2808,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>545</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>542</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3332,26 +2845,23 @@
         <v>11446.97751425</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="J70" t="n">
-        <v>546</v>
-      </c>
-      <c r="K70" t="n">
-        <v>545</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3376,26 +2886,23 @@
         <v>11446.97751425</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="J71" t="n">
-        <v>548</v>
-      </c>
-      <c r="K71" t="n">
-        <v>545</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3420,26 +2927,23 @@
         <v>9156.688314250001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="J72" t="n">
-        <v>548</v>
-      </c>
-      <c r="K72" t="n">
-        <v>545</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3464,26 +2968,21 @@
         <v>11440.01941425</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>545</v>
-      </c>
-      <c r="K73" t="n">
-        <v>545</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3508,26 +3007,21 @@
         <v>9965.061814250001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>549</v>
-      </c>
-      <c r="K74" t="n">
-        <v>545</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3552,26 +3046,21 @@
         <v>9965.256309670001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>545</v>
-      </c>
-      <c r="K75" t="n">
-        <v>545</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3596,26 +3085,21 @@
         <v>9965.256309670001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>546</v>
-      </c>
-      <c r="K76" t="n">
-        <v>545</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3642,22 +3126,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>545</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>542</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3684,22 +3165,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>545</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>542</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3726,22 +3204,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>545</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>542</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3768,22 +3243,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>545</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>542</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3810,22 +3282,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>545</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>542</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3852,22 +3321,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>545</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>542</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3894,22 +3360,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>545</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>542</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3936,22 +3399,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>545</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>542</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3978,22 +3438,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>545</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>542</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4020,22 +3477,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>545</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>542</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4062,22 +3516,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>545</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>542</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4104,22 +3555,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>545</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>542</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4146,22 +3594,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>545</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>542</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4188,22 +3633,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>545</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>542</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4230,22 +3672,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>545</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>542</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4272,22 +3711,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>545</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>542</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4312,26 +3748,21 @@
         <v>8846.55480967</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>545</v>
-      </c>
-      <c r="K93" t="n">
-        <v>545</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4356,26 +3787,21 @@
         <v>9563.415309670001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>544</v>
-      </c>
-      <c r="K94" t="n">
-        <v>545</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4400,26 +3826,21 @@
         <v>9563.415309670001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>545</v>
-      </c>
-      <c r="K95" t="n">
-        <v>545</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4444,26 +3865,21 @@
         <v>9563.415309670001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>545</v>
-      </c>
-      <c r="K96" t="n">
-        <v>545</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4488,26 +3904,21 @@
         <v>9384.245209670002</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>545</v>
-      </c>
-      <c r="K97" t="n">
-        <v>545</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4532,26 +3943,21 @@
         <v>12514.70730967</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>541</v>
-      </c>
-      <c r="K98" t="n">
-        <v>545</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4576,26 +3982,23 @@
         <v>13071.85940967</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="J99" t="n">
-        <v>543</v>
-      </c>
-      <c r="K99" t="n">
-        <v>545</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4620,26 +4023,23 @@
         <v>12310.70910967</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="J100" t="n">
-        <v>544</v>
-      </c>
-      <c r="K100" t="n">
-        <v>545</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4664,26 +4064,23 @@
         <v>11041.05830967</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="J101" t="n">
-        <v>543</v>
-      </c>
-      <c r="K101" t="n">
-        <v>545</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4708,26 +4105,21 @@
         <v>9759.812809670002</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>542</v>
       </c>
-      <c r="K102" t="n">
-        <v>545</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4752,26 +4144,21 @@
         <v>9759.812809670002</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>541</v>
-      </c>
-      <c r="K103" t="n">
-        <v>545</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4796,26 +4183,21 @@
         <v>10577.05790967</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>541</v>
-      </c>
-      <c r="K104" t="n">
-        <v>545</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4842,22 +4224,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>545</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>542</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4884,22 +4263,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>545</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>542</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4926,22 +4302,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>545</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>542</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4968,22 +4341,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>545</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>542</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5008,26 +4378,21 @@
         <v>10128.38040967</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>541</v>
-      </c>
-      <c r="K109" t="n">
-        <v>545</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5052,26 +4417,21 @@
         <v>10128.38040967</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>543</v>
-      </c>
-      <c r="K110" t="n">
-        <v>545</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5096,26 +4456,21 @@
         <v>18029.15300967</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>543</v>
-      </c>
-      <c r="K111" t="n">
-        <v>545</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5142,22 +4497,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>545</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>542</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5184,22 +4536,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>545</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>542</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5226,22 +4575,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>545</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>542</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5268,22 +4614,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>545</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>542</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5310,22 +4653,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>545</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>542</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5352,22 +4692,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>545</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>542</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5394,22 +4731,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>545</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>542</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5434,24 +4768,23 @@
         <v>15783.47990967</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>545</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>543</v>
+      </c>
+      <c r="J119" t="n">
+        <v>542</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5476,24 +4809,23 @@
         <v>15783.47990967</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>545</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="J120" t="n">
+        <v>542</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5520,22 +4852,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>545</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>542</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5560,24 +4889,23 @@
         <v>13032.73590967</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>545</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>541</v>
+      </c>
+      <c r="J122" t="n">
+        <v>542</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5602,24 +4930,23 @@
         <v>10882.16120967</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>545</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>541</v>
+      </c>
+      <c r="J123" t="n">
+        <v>542</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5644,24 +4971,23 @@
         <v>10882.16120967</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>545</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>540</v>
+      </c>
+      <c r="J124" t="n">
+        <v>542</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5686,24 +5012,23 @@
         <v>10882.16120967</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>545</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>540</v>
+      </c>
+      <c r="J125" t="n">
+        <v>542</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5728,24 +5053,23 @@
         <v>10882.16120967</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>545</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>540</v>
+      </c>
+      <c r="J126" t="n">
+        <v>542</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5770,26 +5094,23 @@
         <v>10882.16120967</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J127" t="n">
-        <v>540</v>
-      </c>
-      <c r="K127" t="n">
-        <v>545</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5814,26 +5135,23 @@
         <v>10162.16120967</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J128" t="n">
-        <v>540</v>
-      </c>
-      <c r="K128" t="n">
-        <v>545</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5858,26 +5176,23 @@
         <v>10197.99500967</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="J129" t="n">
-        <v>538</v>
-      </c>
-      <c r="K129" t="n">
-        <v>545</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5902,26 +5217,23 @@
         <v>10201.45220967</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="J130" t="n">
         <v>542</v>
       </c>
-      <c r="K130" t="n">
-        <v>545</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5946,26 +5258,23 @@
         <v>10201.45220967</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="J131" t="n">
-        <v>545</v>
-      </c>
-      <c r="K131" t="n">
-        <v>545</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5990,26 +5299,21 @@
         <v>12932.86080967</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>545</v>
-      </c>
-      <c r="K132" t="n">
-        <v>545</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6034,26 +5338,21 @@
         <v>16018.88740967</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>546</v>
-      </c>
-      <c r="K133" t="n">
-        <v>545</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6078,26 +5377,21 @@
         <v>18011.16490967</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>548</v>
-      </c>
-      <c r="K134" t="n">
-        <v>545</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6124,22 +5418,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>545</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>542</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6166,22 +5457,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>545</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>542</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6208,22 +5496,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>545</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>542</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6250,22 +5535,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>545</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>542</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6292,22 +5574,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>545</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>542</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6334,22 +5613,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>545</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>542</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6376,22 +5652,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>545</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>542</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6418,22 +5691,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>545</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>542</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6460,22 +5730,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>545</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>542</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6502,22 +5769,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>545</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>542</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6544,22 +5808,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>545</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>542</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6586,22 +5847,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>545</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>542</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6628,22 +5886,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>545</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>542</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6670,22 +5925,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>545</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>542</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6712,22 +5964,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>545</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>542</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6754,22 +6003,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>545</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>542</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6796,22 +6042,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>545</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>542</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6838,22 +6081,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>545</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>542</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6880,22 +6120,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>545</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>542</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6922,22 +6159,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>545</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>542</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6964,22 +6198,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>545</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>542</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -7006,22 +6237,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>545</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>542</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -7048,22 +6276,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>545</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>542</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7088,24 +6313,21 @@
         <v>52428.35153323001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>545</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>542</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7132,22 +6354,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>545</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>542</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7174,22 +6393,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>545</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>542</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7216,22 +6432,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>545</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>542</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7258,22 +6471,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>545</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>542</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7300,22 +6510,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>545</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1.031697247706422</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>542</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7342,16 +6549,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>542</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7378,16 +6588,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>542</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7412,18 +6625,21 @@
         <v>47744.45582491001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>542</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7450,16 +6666,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>542</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7486,16 +6705,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>542</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7522,16 +6744,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>542</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7558,16 +6783,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>542</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7594,16 +6822,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>542</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7630,16 +6861,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>542</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7666,16 +6900,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>542</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7700,18 +6937,21 @@
         <v>44498.42752491</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>542</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7736,18 +6976,21 @@
         <v>44011.73552491</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>542</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7772,18 +7015,21 @@
         <v>44011.73552491</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>542</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7810,16 +7056,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>542</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7844,18 +7093,21 @@
         <v>39602.79162491</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>542</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7880,18 +7132,21 @@
         <v>39102.79162491</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>542</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7918,16 +7173,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>542</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7954,16 +7212,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>542</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7990,16 +7251,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>542</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8026,16 +7290,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>542</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8062,16 +7329,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>542</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8098,16 +7368,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>542</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8134,16 +7407,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>542</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8170,16 +7446,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>542</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8206,16 +7485,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>542</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8242,16 +7524,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>542</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8278,16 +7563,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>542</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8314,16 +7602,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>542</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8350,16 +7641,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>542</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8386,16 +7680,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>542</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8422,16 +7719,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>542</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8458,16 +7758,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>542</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8494,16 +7797,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>542</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8530,16 +7836,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>542</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8566,16 +7875,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>542</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8602,16 +7914,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>542</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8638,16 +7953,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>542</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8674,16 +7992,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>542</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8710,16 +8031,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>542</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8746,16 +8070,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>542</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8782,16 +8109,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>542</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8816,18 +8146,21 @@
         <v>45467.38662491</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>542</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1.03190036900369</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8854,16 +8187,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8890,16 +8220,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8926,16 +8253,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8960,18 +8284,15 @@
         <v>45467.38662491</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8996,18 +8317,15 @@
         <v>45467.38662491</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9034,16 +8352,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9068,18 +8383,15 @@
         <v>42790.45772491</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9104,18 +8416,15 @@
         <v>43237.45772491</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9140,20 +8449,17 @@
         <v>41653.45672491001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest BCD.xlsx
+++ b/BackTest/2019-10-21 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4429.30100266</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>9838.239214249999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>543</v>
-      </c>
-      <c r="J3" t="n">
-        <v>543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>543</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>543</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -2018,14 +2002,10 @@
         <v>14765.91751425</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>544</v>
-      </c>
-      <c r="J49" t="n">
-        <v>544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
@@ -2055,19 +2035,11 @@
         <v>14765.91751425</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>542</v>
-      </c>
-      <c r="J50" t="n">
-        <v>544</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2096,19 +2068,11 @@
         <v>14765.91751425</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>542</v>
-      </c>
-      <c r="J51" t="n">
-        <v>544</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2137,14 +2101,10 @@
         <v>14765.91751425</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>542</v>
-      </c>
-      <c r="J52" t="n">
-        <v>542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
@@ -2174,19 +2134,11 @@
         <v>15724.07041425</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>542</v>
-      </c>
-      <c r="J53" t="n">
-        <v>542</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2215,19 +2167,11 @@
         <v>7740.86221425</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>544</v>
-      </c>
-      <c r="J54" t="n">
-        <v>542</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2259,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>542</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2298,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>542</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2337,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>542</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2376,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>542</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2412,17 +2332,15 @@
         <v>6437.401914249999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>544</v>
+      </c>
       <c r="J59" t="n">
-        <v>542</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2451,15 +2369,17 @@
         <v>9497.80191425</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>546</v>
+      </c>
       <c r="J60" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2490,15 +2410,17 @@
         <v>11597.08511425</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>549</v>
+      </c>
       <c r="J61" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2532,14 +2454,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>542</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2568,17 +2484,15 @@
         <v>11236.97711425</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>551</v>
+      </c>
       <c r="J63" t="n">
-        <v>542</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2611,11 +2525,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2650,11 +2564,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2688,14 +2602,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>542</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2724,19 +2632,11 @@
         <v>11423.41361425</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>550</v>
-      </c>
-      <c r="J67" t="n">
-        <v>542</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2765,19 +2665,11 @@
         <v>11427.45361425</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>546</v>
-      </c>
-      <c r="J68" t="n">
-        <v>542</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2809,14 +2701,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>542</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2845,19 +2731,11 @@
         <v>11446.97751425</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>546</v>
-      </c>
-      <c r="J70" t="n">
-        <v>542</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2886,19 +2764,15 @@
         <v>11446.97751425</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>548</v>
       </c>
       <c r="J71" t="n">
-        <v>542</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2927,17 +2801,15 @@
         <v>9156.688314250001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -2972,7 +2844,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3011,7 +2883,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3050,7 +2922,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3085,11 +2957,13 @@
         <v>9965.256309670001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>546</v>
+      </c>
       <c r="J76" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3128,7 +3002,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3167,7 +3041,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3206,7 +3080,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3245,7 +3119,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3284,7 +3158,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3323,7 +3197,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3358,11 +3232,13 @@
         <v>8495.536809670002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>546</v>
+      </c>
       <c r="J83" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3401,7 +3277,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3440,7 +3316,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3479,7 +3355,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3518,7 +3394,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3557,7 +3433,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3596,7 +3472,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3635,7 +3511,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3674,7 +3550,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3713,7 +3589,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3752,7 +3628,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3791,7 +3667,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3830,7 +3706,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3869,7 +3745,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3908,7 +3784,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3947,7 +3823,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3982,13 +3858,11 @@
         <v>13071.85940967</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4023,13 +3897,13 @@
         <v>12310.70910967</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>544</v>
       </c>
       <c r="J100" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4064,13 +3938,13 @@
         <v>11041.05830967</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>543</v>
       </c>
       <c r="J101" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4109,7 +3983,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4148,7 +4022,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4187,7 +4061,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4226,7 +4100,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4265,7 +4139,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4304,7 +4178,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4343,7 +4217,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4378,11 +4252,13 @@
         <v>10128.38040967</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>541</v>
+      </c>
       <c r="J109" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4417,11 +4293,13 @@
         <v>10128.38040967</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>543</v>
+      </c>
       <c r="J110" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4456,11 +4334,13 @@
         <v>18029.15300967</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>543</v>
+      </c>
       <c r="J111" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4499,7 +4379,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4538,7 +4418,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4577,7 +4457,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4616,7 +4496,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4655,7 +4535,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4694,7 +4574,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4733,7 +4613,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4768,13 +4648,11 @@
         <v>15783.47990967</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4809,13 +4687,11 @@
         <v>15783.47990967</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4854,7 +4730,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4889,13 +4765,13 @@
         <v>13032.73590967</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>541</v>
       </c>
       <c r="J122" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4930,13 +4806,13 @@
         <v>10882.16120967</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>541</v>
       </c>
       <c r="J123" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4971,13 +4847,13 @@
         <v>10882.16120967</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>540</v>
       </c>
       <c r="J124" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5012,13 +4888,13 @@
         <v>10882.16120967</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>540</v>
       </c>
       <c r="J125" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5053,13 +4929,13 @@
         <v>10882.16120967</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>540</v>
       </c>
       <c r="J126" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5094,13 +4970,13 @@
         <v>10882.16120967</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>540</v>
       </c>
       <c r="J127" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5135,13 +5011,13 @@
         <v>10162.16120967</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>540</v>
       </c>
       <c r="J128" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5176,13 +5052,13 @@
         <v>10197.99500967</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>538</v>
       </c>
       <c r="J129" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5217,13 +5093,13 @@
         <v>10201.45220967</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>542</v>
       </c>
       <c r="J130" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5258,13 +5134,13 @@
         <v>10201.45220967</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>545</v>
       </c>
       <c r="J131" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5299,11 +5175,13 @@
         <v>12932.86080967</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>545</v>
+      </c>
       <c r="J132" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5342,7 +5220,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5381,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5420,7 +5298,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5459,7 +5337,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5498,7 +5376,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5537,7 +5415,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5576,7 +5454,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5615,7 +5493,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5654,7 +5532,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5693,7 +5571,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5732,7 +5610,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5771,7 +5649,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5810,7 +5688,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5849,7 +5727,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5888,7 +5766,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5927,7 +5805,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5966,7 +5844,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6005,7 +5883,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6044,7 +5922,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6083,7 +5961,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6122,7 +6000,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6161,7 +6039,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6200,7 +6078,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6239,7 +6117,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6278,7 +6156,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6313,11 +6191,11 @@
         <v>52428.35153323001</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6356,7 +6234,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6395,7 +6273,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6434,7 +6312,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6473,7 +6351,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6512,7 +6390,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6551,7 +6429,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6590,7 +6468,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6625,11 +6503,11 @@
         <v>47744.45582491001</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6668,7 +6546,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6707,7 +6585,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6746,7 +6624,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6785,7 +6663,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6820,19 +6698,19 @@
         <v>45347.00922491001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L171" t="n">
-        <v>1</v>
+        <v>1.009598540145985</v>
       </c>
       <c r="M171" t="inlineStr"/>
     </row>
@@ -6859,17 +6737,11 @@
         <v>45347.00922491001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>542</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6898,17 +6770,11 @@
         <v>45347.00922491001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>542</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6937,17 +6803,11 @@
         <v>44498.42752491</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>542</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6976,17 +6836,11 @@
         <v>44011.73552491</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>542</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7015,17 +6869,11 @@
         <v>44011.73552491</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>542</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7054,17 +6902,11 @@
         <v>39602.79162491</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>542</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7093,17 +6935,11 @@
         <v>39602.79162491</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>542</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7132,17 +6968,11 @@
         <v>39102.79162491</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>542</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7171,17 +7001,11 @@
         <v>39112.79162491</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>542</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7210,17 +7034,11 @@
         <v>39221.09482491</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>542</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7249,17 +7067,11 @@
         <v>39221.09482491</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>542</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7288,17 +7100,11 @@
         <v>39221.09482491</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>542</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7327,17 +7133,11 @@
         <v>39221.09482491</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>542</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7366,17 +7166,11 @@
         <v>39221.09482491</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>542</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7405,17 +7199,11 @@
         <v>40167.09492491</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>542</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7444,17 +7232,11 @@
         <v>40167.09492491</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>542</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7483,17 +7265,11 @@
         <v>40167.09492491</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>542</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7522,17 +7298,11 @@
         <v>39006.94662491</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>542</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7564,14 +7334,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>542</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7603,14 +7367,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>542</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7642,14 +7400,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>542</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7681,14 +7433,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>542</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7720,14 +7466,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>542</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7759,14 +7499,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>542</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7798,14 +7532,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>542</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7837,14 +7565,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>542</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7876,14 +7598,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>542</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7915,14 +7631,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>542</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7954,14 +7664,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>542</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7993,14 +7697,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>542</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8032,14 +7730,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>542</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8068,17 +7760,11 @@
         <v>45467.38662491</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>542</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8107,17 +7793,11 @@
         <v>45467.38662491</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>542</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8146,19 +7826,13 @@
         <v>45467.38662491</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>542</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
-        <v>1.03190036900369</v>
+        <v>1</v>
       </c>
       <c r="M205" t="inlineStr"/>
     </row>
@@ -8185,7 +7859,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8218,7 +7892,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8251,7 +7925,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8284,7 +7958,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8317,7 +7991,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8350,7 +8024,7 @@
         <v>45491.79012491</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8383,7 +8057,7 @@
         <v>42790.45772491</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8416,7 +8090,7 @@
         <v>43237.45772491</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8449,7 +8123,7 @@
         <v>41653.45672491001</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8460,6 +8134,6 @@
       <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest BCD.xlsx
+++ b/BackTest/2019-10-21 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2332,14 +2332,10 @@
         <v>6437.401914249999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>544</v>
-      </c>
-      <c r="J59" t="n">
-        <v>544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
@@ -2369,19 +2365,11 @@
         <v>9497.80191425</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>546</v>
-      </c>
-      <c r="J60" t="n">
-        <v>544</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2410,19 +2398,11 @@
         <v>11597.08511425</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>549</v>
-      </c>
-      <c r="J61" t="n">
-        <v>544</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2484,14 +2464,10 @@
         <v>11236.97711425</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>551</v>
-      </c>
-      <c r="J63" t="n">
-        <v>551</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
@@ -2524,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>551</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2563,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>551</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2764,14 +2728,10 @@
         <v>11446.97751425</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>548</v>
-      </c>
-      <c r="J71" t="n">
-        <v>548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
@@ -2804,2226 +2764,1882 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>549</v>
+      </c>
+      <c r="C73" t="n">
+        <v>549</v>
+      </c>
+      <c r="D73" t="n">
+        <v>549</v>
+      </c>
+      <c r="E73" t="n">
+        <v>549</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2283.3311</v>
+      </c>
+      <c r="G73" t="n">
+        <v>11440.01941425</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>549</v>
+      </c>
+      <c r="C74" t="n">
+        <v>545</v>
+      </c>
+      <c r="D74" t="n">
+        <v>549</v>
+      </c>
+      <c r="E74" t="n">
+        <v>545</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1474.9576</v>
+      </c>
+      <c r="G74" t="n">
+        <v>9965.061814250001</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>546</v>
+      </c>
+      <c r="C75" t="n">
+        <v>546</v>
+      </c>
+      <c r="D75" t="n">
+        <v>546</v>
+      </c>
+      <c r="E75" t="n">
+        <v>546</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.19449542</v>
+      </c>
+      <c r="G75" t="n">
+        <v>9965.256309670001</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>549</v>
+      </c>
+      <c r="C76" t="n">
+        <v>546</v>
+      </c>
+      <c r="D76" t="n">
+        <v>551</v>
+      </c>
+      <c r="E76" t="n">
+        <v>546</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4413.1577</v>
+      </c>
+      <c r="G76" t="n">
+        <v>9965.256309670001</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>547</v>
+      </c>
+      <c r="C77" t="n">
+        <v>547</v>
+      </c>
+      <c r="D77" t="n">
+        <v>547</v>
+      </c>
+      <c r="E77" t="n">
+        <v>547</v>
+      </c>
+      <c r="F77" t="n">
+        <v>202.6002</v>
+      </c>
+      <c r="G77" t="n">
+        <v>10167.85650967</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>547</v>
+      </c>
+      <c r="C78" t="n">
+        <v>546</v>
+      </c>
+      <c r="D78" t="n">
+        <v>547</v>
+      </c>
+      <c r="E78" t="n">
+        <v>546</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1672.3197</v>
+      </c>
+      <c r="G78" t="n">
+        <v>8495.536809670002</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>547</v>
+      </c>
+      <c r="C79" t="n">
+        <v>546</v>
+      </c>
+      <c r="D79" t="n">
+        <v>547</v>
+      </c>
+      <c r="E79" t="n">
+        <v>546</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1266.809</v>
+      </c>
+      <c r="G79" t="n">
+        <v>8495.536809670002</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>546</v>
+      </c>
+      <c r="C80" t="n">
+        <v>546</v>
+      </c>
+      <c r="D80" t="n">
+        <v>546</v>
+      </c>
+      <c r="E80" t="n">
+        <v>546</v>
+      </c>
+      <c r="F80" t="n">
+        <v>242.0726</v>
+      </c>
+      <c r="G80" t="n">
+        <v>8495.536809670002</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>546</v>
+      </c>
+      <c r="C81" t="n">
+        <v>546</v>
+      </c>
+      <c r="D81" t="n">
+        <v>546</v>
+      </c>
+      <c r="E81" t="n">
+        <v>546</v>
+      </c>
+      <c r="F81" t="n">
+        <v>298.0286</v>
+      </c>
+      <c r="G81" t="n">
+        <v>8495.536809670002</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>546</v>
+      </c>
+      <c r="C82" t="n">
+        <v>546</v>
+      </c>
+      <c r="D82" t="n">
+        <v>546</v>
+      </c>
+      <c r="E82" t="n">
+        <v>546</v>
+      </c>
+      <c r="F82" t="n">
+        <v>268.9176</v>
+      </c>
+      <c r="G82" t="n">
+        <v>8495.536809670002</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>546</v>
+      </c>
+      <c r="C83" t="n">
+        <v>546</v>
+      </c>
+      <c r="D83" t="n">
+        <v>546</v>
+      </c>
+      <c r="E83" t="n">
+        <v>546</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4.4574</v>
+      </c>
+      <c r="G83" t="n">
+        <v>8495.536809670002</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>546</v>
+      </c>
+      <c r="C84" t="n">
+        <v>546</v>
+      </c>
+      <c r="D84" t="n">
+        <v>546</v>
+      </c>
+      <c r="E84" t="n">
+        <v>546</v>
+      </c>
+      <c r="F84" t="n">
+        <v>6.5426</v>
+      </c>
+      <c r="G84" t="n">
+        <v>8495.536809670002</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>544</v>
+      </c>
+      <c r="C85" t="n">
+        <v>544</v>
+      </c>
+      <c r="D85" t="n">
+        <v>544</v>
+      </c>
+      <c r="E85" t="n">
+        <v>544</v>
+      </c>
+      <c r="F85" t="n">
+        <v>23.5241</v>
+      </c>
+      <c r="G85" t="n">
+        <v>8472.012709670002</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>547</v>
+      </c>
+      <c r="C86" t="n">
         <v>548</v>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="D86" t="n">
+        <v>548</v>
+      </c>
+      <c r="E86" t="n">
+        <v>547</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1121.3363</v>
+      </c>
+      <c r="G86" t="n">
+        <v>9593.349009670001</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>546</v>
+      </c>
+      <c r="C87" t="n">
+        <v>545</v>
+      </c>
+      <c r="D87" t="n">
+        <v>546</v>
+      </c>
+      <c r="E87" t="n">
+        <v>545</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1311.4199</v>
+      </c>
+      <c r="G87" t="n">
+        <v>8281.92910967</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>546</v>
+      </c>
+      <c r="C88" t="n">
+        <v>546</v>
+      </c>
+      <c r="D88" t="n">
+        <v>546</v>
+      </c>
+      <c r="E88" t="n">
+        <v>546</v>
+      </c>
+      <c r="F88" t="n">
+        <v>693.7644</v>
+      </c>
+      <c r="G88" t="n">
+        <v>8975.69350967</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>546</v>
+      </c>
+      <c r="C89" t="n">
+        <v>546</v>
+      </c>
+      <c r="D89" t="n">
+        <v>546</v>
+      </c>
+      <c r="E89" t="n">
+        <v>546</v>
+      </c>
+      <c r="F89" t="n">
+        <v>177.0531</v>
+      </c>
+      <c r="G89" t="n">
+        <v>8975.69350967</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>546</v>
+      </c>
+      <c r="C90" t="n">
+        <v>546</v>
+      </c>
+      <c r="D90" t="n">
+        <v>546</v>
+      </c>
+      <c r="E90" t="n">
+        <v>546</v>
+      </c>
+      <c r="F90" t="n">
+        <v>177.0531</v>
+      </c>
+      <c r="G90" t="n">
+        <v>8975.69350967</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>546</v>
+      </c>
+      <c r="C91" t="n">
+        <v>546</v>
+      </c>
+      <c r="D91" t="n">
+        <v>546</v>
+      </c>
+      <c r="E91" t="n">
+        <v>546</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1035.3105</v>
+      </c>
+      <c r="G91" t="n">
+        <v>8975.69350967</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>545</v>
+      </c>
+      <c r="C92" t="n">
+        <v>545</v>
+      </c>
+      <c r="D92" t="n">
+        <v>545</v>
+      </c>
+      <c r="E92" t="n">
+        <v>545</v>
+      </c>
+      <c r="F92" t="n">
+        <v>5.5045</v>
+      </c>
+      <c r="G92" t="n">
+        <v>8970.189009670001</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>544</v>
+      </c>
+      <c r="C93" t="n">
+        <v>544</v>
+      </c>
+      <c r="D93" t="n">
+        <v>544</v>
+      </c>
+      <c r="E93" t="n">
+        <v>544</v>
+      </c>
+      <c r="F93" t="n">
+        <v>123.6342</v>
+      </c>
+      <c r="G93" t="n">
+        <v>8846.55480967</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>545</v>
+      </c>
+      <c r="C94" t="n">
+        <v>545</v>
+      </c>
+      <c r="D94" t="n">
+        <v>545</v>
+      </c>
+      <c r="E94" t="n">
+        <v>545</v>
+      </c>
+      <c r="F94" t="n">
+        <v>716.8605</v>
+      </c>
+      <c r="G94" t="n">
+        <v>9563.415309670001</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>545</v>
+      </c>
+      <c r="C95" t="n">
+        <v>545</v>
+      </c>
+      <c r="D95" t="n">
+        <v>545</v>
+      </c>
+      <c r="E95" t="n">
+        <v>545</v>
+      </c>
+      <c r="F95" t="n">
+        <v>303.3397</v>
+      </c>
+      <c r="G95" t="n">
+        <v>9563.415309670001</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>545</v>
+      </c>
+      <c r="C96" t="n">
+        <v>545</v>
+      </c>
+      <c r="D96" t="n">
+        <v>545</v>
+      </c>
+      <c r="E96" t="n">
+        <v>545</v>
+      </c>
+      <c r="F96" t="n">
+        <v>83.46259999999999</v>
+      </c>
+      <c r="G96" t="n">
+        <v>9563.415309670001</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>545</v>
+      </c>
+      <c r="C97" t="n">
+        <v>541</v>
+      </c>
+      <c r="D97" t="n">
+        <v>545</v>
+      </c>
+      <c r="E97" t="n">
+        <v>541</v>
+      </c>
+      <c r="F97" t="n">
+        <v>179.1701</v>
+      </c>
+      <c r="G97" t="n">
+        <v>9384.245209670002</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>543</v>
+      </c>
+      <c r="C98" t="n">
+        <v>543</v>
+      </c>
+      <c r="D98" t="n">
+        <v>543</v>
+      </c>
+      <c r="E98" t="n">
+        <v>543</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3130.4621</v>
+      </c>
+      <c r="G98" t="n">
+        <v>12514.70730967</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>543</v>
+      </c>
+      <c r="C99" t="n">
+        <v>544</v>
+      </c>
+      <c r="D99" t="n">
+        <v>544</v>
+      </c>
+      <c r="E99" t="n">
+        <v>543</v>
+      </c>
+      <c r="F99" t="n">
+        <v>557.1521</v>
+      </c>
+      <c r="G99" t="n">
+        <v>13071.85940967</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>543</v>
+      </c>
+      <c r="C100" t="n">
+        <v>543</v>
+      </c>
+      <c r="D100" t="n">
+        <v>543</v>
+      </c>
+      <c r="E100" t="n">
+        <v>543</v>
+      </c>
+      <c r="F100" t="n">
+        <v>761.1503</v>
+      </c>
+      <c r="G100" t="n">
+        <v>12310.70910967</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>542</v>
+      </c>
+      <c r="C101" t="n">
+        <v>542</v>
+      </c>
+      <c r="D101" t="n">
+        <v>542</v>
+      </c>
+      <c r="E101" t="n">
+        <v>542</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1269.6508</v>
+      </c>
+      <c r="G101" t="n">
+        <v>11041.05830967</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>541</v>
+      </c>
+      <c r="C102" t="n">
+        <v>541</v>
+      </c>
+      <c r="D102" t="n">
+        <v>541</v>
+      </c>
+      <c r="E102" t="n">
+        <v>541</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1281.2455</v>
+      </c>
+      <c r="G102" t="n">
+        <v>9759.812809670002</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>541</v>
+      </c>
+      <c r="C103" t="n">
+        <v>541</v>
+      </c>
+      <c r="D103" t="n">
+        <v>541</v>
+      </c>
+      <c r="E103" t="n">
+        <v>541</v>
+      </c>
+      <c r="F103" t="n">
+        <v>259.5257</v>
+      </c>
+      <c r="G103" t="n">
+        <v>9759.812809670002</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>544</v>
+      </c>
+      <c r="C104" t="n">
+        <v>544</v>
+      </c>
+      <c r="D104" t="n">
+        <v>544</v>
+      </c>
+      <c r="E104" t="n">
+        <v>544</v>
+      </c>
+      <c r="F104" t="n">
+        <v>817.2451</v>
+      </c>
+      <c r="G104" t="n">
+        <v>10577.05790967</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>543</v>
+      </c>
+      <c r="C105" t="n">
+        <v>544</v>
+      </c>
+      <c r="D105" t="n">
+        <v>544</v>
+      </c>
+      <c r="E105" t="n">
+        <v>543</v>
+      </c>
+      <c r="F105" t="n">
+        <v>180</v>
+      </c>
+      <c r="G105" t="n">
+        <v>10577.05790967</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>544</v>
+      </c>
+      <c r="C106" t="n">
+        <v>544</v>
+      </c>
+      <c r="D106" t="n">
+        <v>544</v>
+      </c>
+      <c r="E106" t="n">
+        <v>544</v>
+      </c>
+      <c r="F106" t="n">
+        <v>531.4108</v>
+      </c>
+      <c r="G106" t="n">
+        <v>10577.05790967</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>542</v>
+      </c>
+      <c r="C107" t="n">
+        <v>542</v>
+      </c>
+      <c r="D107" t="n">
+        <v>542</v>
+      </c>
+      <c r="E107" t="n">
+        <v>542</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1036.0144</v>
+      </c>
+      <c r="G107" t="n">
+        <v>9541.043509670002</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>542</v>
+      </c>
+      <c r="C108" t="n">
+        <v>541</v>
+      </c>
+      <c r="D108" t="n">
+        <v>542</v>
+      </c>
+      <c r="E108" t="n">
+        <v>541</v>
+      </c>
+      <c r="F108" t="n">
+        <v>226.9073</v>
+      </c>
+      <c r="G108" t="n">
+        <v>9314.136209670001</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>543</v>
+      </c>
+      <c r="C109" t="n">
+        <v>543</v>
+      </c>
+      <c r="D109" t="n">
+        <v>543</v>
+      </c>
+      <c r="E109" t="n">
+        <v>543</v>
+      </c>
+      <c r="F109" t="n">
+        <v>814.2442</v>
+      </c>
+      <c r="G109" t="n">
+        <v>10128.38040967</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>541</v>
+      </c>
+      <c r="J109" t="n">
+        <v>541</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>543</v>
+      </c>
+      <c r="C110" t="n">
+        <v>543</v>
+      </c>
+      <c r="D110" t="n">
+        <v>543</v>
+      </c>
+      <c r="E110" t="n">
+        <v>543</v>
+      </c>
+      <c r="F110" t="n">
+        <v>378.1134</v>
+      </c>
+      <c r="G110" t="n">
+        <v>10128.38040967</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>543</v>
+      </c>
+      <c r="J110" t="n">
+        <v>541</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>543</v>
+      </c>
+      <c r="C111" t="n">
+        <v>551</v>
+      </c>
+      <c r="D111" t="n">
+        <v>551</v>
+      </c>
+      <c r="E111" t="n">
+        <v>543</v>
+      </c>
+      <c r="F111" t="n">
+        <v>7900.7726</v>
+      </c>
+      <c r="G111" t="n">
+        <v>18029.15300967</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>543</v>
+      </c>
+      <c r="J111" t="n">
+        <v>541</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>544</v>
+      </c>
+      <c r="C112" t="n">
+        <v>544</v>
+      </c>
+      <c r="D112" t="n">
+        <v>544</v>
+      </c>
+      <c r="E112" t="n">
+        <v>544</v>
+      </c>
+      <c r="F112" t="n">
+        <v>34.3658</v>
+      </c>
+      <c r="G112" t="n">
+        <v>17994.78720967</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>544</v>
+      </c>
+      <c r="C113" t="n">
+        <v>544</v>
+      </c>
+      <c r="D113" t="n">
+        <v>544</v>
+      </c>
+      <c r="E113" t="n">
+        <v>544</v>
+      </c>
+      <c r="F113" t="n">
+        <v>76.3342</v>
+      </c>
+      <c r="G113" t="n">
+        <v>17994.78720967</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>544</v>
+      </c>
+      <c r="C114" t="n">
+        <v>544</v>
+      </c>
+      <c r="D114" t="n">
+        <v>544</v>
+      </c>
+      <c r="E114" t="n">
+        <v>544</v>
+      </c>
+      <c r="F114" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="G114" t="n">
+        <v>17994.78720967</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>544</v>
+      </c>
+      <c r="C115" t="n">
+        <v>541</v>
+      </c>
+      <c r="D115" t="n">
+        <v>544</v>
+      </c>
+      <c r="E115" t="n">
+        <v>541</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1731.6089</v>
+      </c>
+      <c r="G115" t="n">
+        <v>16263.17830967</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>547</v>
+      </c>
+      <c r="C116" t="n">
+        <v>547</v>
+      </c>
+      <c r="D116" t="n">
+        <v>547</v>
+      </c>
+      <c r="E116" t="n">
+        <v>547</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>16264.17830967</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>547</v>
+      </c>
+      <c r="C117" t="n">
+        <v>548</v>
+      </c>
+      <c r="D117" t="n">
+        <v>548</v>
+      </c>
+      <c r="E117" t="n">
+        <v>547</v>
+      </c>
+      <c r="F117" t="n">
+        <v>560</v>
+      </c>
+      <c r="G117" t="n">
+        <v>16824.17830967</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>544</v>
+      </c>
+      <c r="C118" t="n">
+        <v>543</v>
+      </c>
+      <c r="D118" t="n">
+        <v>544</v>
+      </c>
+      <c r="E118" t="n">
+        <v>543</v>
+      </c>
+      <c r="F118" t="n">
+        <v>560.1697</v>
+      </c>
+      <c r="G118" t="n">
+        <v>16264.00860967</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>543</v>
+      </c>
+      <c r="C119" t="n">
+        <v>542</v>
+      </c>
+      <c r="D119" t="n">
+        <v>543</v>
+      </c>
+      <c r="E119" t="n">
+        <v>542</v>
+      </c>
+      <c r="F119" t="n">
+        <v>480.5287</v>
+      </c>
+      <c r="G119" t="n">
+        <v>15783.47990967</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>542</v>
+      </c>
+      <c r="C120" t="n">
+        <v>542</v>
+      </c>
+      <c r="D120" t="n">
+        <v>542</v>
+      </c>
+      <c r="E120" t="n">
+        <v>542</v>
+      </c>
+      <c r="F120" t="n">
+        <v>336</v>
+      </c>
+      <c r="G120" t="n">
+        <v>15783.47990967</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>541</v>
+      </c>
+      <c r="C121" t="n">
+        <v>541</v>
+      </c>
+      <c r="D121" t="n">
+        <v>541</v>
+      </c>
+      <c r="E121" t="n">
+        <v>541</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2750.744</v>
+      </c>
+      <c r="G121" t="n">
+        <v>13032.73590967</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>541</v>
+      </c>
+      <c r="C122" t="n">
+        <v>541</v>
+      </c>
+      <c r="D122" t="n">
+        <v>541</v>
+      </c>
+      <c r="E122" t="n">
+        <v>541</v>
+      </c>
+      <c r="F122" t="n">
+        <v>488</v>
+      </c>
+      <c r="G122" t="n">
+        <v>13032.73590967</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>540</v>
+      </c>
+      <c r="C123" t="n">
+        <v>540</v>
+      </c>
+      <c r="D123" t="n">
+        <v>540</v>
+      </c>
+      <c r="E123" t="n">
+        <v>540</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2150.5747</v>
+      </c>
+      <c r="G123" t="n">
+        <v>10882.16120967</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>540</v>
+      </c>
+      <c r="C124" t="n">
+        <v>540</v>
+      </c>
+      <c r="D124" t="n">
+        <v>540</v>
+      </c>
+      <c r="E124" t="n">
+        <v>540</v>
+      </c>
+      <c r="F124" t="n">
+        <v>488.6602</v>
+      </c>
+      <c r="G124" t="n">
+        <v>10882.16120967</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>540</v>
+      </c>
+      <c r="C125" t="n">
+        <v>540</v>
+      </c>
+      <c r="D125" t="n">
+        <v>540</v>
+      </c>
+      <c r="E125" t="n">
+        <v>540</v>
+      </c>
+      <c r="F125" t="n">
+        <v>216</v>
+      </c>
+      <c r="G125" t="n">
+        <v>10882.16120967</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>540</v>
+      </c>
+      <c r="C126" t="n">
+        <v>540</v>
+      </c>
+      <c r="D126" t="n">
+        <v>540</v>
+      </c>
+      <c r="E126" t="n">
+        <v>540</v>
+      </c>
+      <c r="F126" t="n">
+        <v>537.3499</v>
+      </c>
+      <c r="G126" t="n">
+        <v>10882.16120967</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>540</v>
+      </c>
+      <c r="C127" t="n">
+        <v>540</v>
+      </c>
+      <c r="D127" t="n">
+        <v>540</v>
+      </c>
+      <c r="E127" t="n">
+        <v>540</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1317.4421</v>
+      </c>
+      <c r="G127" t="n">
+        <v>10882.16120967</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>539</v>
+      </c>
+      <c r="C128" t="n">
+        <v>538</v>
+      </c>
+      <c r="D128" t="n">
+        <v>539</v>
+      </c>
+      <c r="E128" t="n">
+        <v>538</v>
+      </c>
+      <c r="F128" t="n">
+        <v>720</v>
+      </c>
+      <c r="G128" t="n">
+        <v>10162.16120967</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>540</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>549</v>
-      </c>
-      <c r="C73" t="n">
-        <v>549</v>
-      </c>
-      <c r="D73" t="n">
-        <v>549</v>
-      </c>
-      <c r="E73" t="n">
-        <v>549</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2283.3311</v>
-      </c>
-      <c r="G73" t="n">
-        <v>11440.01941425</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>548</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>549</v>
-      </c>
-      <c r="C74" t="n">
-        <v>545</v>
-      </c>
-      <c r="D74" t="n">
-        <v>549</v>
-      </c>
-      <c r="E74" t="n">
-        <v>545</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1474.9576</v>
-      </c>
-      <c r="G74" t="n">
-        <v>9965.061814250001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>548</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>546</v>
-      </c>
-      <c r="C75" t="n">
-        <v>546</v>
-      </c>
-      <c r="D75" t="n">
-        <v>546</v>
-      </c>
-      <c r="E75" t="n">
-        <v>546</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.19449542</v>
-      </c>
-      <c r="G75" t="n">
-        <v>9965.256309670001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>548</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>549</v>
-      </c>
-      <c r="C76" t="n">
-        <v>546</v>
-      </c>
-      <c r="D76" t="n">
-        <v>551</v>
-      </c>
-      <c r="E76" t="n">
-        <v>546</v>
-      </c>
-      <c r="F76" t="n">
-        <v>4413.1577</v>
-      </c>
-      <c r="G76" t="n">
-        <v>9965.256309670001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>546</v>
-      </c>
-      <c r="J76" t="n">
-        <v>548</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>547</v>
-      </c>
-      <c r="C77" t="n">
-        <v>547</v>
-      </c>
-      <c r="D77" t="n">
-        <v>547</v>
-      </c>
-      <c r="E77" t="n">
-        <v>547</v>
-      </c>
-      <c r="F77" t="n">
-        <v>202.6002</v>
-      </c>
-      <c r="G77" t="n">
-        <v>10167.85650967</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>548</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>547</v>
-      </c>
-      <c r="C78" t="n">
-        <v>546</v>
-      </c>
-      <c r="D78" t="n">
-        <v>547</v>
-      </c>
-      <c r="E78" t="n">
-        <v>546</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1672.3197</v>
-      </c>
-      <c r="G78" t="n">
-        <v>8495.536809670002</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>548</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>547</v>
-      </c>
-      <c r="C79" t="n">
-        <v>546</v>
-      </c>
-      <c r="D79" t="n">
-        <v>547</v>
-      </c>
-      <c r="E79" t="n">
-        <v>546</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1266.809</v>
-      </c>
-      <c r="G79" t="n">
-        <v>8495.536809670002</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>548</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>546</v>
-      </c>
-      <c r="C80" t="n">
-        <v>546</v>
-      </c>
-      <c r="D80" t="n">
-        <v>546</v>
-      </c>
-      <c r="E80" t="n">
-        <v>546</v>
-      </c>
-      <c r="F80" t="n">
-        <v>242.0726</v>
-      </c>
-      <c r="G80" t="n">
-        <v>8495.536809670002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>548</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>546</v>
-      </c>
-      <c r="C81" t="n">
-        <v>546</v>
-      </c>
-      <c r="D81" t="n">
-        <v>546</v>
-      </c>
-      <c r="E81" t="n">
-        <v>546</v>
-      </c>
-      <c r="F81" t="n">
-        <v>298.0286</v>
-      </c>
-      <c r="G81" t="n">
-        <v>8495.536809670002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>548</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>546</v>
-      </c>
-      <c r="C82" t="n">
-        <v>546</v>
-      </c>
-      <c r="D82" t="n">
-        <v>546</v>
-      </c>
-      <c r="E82" t="n">
-        <v>546</v>
-      </c>
-      <c r="F82" t="n">
-        <v>268.9176</v>
-      </c>
-      <c r="G82" t="n">
-        <v>8495.536809670002</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>548</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>546</v>
-      </c>
-      <c r="C83" t="n">
-        <v>546</v>
-      </c>
-      <c r="D83" t="n">
-        <v>546</v>
-      </c>
-      <c r="E83" t="n">
-        <v>546</v>
-      </c>
-      <c r="F83" t="n">
-        <v>4.4574</v>
-      </c>
-      <c r="G83" t="n">
-        <v>8495.536809670002</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>546</v>
-      </c>
-      <c r="J83" t="n">
-        <v>548</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>546</v>
-      </c>
-      <c r="C84" t="n">
-        <v>546</v>
-      </c>
-      <c r="D84" t="n">
-        <v>546</v>
-      </c>
-      <c r="E84" t="n">
-        <v>546</v>
-      </c>
-      <c r="F84" t="n">
-        <v>6.5426</v>
-      </c>
-      <c r="G84" t="n">
-        <v>8495.536809670002</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>548</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>544</v>
-      </c>
-      <c r="C85" t="n">
-        <v>544</v>
-      </c>
-      <c r="D85" t="n">
-        <v>544</v>
-      </c>
-      <c r="E85" t="n">
-        <v>544</v>
-      </c>
-      <c r="F85" t="n">
-        <v>23.5241</v>
-      </c>
-      <c r="G85" t="n">
-        <v>8472.012709670002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>548</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>547</v>
-      </c>
-      <c r="C86" t="n">
-        <v>548</v>
-      </c>
-      <c r="D86" t="n">
-        <v>548</v>
-      </c>
-      <c r="E86" t="n">
-        <v>547</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1121.3363</v>
-      </c>
-      <c r="G86" t="n">
-        <v>9593.349009670001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>548</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>546</v>
-      </c>
-      <c r="C87" t="n">
-        <v>545</v>
-      </c>
-      <c r="D87" t="n">
-        <v>546</v>
-      </c>
-      <c r="E87" t="n">
-        <v>545</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1311.4199</v>
-      </c>
-      <c r="G87" t="n">
-        <v>8281.92910967</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>548</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>546</v>
-      </c>
-      <c r="C88" t="n">
-        <v>546</v>
-      </c>
-      <c r="D88" t="n">
-        <v>546</v>
-      </c>
-      <c r="E88" t="n">
-        <v>546</v>
-      </c>
-      <c r="F88" t="n">
-        <v>693.7644</v>
-      </c>
-      <c r="G88" t="n">
-        <v>8975.69350967</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>548</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>546</v>
-      </c>
-      <c r="C89" t="n">
-        <v>546</v>
-      </c>
-      <c r="D89" t="n">
-        <v>546</v>
-      </c>
-      <c r="E89" t="n">
-        <v>546</v>
-      </c>
-      <c r="F89" t="n">
-        <v>177.0531</v>
-      </c>
-      <c r="G89" t="n">
-        <v>8975.69350967</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>548</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>546</v>
-      </c>
-      <c r="C90" t="n">
-        <v>546</v>
-      </c>
-      <c r="D90" t="n">
-        <v>546</v>
-      </c>
-      <c r="E90" t="n">
-        <v>546</v>
-      </c>
-      <c r="F90" t="n">
-        <v>177.0531</v>
-      </c>
-      <c r="G90" t="n">
-        <v>8975.69350967</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>548</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>546</v>
-      </c>
-      <c r="C91" t="n">
-        <v>546</v>
-      </c>
-      <c r="D91" t="n">
-        <v>546</v>
-      </c>
-      <c r="E91" t="n">
-        <v>546</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1035.3105</v>
-      </c>
-      <c r="G91" t="n">
-        <v>8975.69350967</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>548</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>545</v>
-      </c>
-      <c r="C92" t="n">
-        <v>545</v>
-      </c>
-      <c r="D92" t="n">
-        <v>545</v>
-      </c>
-      <c r="E92" t="n">
-        <v>545</v>
-      </c>
-      <c r="F92" t="n">
-        <v>5.5045</v>
-      </c>
-      <c r="G92" t="n">
-        <v>8970.189009670001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>548</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>544</v>
-      </c>
-      <c r="C93" t="n">
-        <v>544</v>
-      </c>
-      <c r="D93" t="n">
-        <v>544</v>
-      </c>
-      <c r="E93" t="n">
-        <v>544</v>
-      </c>
-      <c r="F93" t="n">
-        <v>123.6342</v>
-      </c>
-      <c r="G93" t="n">
-        <v>8846.55480967</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>548</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>545</v>
-      </c>
-      <c r="C94" t="n">
-        <v>545</v>
-      </c>
-      <c r="D94" t="n">
-        <v>545</v>
-      </c>
-      <c r="E94" t="n">
-        <v>545</v>
-      </c>
-      <c r="F94" t="n">
-        <v>716.8605</v>
-      </c>
-      <c r="G94" t="n">
-        <v>9563.415309670001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>548</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>545</v>
-      </c>
-      <c r="C95" t="n">
-        <v>545</v>
-      </c>
-      <c r="D95" t="n">
-        <v>545</v>
-      </c>
-      <c r="E95" t="n">
-        <v>545</v>
-      </c>
-      <c r="F95" t="n">
-        <v>303.3397</v>
-      </c>
-      <c r="G95" t="n">
-        <v>9563.415309670001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>548</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>545</v>
-      </c>
-      <c r="C96" t="n">
-        <v>545</v>
-      </c>
-      <c r="D96" t="n">
-        <v>545</v>
-      </c>
-      <c r="E96" t="n">
-        <v>545</v>
-      </c>
-      <c r="F96" t="n">
-        <v>83.46259999999999</v>
-      </c>
-      <c r="G96" t="n">
-        <v>9563.415309670001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>548</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>545</v>
-      </c>
-      <c r="C97" t="n">
-        <v>541</v>
-      </c>
-      <c r="D97" t="n">
-        <v>545</v>
-      </c>
-      <c r="E97" t="n">
-        <v>541</v>
-      </c>
-      <c r="F97" t="n">
-        <v>179.1701</v>
-      </c>
-      <c r="G97" t="n">
-        <v>9384.245209670002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>548</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>543</v>
-      </c>
-      <c r="C98" t="n">
-        <v>543</v>
-      </c>
-      <c r="D98" t="n">
-        <v>543</v>
-      </c>
-      <c r="E98" t="n">
-        <v>543</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3130.4621</v>
-      </c>
-      <c r="G98" t="n">
-        <v>12514.70730967</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>548</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>543</v>
-      </c>
-      <c r="C99" t="n">
-        <v>544</v>
-      </c>
-      <c r="D99" t="n">
-        <v>544</v>
-      </c>
-      <c r="E99" t="n">
-        <v>543</v>
-      </c>
-      <c r="F99" t="n">
-        <v>557.1521</v>
-      </c>
-      <c r="G99" t="n">
-        <v>13071.85940967</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>548</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>543</v>
-      </c>
-      <c r="C100" t="n">
-        <v>543</v>
-      </c>
-      <c r="D100" t="n">
-        <v>543</v>
-      </c>
-      <c r="E100" t="n">
-        <v>543</v>
-      </c>
-      <c r="F100" t="n">
-        <v>761.1503</v>
-      </c>
-      <c r="G100" t="n">
-        <v>12310.70910967</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>544</v>
-      </c>
-      <c r="J100" t="n">
-        <v>548</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>542</v>
-      </c>
-      <c r="C101" t="n">
-        <v>542</v>
-      </c>
-      <c r="D101" t="n">
-        <v>542</v>
-      </c>
-      <c r="E101" t="n">
-        <v>542</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1269.6508</v>
-      </c>
-      <c r="G101" t="n">
-        <v>11041.05830967</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>543</v>
-      </c>
-      <c r="J101" t="n">
-        <v>548</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>541</v>
-      </c>
-      <c r="C102" t="n">
-        <v>541</v>
-      </c>
-      <c r="D102" t="n">
-        <v>541</v>
-      </c>
-      <c r="E102" t="n">
-        <v>541</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1281.2455</v>
-      </c>
-      <c r="G102" t="n">
-        <v>9759.812809670002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>548</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>541</v>
-      </c>
-      <c r="C103" t="n">
-        <v>541</v>
-      </c>
-      <c r="D103" t="n">
-        <v>541</v>
-      </c>
-      <c r="E103" t="n">
-        <v>541</v>
-      </c>
-      <c r="F103" t="n">
-        <v>259.5257</v>
-      </c>
-      <c r="G103" t="n">
-        <v>9759.812809670002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>548</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>544</v>
-      </c>
-      <c r="C104" t="n">
-        <v>544</v>
-      </c>
-      <c r="D104" t="n">
-        <v>544</v>
-      </c>
-      <c r="E104" t="n">
-        <v>544</v>
-      </c>
-      <c r="F104" t="n">
-        <v>817.2451</v>
-      </c>
-      <c r="G104" t="n">
-        <v>10577.05790967</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>548</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>543</v>
-      </c>
-      <c r="C105" t="n">
-        <v>544</v>
-      </c>
-      <c r="D105" t="n">
-        <v>544</v>
-      </c>
-      <c r="E105" t="n">
-        <v>543</v>
-      </c>
-      <c r="F105" t="n">
-        <v>180</v>
-      </c>
-      <c r="G105" t="n">
-        <v>10577.05790967</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>548</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>544</v>
-      </c>
-      <c r="C106" t="n">
-        <v>544</v>
-      </c>
-      <c r="D106" t="n">
-        <v>544</v>
-      </c>
-      <c r="E106" t="n">
-        <v>544</v>
-      </c>
-      <c r="F106" t="n">
-        <v>531.4108</v>
-      </c>
-      <c r="G106" t="n">
-        <v>10577.05790967</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>548</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>542</v>
-      </c>
-      <c r="C107" t="n">
-        <v>542</v>
-      </c>
-      <c r="D107" t="n">
-        <v>542</v>
-      </c>
-      <c r="E107" t="n">
-        <v>542</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1036.0144</v>
-      </c>
-      <c r="G107" t="n">
-        <v>9541.043509670002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>548</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>542</v>
-      </c>
-      <c r="C108" t="n">
-        <v>541</v>
-      </c>
-      <c r="D108" t="n">
-        <v>542</v>
-      </c>
-      <c r="E108" t="n">
-        <v>541</v>
-      </c>
-      <c r="F108" t="n">
-        <v>226.9073</v>
-      </c>
-      <c r="G108" t="n">
-        <v>9314.136209670001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>548</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>543</v>
-      </c>
-      <c r="C109" t="n">
-        <v>543</v>
-      </c>
-      <c r="D109" t="n">
-        <v>543</v>
-      </c>
-      <c r="E109" t="n">
-        <v>543</v>
-      </c>
-      <c r="F109" t="n">
-        <v>814.2442</v>
-      </c>
-      <c r="G109" t="n">
-        <v>10128.38040967</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>541</v>
-      </c>
-      <c r="J109" t="n">
-        <v>548</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>543</v>
-      </c>
-      <c r="C110" t="n">
-        <v>543</v>
-      </c>
-      <c r="D110" t="n">
-        <v>543</v>
-      </c>
-      <c r="E110" t="n">
-        <v>543</v>
-      </c>
-      <c r="F110" t="n">
-        <v>378.1134</v>
-      </c>
-      <c r="G110" t="n">
-        <v>10128.38040967</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>543</v>
-      </c>
-      <c r="J110" t="n">
-        <v>548</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>543</v>
-      </c>
-      <c r="C111" t="n">
-        <v>551</v>
-      </c>
-      <c r="D111" t="n">
-        <v>551</v>
-      </c>
-      <c r="E111" t="n">
-        <v>543</v>
-      </c>
-      <c r="F111" t="n">
-        <v>7900.7726</v>
-      </c>
-      <c r="G111" t="n">
-        <v>18029.15300967</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>543</v>
-      </c>
-      <c r="J111" t="n">
-        <v>548</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>544</v>
-      </c>
-      <c r="C112" t="n">
-        <v>544</v>
-      </c>
-      <c r="D112" t="n">
-        <v>544</v>
-      </c>
-      <c r="E112" t="n">
-        <v>544</v>
-      </c>
-      <c r="F112" t="n">
-        <v>34.3658</v>
-      </c>
-      <c r="G112" t="n">
-        <v>17994.78720967</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>548</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>544</v>
-      </c>
-      <c r="C113" t="n">
-        <v>544</v>
-      </c>
-      <c r="D113" t="n">
-        <v>544</v>
-      </c>
-      <c r="E113" t="n">
-        <v>544</v>
-      </c>
-      <c r="F113" t="n">
-        <v>76.3342</v>
-      </c>
-      <c r="G113" t="n">
-        <v>17994.78720967</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>548</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>544</v>
-      </c>
-      <c r="C114" t="n">
-        <v>544</v>
-      </c>
-      <c r="D114" t="n">
-        <v>544</v>
-      </c>
-      <c r="E114" t="n">
-        <v>544</v>
-      </c>
-      <c r="F114" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="G114" t="n">
-        <v>17994.78720967</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>548</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>544</v>
-      </c>
-      <c r="C115" t="n">
-        <v>541</v>
-      </c>
-      <c r="D115" t="n">
-        <v>544</v>
-      </c>
-      <c r="E115" t="n">
-        <v>541</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1731.6089</v>
-      </c>
-      <c r="G115" t="n">
-        <v>16263.17830967</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>548</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>547</v>
-      </c>
-      <c r="C116" t="n">
-        <v>547</v>
-      </c>
-      <c r="D116" t="n">
-        <v>547</v>
-      </c>
-      <c r="E116" t="n">
-        <v>547</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1</v>
-      </c>
-      <c r="G116" t="n">
-        <v>16264.17830967</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>548</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>547</v>
-      </c>
-      <c r="C117" t="n">
-        <v>548</v>
-      </c>
-      <c r="D117" t="n">
-        <v>548</v>
-      </c>
-      <c r="E117" t="n">
-        <v>547</v>
-      </c>
-      <c r="F117" t="n">
-        <v>560</v>
-      </c>
-      <c r="G117" t="n">
-        <v>16824.17830967</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>548</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>544</v>
-      </c>
-      <c r="C118" t="n">
-        <v>543</v>
-      </c>
-      <c r="D118" t="n">
-        <v>544</v>
-      </c>
-      <c r="E118" t="n">
-        <v>543</v>
-      </c>
-      <c r="F118" t="n">
-        <v>560.1697</v>
-      </c>
-      <c r="G118" t="n">
-        <v>16264.00860967</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>548</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>543</v>
-      </c>
-      <c r="C119" t="n">
-        <v>542</v>
-      </c>
-      <c r="D119" t="n">
-        <v>543</v>
-      </c>
-      <c r="E119" t="n">
-        <v>542</v>
-      </c>
-      <c r="F119" t="n">
-        <v>480.5287</v>
-      </c>
-      <c r="G119" t="n">
-        <v>15783.47990967</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>548</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>542</v>
-      </c>
-      <c r="C120" t="n">
-        <v>542</v>
-      </c>
-      <c r="D120" t="n">
-        <v>542</v>
-      </c>
-      <c r="E120" t="n">
-        <v>542</v>
-      </c>
-      <c r="F120" t="n">
-        <v>336</v>
-      </c>
-      <c r="G120" t="n">
-        <v>15783.47990967</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>548</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>541</v>
-      </c>
-      <c r="C121" t="n">
-        <v>541</v>
-      </c>
-      <c r="D121" t="n">
-        <v>541</v>
-      </c>
-      <c r="E121" t="n">
-        <v>541</v>
-      </c>
-      <c r="F121" t="n">
-        <v>2750.744</v>
-      </c>
-      <c r="G121" t="n">
-        <v>13032.73590967</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>548</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>541</v>
-      </c>
-      <c r="C122" t="n">
-        <v>541</v>
-      </c>
-      <c r="D122" t="n">
-        <v>541</v>
-      </c>
-      <c r="E122" t="n">
-        <v>541</v>
-      </c>
-      <c r="F122" t="n">
-        <v>488</v>
-      </c>
-      <c r="G122" t="n">
-        <v>13032.73590967</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>541</v>
-      </c>
-      <c r="J122" t="n">
-        <v>548</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>540</v>
-      </c>
-      <c r="C123" t="n">
-        <v>540</v>
-      </c>
-      <c r="D123" t="n">
-        <v>540</v>
-      </c>
-      <c r="E123" t="n">
-        <v>540</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2150.5747</v>
-      </c>
-      <c r="G123" t="n">
-        <v>10882.16120967</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>541</v>
-      </c>
-      <c r="J123" t="n">
-        <v>548</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>540</v>
-      </c>
-      <c r="C124" t="n">
-        <v>540</v>
-      </c>
-      <c r="D124" t="n">
-        <v>540</v>
-      </c>
-      <c r="E124" t="n">
-        <v>540</v>
-      </c>
-      <c r="F124" t="n">
-        <v>488.6602</v>
-      </c>
-      <c r="G124" t="n">
-        <v>10882.16120967</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>540</v>
-      </c>
-      <c r="J124" t="n">
-        <v>548</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>540</v>
-      </c>
-      <c r="C125" t="n">
-        <v>540</v>
-      </c>
-      <c r="D125" t="n">
-        <v>540</v>
-      </c>
-      <c r="E125" t="n">
-        <v>540</v>
-      </c>
-      <c r="F125" t="n">
-        <v>216</v>
-      </c>
-      <c r="G125" t="n">
-        <v>10882.16120967</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>540</v>
-      </c>
-      <c r="J125" t="n">
-        <v>548</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>540</v>
-      </c>
-      <c r="C126" t="n">
-        <v>540</v>
-      </c>
-      <c r="D126" t="n">
-        <v>540</v>
-      </c>
-      <c r="E126" t="n">
-        <v>540</v>
-      </c>
-      <c r="F126" t="n">
-        <v>537.3499</v>
-      </c>
-      <c r="G126" t="n">
-        <v>10882.16120967</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>540</v>
-      </c>
-      <c r="J126" t="n">
-        <v>548</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>540</v>
-      </c>
-      <c r="C127" t="n">
-        <v>540</v>
-      </c>
-      <c r="D127" t="n">
-        <v>540</v>
-      </c>
-      <c r="E127" t="n">
-        <v>540</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1317.4421</v>
-      </c>
-      <c r="G127" t="n">
-        <v>10882.16120967</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>540</v>
-      </c>
-      <c r="J127" t="n">
-        <v>548</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>539</v>
-      </c>
-      <c r="C128" t="n">
-        <v>538</v>
-      </c>
-      <c r="D128" t="n">
-        <v>539</v>
-      </c>
-      <c r="E128" t="n">
-        <v>538</v>
-      </c>
-      <c r="F128" t="n">
-        <v>720</v>
-      </c>
-      <c r="G128" t="n">
-        <v>10162.16120967</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>540</v>
-      </c>
-      <c r="J128" t="n">
-        <v>548</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5057,9 +4673,7 @@
       <c r="I129" t="n">
         <v>538</v>
       </c>
-      <c r="J129" t="n">
-        <v>548</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5098,9 +4712,7 @@
       <c r="I130" t="n">
         <v>542</v>
       </c>
-      <c r="J130" t="n">
-        <v>548</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5134,14 +4746,10 @@
         <v>10201.45220967</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>545</v>
-      </c>
-      <c r="J131" t="n">
-        <v>548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5175,14 +4783,10 @@
         <v>12932.86080967</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>545</v>
-      </c>
-      <c r="J132" t="n">
-        <v>548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5219,9 +4823,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>548</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5258,9 +4860,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>548</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5297,9 +4897,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>548</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5336,9 +4934,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>548</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5375,9 +4971,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>548</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5414,9 +5008,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>548</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5453,9 +5045,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>548</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5492,9 +5082,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>548</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5531,9 +5119,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>548</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5570,9 +5156,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>548</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5609,9 +5193,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>548</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5648,9 +5230,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>548</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5687,9 +5267,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>548</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5726,9 +5304,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>548</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5765,9 +5341,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>548</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5804,9 +5378,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>548</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5843,9 +5415,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>548</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5882,9 +5452,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>548</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5921,9 +5489,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>548</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5960,9 +5526,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>548</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5999,9 +5563,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>548</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6035,20 +5597,16 @@
         <v>49371.34169808</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>548</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
@@ -6074,17 +5632,11 @@
         <v>49371.34169808</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>548</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6116,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>548</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6155,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>548</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6194,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>548</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6233,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>548</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6272,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>548</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6311,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>548</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6350,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>548</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6389,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>548</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6428,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>548</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6467,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>548</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6506,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>548</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6545,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>548</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6584,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>548</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6623,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>548</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6662,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>548</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6698,19 +6160,13 @@
         <v>45347.00922491001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>548</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
-        <v>1.009598540145985</v>
+        <v>1</v>
       </c>
       <c r="M171" t="inlineStr"/>
     </row>
@@ -6737,7 +6193,7 @@
         <v>45347.00922491001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6770,7 +6226,7 @@
         <v>45347.00922491001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6803,7 +6259,7 @@
         <v>44498.42752491</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6836,7 +6292,7 @@
         <v>44011.73552491</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6869,7 +6325,7 @@
         <v>44011.73552491</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7298,7 +6754,7 @@
         <v>39006.94662491</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7760,7 +7216,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7793,7 +7249,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7826,7 +7282,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7859,7 +7315,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7892,7 +7348,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7925,7 +7381,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7958,7 +7414,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7991,7 +7447,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8024,7 +7480,7 @@
         <v>45491.79012491</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8057,7 +7513,7 @@
         <v>42790.45772491</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8090,7 +7546,7 @@
         <v>43237.45772491</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8123,7 +7579,7 @@
         <v>41653.45672491001</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8134,6 +7590,6 @@
       <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest BCD.xlsx
+++ b/BackTest/2019-10-21 BackTest BCD.xlsx
@@ -451,7 +451,7 @@
         <v>4429.30100266</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>9838.239214249999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>543</v>
+      </c>
+      <c r="J3" t="n">
+        <v>543</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>9218.250114249999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>552</v>
+      </c>
+      <c r="J4" t="n">
+        <v>543</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>9045.750114249999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>546</v>
+      </c>
+      <c r="J5" t="n">
+        <v>543</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>8873.250114249999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>545</v>
+      </c>
+      <c r="J6" t="n">
+        <v>545</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>8515.859014249998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>544</v>
+      </c>
+      <c r="J7" t="n">
+        <v>545</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>8516.859014249998</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>543</v>
+      </c>
+      <c r="J8" t="n">
+        <v>545</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +725,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>545</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +764,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>545</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,19 @@
         <v>7276.643914249998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>543</v>
+      </c>
+      <c r="J11" t="n">
+        <v>545</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +841,19 @@
         <v>7276.643914249998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>543</v>
+      </c>
+      <c r="J12" t="n">
+        <v>545</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +882,19 @@
         <v>7276.643914249998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>543</v>
+      </c>
+      <c r="J13" t="n">
+        <v>545</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +923,19 @@
         <v>7276.643914249998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>543</v>
+      </c>
+      <c r="J14" t="n">
+        <v>545</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +964,19 @@
         <v>7453.310414249999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>543</v>
+      </c>
+      <c r="J15" t="n">
+        <v>545</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1005,19 @@
         <v>7237.945514249999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>548</v>
+      </c>
+      <c r="J16" t="n">
+        <v>545</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1046,19 @@
         <v>7237.945514249999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>543</v>
+      </c>
+      <c r="J17" t="n">
+        <v>545</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1090,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>545</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1129,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>545</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1168,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>545</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1207,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>545</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1246,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>545</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1285,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>545</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1324,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>545</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1363,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>545</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1402,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>545</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1438,19 @@
         <v>7304.401814249998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>544</v>
+      </c>
+      <c r="J27" t="n">
+        <v>545</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1479,19 @@
         <v>7304.401814249998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>545</v>
+      </c>
+      <c r="J28" t="n">
+        <v>545</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1520,19 @@
         <v>7298.633714249998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>545</v>
+      </c>
+      <c r="J29" t="n">
+        <v>545</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1561,19 @@
         <v>9239.787514249998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>544</v>
+      </c>
+      <c r="J30" t="n">
+        <v>545</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1602,19 @@
         <v>9239.787514249998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>547</v>
+      </c>
+      <c r="J31" t="n">
+        <v>545</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1646,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>545</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1685,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>545</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1724,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>545</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1763,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>545</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1802,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>545</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1841,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>545</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1880,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>545</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1919,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>545</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1958,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>545</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1997,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>545</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2036,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>545</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2075,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>545</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2114,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>545</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2153,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>545</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2192,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>545</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2231,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>545</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2270,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>545</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2309,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>545</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2345,19 @@
         <v>14765.91751425</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>542</v>
+      </c>
+      <c r="J50" t="n">
+        <v>545</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2389,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>545</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2428,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>545</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2467,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>545</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2506,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>545</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2545,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>545</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2584,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>545</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2623,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>545</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2662,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>545</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2701,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>545</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2740,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>545</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2779,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>545</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2818,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>545</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2857,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>545</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2896,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>545</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2935,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>545</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2974,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>545</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +3013,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>545</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3052,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>545</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3091,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>545</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3130,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>545</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3169,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>545</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3208,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>545</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3247,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>545</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3286,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>545</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3325,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>545</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3364,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>545</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3403,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>545</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3442,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>545</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3481,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>545</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3520,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>545</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3559,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>545</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3598,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>545</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3637,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>545</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3676,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>545</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3715,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>545</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3754,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>545</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3793,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>545</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3832,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>545</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3871,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>545</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3910,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>545</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3949,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>545</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3988,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>545</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4027,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>545</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4066,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>545</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4105,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>545</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4144,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>545</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4183,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>545</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +4219,19 @@
         <v>12514.70730967</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>541</v>
+      </c>
+      <c r="J98" t="n">
+        <v>545</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4263,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>545</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +4299,19 @@
         <v>12310.70910967</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>544</v>
+      </c>
+      <c r="J100" t="n">
+        <v>545</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +4340,19 @@
         <v>11041.05830967</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>543</v>
+      </c>
+      <c r="J101" t="n">
+        <v>545</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4381,19 @@
         <v>9759.812809670002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>542</v>
+      </c>
+      <c r="J102" t="n">
+        <v>545</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4422,19 @@
         <v>9759.812809670002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>541</v>
+      </c>
+      <c r="J103" t="n">
+        <v>545</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4463,19 @@
         <v>10577.05790967</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>541</v>
+      </c>
+      <c r="J104" t="n">
+        <v>545</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4507,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>545</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4546,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>545</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4585,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>545</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4624,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>545</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3988,9 +4666,13 @@
         <v>541</v>
       </c>
       <c r="J109" t="n">
-        <v>541</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+        <v>545</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,17 +4701,15 @@
         <v>10128.38040967</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4060,17 +4740,15 @@
         <v>18029.15300967</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4104,8 +4782,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>545</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4137,8 +4821,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>545</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4170,8 +4860,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>545</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4203,8 +4899,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>545</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4236,8 +4938,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>545</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4269,8 +4977,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>545</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4302,8 +5016,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>545</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4335,8 +5055,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>545</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4368,8 +5094,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>545</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4401,8 +5133,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>545</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4434,8 +5172,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>545</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4467,8 +5211,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>545</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4500,8 +5250,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>545</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4533,8 +5289,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>545</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4566,8 +5328,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>545</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4599,8 +5367,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>545</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4629,15 +5403,15 @@
         <v>10162.16120967</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>540</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>545</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -4673,7 +5447,9 @@
       <c r="I129" t="n">
         <v>538</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>545</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4707,12 +5483,12 @@
         <v>10201.45220967</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>542</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>545</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4749,7 +5525,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>545</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4786,7 +5564,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>545</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4823,7 +5603,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>545</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4860,7 +5642,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>545</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4897,7 +5681,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>545</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4934,7 +5720,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>545</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4971,7 +5759,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>545</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5008,7 +5798,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>545</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5045,7 +5837,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>545</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5082,7 +5876,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>545</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5119,7 +5915,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>545</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5156,7 +5954,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>545</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5193,7 +5993,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>545</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5230,7 +6032,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>545</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5267,7 +6071,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>545</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5304,7 +6110,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>545</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5341,7 +6149,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>545</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5378,7 +6188,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>545</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5415,7 +6227,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>545</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5452,7 +6266,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>545</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5489,7 +6305,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>545</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5526,7 +6344,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>545</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5563,7 +6383,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>545</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5597,16 +6419,20 @@
         <v>49371.34169808</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>545</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
       <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
@@ -5632,11 +6458,17 @@
         <v>49371.34169808</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>545</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6500,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>545</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6539,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>545</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6578,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>545</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6617,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>545</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6656,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>545</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6695,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>545</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6734,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>545</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6773,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>545</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6812,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>545</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5962,13 +6848,19 @@
         <v>47642.45582491001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>545</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L165" t="n">
-        <v>1</v>
+        <v>1.01151376146789</v>
       </c>
       <c r="M165" t="inlineStr"/>
     </row>
@@ -5995,7 +6887,7 @@
         <v>47744.45582491001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6028,7 +6920,7 @@
         <v>47621.57582491001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6094,7 +6986,7 @@
         <v>47544.01772491001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6358,7 +7250,7 @@
         <v>39602.79162491</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6391,7 +7283,7 @@
         <v>39602.79162491</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6424,7 +7316,7 @@
         <v>39102.79162491</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6457,7 +7349,7 @@
         <v>39112.79162491</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6490,7 +7382,7 @@
         <v>39221.09482491</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6523,7 +7415,7 @@
         <v>39221.09482491</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6556,7 +7448,7 @@
         <v>39221.09482491</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6589,7 +7481,7 @@
         <v>39221.09482491</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6622,7 +7514,7 @@
         <v>39221.09482491</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6655,7 +7547,7 @@
         <v>40167.09492491</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6688,7 +7580,7 @@
         <v>40167.09492491</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6721,7 +7613,7 @@
         <v>40167.09492491</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7150,7 +8042,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7183,7 +8075,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7216,7 +8108,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7249,7 +8141,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7282,7 +8174,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7315,7 +8207,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7348,7 +8240,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7381,7 +8273,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7414,7 +8306,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7447,7 +8339,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7480,7 +8372,7 @@
         <v>45491.79012491</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7513,7 +8405,7 @@
         <v>42790.45772491</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7546,7 +8438,7 @@
         <v>43237.45772491</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7579,7 +8471,7 @@
         <v>41653.45672491001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>

--- a/BackTest/2019-10-21 BackTest BCD.xlsx
+++ b/BackTest/2019-10-21 BackTest BCD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1420.4552</v>
       </c>
       <c r="G2" t="n">
-        <v>4429.30100266</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>5408.93821159</v>
       </c>
       <c r="G3" t="n">
-        <v>9838.239214249999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>543</v>
-      </c>
-      <c r="J3" t="n">
-        <v>543</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>619.9891</v>
       </c>
       <c r="G4" t="n">
-        <v>9218.250114249999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>552</v>
-      </c>
-      <c r="J4" t="n">
-        <v>543</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +533,15 @@
         <v>172.5</v>
       </c>
       <c r="G5" t="n">
-        <v>9045.750114249999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>546</v>
-      </c>
-      <c r="J5" t="n">
-        <v>543</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +563,15 @@
         <v>172.5</v>
       </c>
       <c r="G6" t="n">
-        <v>8873.250114249999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>545</v>
-      </c>
-      <c r="J6" t="n">
-        <v>545</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +593,15 @@
         <v>357.3911</v>
       </c>
       <c r="G7" t="n">
-        <v>8515.859014249998</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>544</v>
-      </c>
-      <c r="J7" t="n">
-        <v>545</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +623,15 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>8516.859014249998</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>543</v>
-      </c>
-      <c r="J8" t="n">
-        <v>545</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,24 +653,15 @@
         <v>1240.2151</v>
       </c>
       <c r="G9" t="n">
-        <v>7276.643914249998</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>545</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -758,24 +683,15 @@
         <v>368.3241</v>
       </c>
       <c r="G10" t="n">
-        <v>7276.643914249998</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>545</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -797,26 +713,15 @@
         <v>150.045</v>
       </c>
       <c r="G11" t="n">
-        <v>7276.643914249998</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>543</v>
-      </c>
-      <c r="J11" t="n">
-        <v>545</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,26 +743,15 @@
         <v>327.4844</v>
       </c>
       <c r="G12" t="n">
-        <v>7276.643914249998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>543</v>
-      </c>
-      <c r="J12" t="n">
-        <v>545</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -879,26 +773,15 @@
         <v>1238.0541</v>
       </c>
       <c r="G13" t="n">
-        <v>7276.643914249998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>543</v>
-      </c>
-      <c r="J13" t="n">
-        <v>545</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -920,26 +803,15 @@
         <v>540.25</v>
       </c>
       <c r="G14" t="n">
-        <v>7276.643914249998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>543</v>
-      </c>
-      <c r="J14" t="n">
-        <v>545</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -961,26 +833,15 @@
         <v>176.6665</v>
       </c>
       <c r="G15" t="n">
-        <v>7453.310414249999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>543</v>
-      </c>
-      <c r="J15" t="n">
-        <v>545</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1002,26 +863,15 @@
         <v>215.3649</v>
       </c>
       <c r="G16" t="n">
-        <v>7237.945514249999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>548</v>
-      </c>
-      <c r="J16" t="n">
-        <v>545</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1043,26 +893,15 @@
         <v>1759.9173</v>
       </c>
       <c r="G17" t="n">
-        <v>7237.945514249999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>543</v>
-      </c>
-      <c r="J17" t="n">
-        <v>545</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1084,24 +923,15 @@
         <v>1541.5555</v>
       </c>
       <c r="G18" t="n">
-        <v>5696.390014249999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>545</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1123,24 +953,15 @@
         <v>3.5248</v>
       </c>
       <c r="G19" t="n">
-        <v>5699.914814249999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>545</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1162,24 +983,15 @@
         <v>1000</v>
       </c>
       <c r="G20" t="n">
-        <v>4699.914814249999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>545</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1201,24 +1013,15 @@
         <v>460</v>
       </c>
       <c r="G21" t="n">
-        <v>5159.914814249999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>545</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1240,24 +1043,15 @@
         <v>303.0909</v>
       </c>
       <c r="G22" t="n">
-        <v>5159.914814249999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>545</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1279,24 +1073,15 @@
         <v>539.7705</v>
       </c>
       <c r="G23" t="n">
-        <v>5159.914814249999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>545</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1318,24 +1103,15 @@
         <v>1334.09868495</v>
       </c>
       <c r="G24" t="n">
-        <v>6494.013499199998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>545</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1357,24 +1133,15 @@
         <v>14.1628</v>
       </c>
       <c r="G25" t="n">
-        <v>6479.850699199998</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>545</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1396,24 +1163,15 @@
         <v>101.4871</v>
       </c>
       <c r="G26" t="n">
-        <v>6479.850699199998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>545</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1435,26 +1193,15 @@
         <v>824.55111505</v>
       </c>
       <c r="G27" t="n">
-        <v>7304.401814249998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>544</v>
-      </c>
-      <c r="J27" t="n">
-        <v>545</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1476,26 +1223,15 @@
         <v>46.19888495</v>
       </c>
       <c r="G28" t="n">
-        <v>7304.401814249998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>545</v>
-      </c>
-      <c r="J28" t="n">
-        <v>545</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1517,26 +1253,15 @@
         <v>5.7681</v>
       </c>
       <c r="G29" t="n">
-        <v>7298.633714249998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>545</v>
-      </c>
-      <c r="J29" t="n">
-        <v>545</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1558,26 +1283,15 @@
         <v>1941.1538</v>
       </c>
       <c r="G30" t="n">
-        <v>9239.787514249998</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>544</v>
-      </c>
-      <c r="J30" t="n">
-        <v>545</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1599,26 +1313,15 @@
         <v>500</v>
       </c>
       <c r="G31" t="n">
-        <v>9239.787514249998</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>547</v>
-      </c>
-      <c r="J31" t="n">
-        <v>545</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1640,24 +1343,15 @@
         <v>1226.1985</v>
       </c>
       <c r="G32" t="n">
-        <v>9239.787514249998</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>545</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1679,24 +1373,15 @@
         <v>49.2077</v>
       </c>
       <c r="G33" t="n">
-        <v>9239.787514249998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>545</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1718,24 +1403,15 @@
         <v>3306.0793</v>
       </c>
       <c r="G34" t="n">
-        <v>12545.86681425</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>545</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1757,24 +1433,15 @@
         <v>375.0962</v>
       </c>
       <c r="G35" t="n">
-        <v>12545.86681425</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>545</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1796,24 +1463,15 @@
         <v>2268.6624</v>
       </c>
       <c r="G36" t="n">
-        <v>14814.52921425</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>545</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1835,24 +1493,15 @@
         <v>1131.7067</v>
       </c>
       <c r="G37" t="n">
-        <v>14814.52921425</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>545</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1874,24 +1523,15 @@
         <v>183</v>
       </c>
       <c r="G38" t="n">
-        <v>14814.52921425</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>545</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1913,24 +1553,15 @@
         <v>91.5</v>
       </c>
       <c r="G39" t="n">
-        <v>14814.52921425</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>545</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1952,24 +1583,15 @@
         <v>1813.9311</v>
       </c>
       <c r="G40" t="n">
-        <v>16628.46031425</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>545</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1991,24 +1613,15 @@
         <v>57.2391</v>
       </c>
       <c r="G41" t="n">
-        <v>16571.22121425</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>545</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2030,24 +1643,15 @@
         <v>860</v>
       </c>
       <c r="G42" t="n">
-        <v>15711.22121425</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>545</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2069,24 +1673,15 @@
         <v>572.9145</v>
       </c>
       <c r="G43" t="n">
-        <v>15711.22121425</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>545</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2108,24 +1703,15 @@
         <v>77.40000000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>15788.62121425</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>545</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2147,24 +1733,15 @@
         <v>184.4117</v>
       </c>
       <c r="G45" t="n">
-        <v>15604.20951425</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>545</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2186,24 +1763,15 @@
         <v>77.40000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>15526.80951425</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>545</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2225,24 +1793,15 @@
         <v>133</v>
       </c>
       <c r="G47" t="n">
-        <v>15393.80951425</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>545</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2264,24 +1823,15 @@
         <v>901.7122000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>15393.80951425</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>545</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2303,24 +1853,15 @@
         <v>627.8920000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>14765.91751425</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>545</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2342,26 +1883,15 @@
         <v>810</v>
       </c>
       <c r="G50" t="n">
-        <v>14765.91751425</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>542</v>
-      </c>
-      <c r="J50" t="n">
-        <v>545</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2383,24 +1913,15 @@
         <v>1568.2656</v>
       </c>
       <c r="G51" t="n">
-        <v>14765.91751425</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>545</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2422,24 +1943,15 @@
         <v>93.1512</v>
       </c>
       <c r="G52" t="n">
-        <v>14765.91751425</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>545</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2461,24 +1973,21 @@
         <v>958.1529</v>
       </c>
       <c r="G53" t="n">
-        <v>15724.07041425</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>545</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2500,24 +2009,19 @@
         <v>7983.2082</v>
       </c>
       <c r="G54" t="n">
-        <v>7740.86221425</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>545</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2539,24 +2043,19 @@
         <v>3377.3231</v>
       </c>
       <c r="G55" t="n">
-        <v>4363.539114249999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>545</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2578,24 +2077,21 @@
         <v>155.4263</v>
       </c>
       <c r="G56" t="n">
-        <v>4518.965414249999</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>545</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2617,24 +2113,21 @@
         <v>1570.0423</v>
       </c>
       <c r="G57" t="n">
-        <v>4518.965414249999</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>545</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2656,24 +2149,19 @@
         <v>1348.4365</v>
       </c>
       <c r="G58" t="n">
-        <v>5867.401914249999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>545</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2695,24 +2183,19 @@
         <v>570</v>
       </c>
       <c r="G59" t="n">
-        <v>6437.401914249999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>545</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2734,24 +2217,19 @@
         <v>3060.4</v>
       </c>
       <c r="G60" t="n">
-        <v>9497.80191425</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>545</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2773,24 +2251,19 @@
         <v>2099.2832</v>
       </c>
       <c r="G61" t="n">
-        <v>11597.08511425</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>545</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2812,24 +2285,19 @@
         <v>919.2763</v>
       </c>
       <c r="G62" t="n">
-        <v>11597.08511425</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>545</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2851,24 +2319,19 @@
         <v>360.108</v>
       </c>
       <c r="G63" t="n">
-        <v>11236.97711425</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>545</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2890,24 +2353,19 @@
         <v>1119.272</v>
       </c>
       <c r="G64" t="n">
-        <v>11236.97711425</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>545</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2929,24 +2387,19 @@
         <v>890</v>
       </c>
       <c r="G65" t="n">
-        <v>12126.97711425</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>545</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2968,24 +2421,19 @@
         <v>698.9098</v>
       </c>
       <c r="G66" t="n">
-        <v>11428.06731425</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>545</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3007,24 +2455,19 @@
         <v>4.6537</v>
       </c>
       <c r="G67" t="n">
-        <v>11423.41361425</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>545</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3046,24 +2489,19 @@
         <v>4.04</v>
       </c>
       <c r="G68" t="n">
-        <v>11427.45361425</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>545</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3085,24 +2523,19 @@
         <v>1.0027</v>
       </c>
       <c r="G69" t="n">
-        <v>11426.45091425</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>545</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3124,24 +2557,19 @@
         <v>20.5266</v>
       </c>
       <c r="G70" t="n">
-        <v>11446.97751425</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>545</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3163,24 +2591,19 @@
         <v>210.8572</v>
       </c>
       <c r="G71" t="n">
-        <v>11446.97751425</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>545</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3202,24 +2625,19 @@
         <v>2290.2892</v>
       </c>
       <c r="G72" t="n">
-        <v>9156.688314250001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>545</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3241,24 +2659,19 @@
         <v>2283.3311</v>
       </c>
       <c r="G73" t="n">
-        <v>11440.01941425</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>545</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3280,24 +2693,19 @@
         <v>1474.9576</v>
       </c>
       <c r="G74" t="n">
-        <v>9965.061814250001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>545</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3319,24 +2727,19 @@
         <v>0.19449542</v>
       </c>
       <c r="G75" t="n">
-        <v>9965.256309670001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>545</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3358,24 +2761,19 @@
         <v>4413.1577</v>
       </c>
       <c r="G76" t="n">
-        <v>9965.256309670001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>545</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3397,24 +2795,19 @@
         <v>202.6002</v>
       </c>
       <c r="G77" t="n">
-        <v>10167.85650967</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>545</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3436,24 +2829,19 @@
         <v>1672.3197</v>
       </c>
       <c r="G78" t="n">
-        <v>8495.536809670002</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>545</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3475,24 +2863,19 @@
         <v>1266.809</v>
       </c>
       <c r="G79" t="n">
-        <v>8495.536809670002</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>545</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3514,24 +2897,19 @@
         <v>242.0726</v>
       </c>
       <c r="G80" t="n">
-        <v>8495.536809670002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>545</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3553,24 +2931,19 @@
         <v>298.0286</v>
       </c>
       <c r="G81" t="n">
-        <v>8495.536809670002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>545</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3592,24 +2965,19 @@
         <v>268.9176</v>
       </c>
       <c r="G82" t="n">
-        <v>8495.536809670002</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>545</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3631,24 +2999,19 @@
         <v>4.4574</v>
       </c>
       <c r="G83" t="n">
-        <v>8495.536809670002</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>545</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3670,24 +3033,19 @@
         <v>6.5426</v>
       </c>
       <c r="G84" t="n">
-        <v>8495.536809670002</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>545</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3709,24 +3067,19 @@
         <v>23.5241</v>
       </c>
       <c r="G85" t="n">
-        <v>8472.012709670002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>545</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3748,24 +3101,19 @@
         <v>1121.3363</v>
       </c>
       <c r="G86" t="n">
-        <v>9593.349009670001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>545</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3787,24 +3135,19 @@
         <v>1311.4199</v>
       </c>
       <c r="G87" t="n">
-        <v>8281.92910967</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>545</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3826,24 +3169,19 @@
         <v>693.7644</v>
       </c>
       <c r="G88" t="n">
-        <v>8975.69350967</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>545</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3865,24 +3203,19 @@
         <v>177.0531</v>
       </c>
       <c r="G89" t="n">
-        <v>8975.69350967</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>545</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3904,24 +3237,19 @@
         <v>177.0531</v>
       </c>
       <c r="G90" t="n">
-        <v>8975.69350967</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>545</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3943,24 +3271,19 @@
         <v>1035.3105</v>
       </c>
       <c r="G91" t="n">
-        <v>8975.69350967</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>545</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3982,24 +3305,19 @@
         <v>5.5045</v>
       </c>
       <c r="G92" t="n">
-        <v>8970.189009670001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>545</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4021,24 +3339,19 @@
         <v>123.6342</v>
       </c>
       <c r="G93" t="n">
-        <v>8846.55480967</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>545</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4060,24 +3373,19 @@
         <v>716.8605</v>
       </c>
       <c r="G94" t="n">
-        <v>9563.415309670001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>545</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4099,24 +3407,19 @@
         <v>303.3397</v>
       </c>
       <c r="G95" t="n">
-        <v>9563.415309670001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>545</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4138,24 +3441,19 @@
         <v>83.46259999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>9563.415309670001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>545</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4177,24 +3475,19 @@
         <v>179.1701</v>
       </c>
       <c r="G97" t="n">
-        <v>9384.245209670002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>545</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4216,26 +3509,19 @@
         <v>3130.4621</v>
       </c>
       <c r="G98" t="n">
-        <v>12514.70730967</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>541</v>
-      </c>
-      <c r="J98" t="n">
-        <v>545</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4257,24 +3543,19 @@
         <v>557.1521</v>
       </c>
       <c r="G99" t="n">
-        <v>13071.85940967</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>545</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4296,26 +3577,19 @@
         <v>761.1503</v>
       </c>
       <c r="G100" t="n">
-        <v>12310.70910967</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>544</v>
-      </c>
-      <c r="J100" t="n">
-        <v>545</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4337,26 +3611,19 @@
         <v>1269.6508</v>
       </c>
       <c r="G101" t="n">
-        <v>11041.05830967</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>543</v>
-      </c>
-      <c r="J101" t="n">
-        <v>545</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4378,26 +3645,19 @@
         <v>1281.2455</v>
       </c>
       <c r="G102" t="n">
-        <v>9759.812809670002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>542</v>
-      </c>
-      <c r="J102" t="n">
-        <v>545</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4419,26 +3679,19 @@
         <v>259.5257</v>
       </c>
       <c r="G103" t="n">
-        <v>9759.812809670002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>541</v>
-      </c>
-      <c r="J103" t="n">
-        <v>545</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4460,26 +3713,19 @@
         <v>817.2451</v>
       </c>
       <c r="G104" t="n">
-        <v>10577.05790967</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>541</v>
-      </c>
-      <c r="J104" t="n">
-        <v>545</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4501,24 +3747,19 @@
         <v>180</v>
       </c>
       <c r="G105" t="n">
-        <v>10577.05790967</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>545</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4540,24 +3781,19 @@
         <v>531.4108</v>
       </c>
       <c r="G106" t="n">
-        <v>10577.05790967</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>545</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4579,24 +3815,19 @@
         <v>1036.0144</v>
       </c>
       <c r="G107" t="n">
-        <v>9541.043509670002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>545</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4618,24 +3849,19 @@
         <v>226.9073</v>
       </c>
       <c r="G108" t="n">
-        <v>9314.136209670001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>545</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4657,26 +3883,19 @@
         <v>814.2442</v>
       </c>
       <c r="G109" t="n">
-        <v>10128.38040967</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>541</v>
-      </c>
-      <c r="J109" t="n">
-        <v>545</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4698,24 +3917,19 @@
         <v>378.1134</v>
       </c>
       <c r="G110" t="n">
-        <v>10128.38040967</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>545</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4737,24 +3951,19 @@
         <v>7900.7726</v>
       </c>
       <c r="G111" t="n">
-        <v>18029.15300967</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>545</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4776,24 +3985,19 @@
         <v>34.3658</v>
       </c>
       <c r="G112" t="n">
-        <v>17994.78720967</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>545</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4815,24 +4019,19 @@
         <v>76.3342</v>
       </c>
       <c r="G113" t="n">
-        <v>17994.78720967</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>545</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4854,24 +4053,19 @@
         <v>55.4</v>
       </c>
       <c r="G114" t="n">
-        <v>17994.78720967</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>545</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4893,24 +4087,19 @@
         <v>1731.6089</v>
       </c>
       <c r="G115" t="n">
-        <v>16263.17830967</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>545</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4932,24 +4121,19 @@
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>16264.17830967</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>545</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4971,24 +4155,19 @@
         <v>560</v>
       </c>
       <c r="G117" t="n">
-        <v>16824.17830967</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>545</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5010,24 +4189,19 @@
         <v>560.1697</v>
       </c>
       <c r="G118" t="n">
-        <v>16264.00860967</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>545</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5049,24 +4223,19 @@
         <v>480.5287</v>
       </c>
       <c r="G119" t="n">
-        <v>15783.47990967</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>545</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5088,24 +4257,19 @@
         <v>336</v>
       </c>
       <c r="G120" t="n">
-        <v>15783.47990967</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>545</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5127,24 +4291,19 @@
         <v>2750.744</v>
       </c>
       <c r="G121" t="n">
-        <v>13032.73590967</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>545</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5166,24 +4325,19 @@
         <v>488</v>
       </c>
       <c r="G122" t="n">
-        <v>13032.73590967</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>545</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5205,24 +4359,19 @@
         <v>2150.5747</v>
       </c>
       <c r="G123" t="n">
-        <v>10882.16120967</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>545</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5244,24 +4393,19 @@
         <v>488.6602</v>
       </c>
       <c r="G124" t="n">
-        <v>10882.16120967</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>545</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5283,24 +4427,19 @@
         <v>216</v>
       </c>
       <c r="G125" t="n">
-        <v>10882.16120967</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>545</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5322,24 +4461,19 @@
         <v>537.3499</v>
       </c>
       <c r="G126" t="n">
-        <v>10882.16120967</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>545</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5361,24 +4495,19 @@
         <v>1317.4421</v>
       </c>
       <c r="G127" t="n">
-        <v>10882.16120967</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>545</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5400,24 +4529,21 @@
         <v>720</v>
       </c>
       <c r="G128" t="n">
-        <v>10162.16120967</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>545</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5439,26 +4565,21 @@
         <v>35.8338</v>
       </c>
       <c r="G129" t="n">
-        <v>10197.99500967</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
         <v>538</v>
       </c>
-      <c r="J129" t="n">
-        <v>545</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5480,24 +4601,21 @@
         <v>3.4572</v>
       </c>
       <c r="G130" t="n">
-        <v>10201.45220967</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>545</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5519,24 +4637,19 @@
         <v>305.633</v>
       </c>
       <c r="G131" t="n">
-        <v>10201.45220967</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>545</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5558,24 +4671,19 @@
         <v>2731.4086</v>
       </c>
       <c r="G132" t="n">
-        <v>12932.86080967</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>545</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5597,24 +4705,19 @@
         <v>3086.0266</v>
       </c>
       <c r="G133" t="n">
-        <v>16018.88740967</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>545</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5636,24 +4739,19 @@
         <v>1992.2775</v>
       </c>
       <c r="G134" t="n">
-        <v>18011.16490967</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>545</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5675,24 +4773,19 @@
         <v>5621.0185</v>
       </c>
       <c r="G135" t="n">
-        <v>23632.18340967</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>545</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5714,24 +4807,19 @@
         <v>251.6327</v>
       </c>
       <c r="G136" t="n">
-        <v>23632.18340967</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>545</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5753,24 +4841,19 @@
         <v>483.9135</v>
       </c>
       <c r="G137" t="n">
-        <v>23148.26990967001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>545</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5792,24 +4875,19 @@
         <v>809.9646</v>
       </c>
       <c r="G138" t="n">
-        <v>23958.23450967</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>545</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5831,24 +4909,19 @@
         <v>18.255</v>
       </c>
       <c r="G139" t="n">
-        <v>23939.97950967</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>545</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5870,24 +4943,19 @@
         <v>1292.7727</v>
       </c>
       <c r="G140" t="n">
-        <v>25232.75220967</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>545</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5909,24 +4977,19 @@
         <v>27.2276</v>
       </c>
       <c r="G141" t="n">
-        <v>25205.52460967001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>545</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5948,24 +5011,19 @@
         <v>594.1499</v>
       </c>
       <c r="G142" t="n">
-        <v>24611.37470967001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>545</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5987,24 +5045,19 @@
         <v>516.5</v>
       </c>
       <c r="G143" t="n">
-        <v>24094.87470967001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>545</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6026,24 +5079,19 @@
         <v>6796.3016</v>
       </c>
       <c r="G144" t="n">
-        <v>30891.17630967001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>545</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6065,24 +5113,19 @@
         <v>1889.7368</v>
       </c>
       <c r="G145" t="n">
-        <v>32780.91310967001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>545</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6104,24 +5147,19 @@
         <v>2124</v>
       </c>
       <c r="G146" t="n">
-        <v>30656.91310967001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>545</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6143,24 +5181,19 @@
         <v>777.2094</v>
       </c>
       <c r="G147" t="n">
-        <v>30656.91310967001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>545</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6182,24 +5215,19 @@
         <v>49.8793</v>
       </c>
       <c r="G148" t="n">
-        <v>30656.91310967001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>545</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6221,24 +5249,19 @@
         <v>1355.395</v>
       </c>
       <c r="G149" t="n">
-        <v>32012.30810967001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>545</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6260,24 +5283,19 @@
         <v>225</v>
       </c>
       <c r="G150" t="n">
-        <v>32012.30810967001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>545</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6299,24 +5317,19 @@
         <v>72.6641</v>
       </c>
       <c r="G151" t="n">
-        <v>32012.30810967001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>545</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6338,24 +5351,19 @@
         <v>4620.0832</v>
       </c>
       <c r="G152" t="n">
-        <v>36632.39130967001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>545</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6377,24 +5385,19 @@
         <v>6653.36168841</v>
       </c>
       <c r="G153" t="n">
-        <v>43285.75299808</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>545</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6416,24 +5419,19 @@
         <v>6085.5887</v>
       </c>
       <c r="G154" t="n">
-        <v>49371.34169808</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>545</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6455,24 +5453,19 @@
         <v>149.3845</v>
       </c>
       <c r="G155" t="n">
-        <v>49371.34169808</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>545</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6494,24 +5487,19 @@
         <v>3730.79823515</v>
       </c>
       <c r="G156" t="n">
-        <v>53102.13993323001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>545</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6533,24 +5521,19 @@
         <v>1427.4626</v>
       </c>
       <c r="G157" t="n">
-        <v>51674.67733323001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>545</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6572,24 +5555,19 @@
         <v>753.6742</v>
       </c>
       <c r="G158" t="n">
-        <v>52428.35153323001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>545</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6611,24 +5589,19 @@
         <v>5002.0832</v>
       </c>
       <c r="G159" t="n">
-        <v>52428.35153323001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>545</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6650,24 +5623,19 @@
         <v>101</v>
       </c>
       <c r="G160" t="n">
-        <v>52428.35153323001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>545</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6689,24 +5657,19 @@
         <v>3286.83889168</v>
       </c>
       <c r="G161" t="n">
-        <v>55715.19042491001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>545</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6728,24 +5691,19 @@
         <v>1115.6886</v>
       </c>
       <c r="G162" t="n">
-        <v>54599.50182491001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>545</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6767,24 +5725,17 @@
         <v>180</v>
       </c>
       <c r="G163" t="n">
-        <v>54779.50182491001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>545</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6806,24 +5757,15 @@
         <v>531.0069999999999</v>
       </c>
       <c r="G164" t="n">
-        <v>54779.50182491001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>545</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6845,24 +5787,15 @@
         <v>7137.046</v>
       </c>
       <c r="G165" t="n">
-        <v>47642.45582491001</v>
-      </c>
-      <c r="H165" t="n">
         <v>2</v>
       </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>545</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1.01151376146789</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6884,18 +5817,15 @@
         <v>102</v>
       </c>
       <c r="G166" t="n">
-        <v>47744.45582491001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6917,18 +5847,15 @@
         <v>122.88</v>
       </c>
       <c r="G167" t="n">
-        <v>47621.57582491001</v>
-      </c>
-      <c r="H167" t="n">
         <v>2</v>
       </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6950,18 +5877,15 @@
         <v>50.3155</v>
       </c>
       <c r="G168" t="n">
-        <v>47621.57582491001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6983,18 +5907,15 @@
         <v>77.5581</v>
       </c>
       <c r="G169" t="n">
-        <v>47544.01772491001</v>
-      </c>
-      <c r="H169" t="n">
         <v>2</v>
       </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7016,18 +5937,15 @@
         <v>172.6097</v>
       </c>
       <c r="G170" t="n">
-        <v>47371.40802491001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7049,18 +5967,15 @@
         <v>2024.3988</v>
       </c>
       <c r="G171" t="n">
-        <v>45347.00922491001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7082,18 +5997,15 @@
         <v>100</v>
       </c>
       <c r="G172" t="n">
-        <v>45347.00922491001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7115,18 +6027,15 @@
         <v>897.6638</v>
       </c>
       <c r="G173" t="n">
-        <v>45347.00922491001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7148,18 +6057,15 @@
         <v>848.5817</v>
       </c>
       <c r="G174" t="n">
-        <v>44498.42752491</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7181,18 +6087,15 @@
         <v>486.692</v>
       </c>
       <c r="G175" t="n">
-        <v>44011.73552491</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7214,18 +6117,15 @@
         <v>393.2511</v>
       </c>
       <c r="G176" t="n">
-        <v>44011.73552491</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7247,18 +6147,15 @@
         <v>4408.9439</v>
       </c>
       <c r="G177" t="n">
-        <v>39602.79162491</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7280,18 +6177,15 @@
         <v>1097.5079</v>
       </c>
       <c r="G178" t="n">
-        <v>39602.79162491</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7313,18 +6207,15 @@
         <v>500</v>
       </c>
       <c r="G179" t="n">
-        <v>39102.79162491</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7346,18 +6237,15 @@
         <v>10</v>
       </c>
       <c r="G180" t="n">
-        <v>39112.79162491</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7379,18 +6267,15 @@
         <v>108.3032</v>
       </c>
       <c r="G181" t="n">
-        <v>39221.09482491</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7412,18 +6297,15 @@
         <v>8.489100000000001</v>
       </c>
       <c r="G182" t="n">
-        <v>39221.09482491</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7445,18 +6327,15 @@
         <v>441.3664</v>
       </c>
       <c r="G183" t="n">
-        <v>39221.09482491</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7478,18 +6357,15 @@
         <v>427.0754</v>
       </c>
       <c r="G184" t="n">
-        <v>39221.09482491</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7511,18 +6387,15 @@
         <v>18.7648</v>
       </c>
       <c r="G185" t="n">
-        <v>39221.09482491</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7544,18 +6417,15 @@
         <v>946.0001</v>
       </c>
       <c r="G186" t="n">
-        <v>40167.09492491</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7577,18 +6447,15 @@
         <v>315.621</v>
       </c>
       <c r="G187" t="n">
-        <v>40167.09492491</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7610,18 +6477,15 @@
         <v>100</v>
       </c>
       <c r="G188" t="n">
-        <v>40167.09492491</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7643,18 +6507,15 @@
         <v>1160.1483</v>
       </c>
       <c r="G189" t="n">
-        <v>39006.94662491</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7676,18 +6537,15 @@
         <v>226.4484</v>
       </c>
       <c r="G190" t="n">
-        <v>39233.39502491</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7709,18 +6567,15 @@
         <v>125.0411</v>
       </c>
       <c r="G191" t="n">
-        <v>39358.43612491</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7742,18 +6597,15 @@
         <v>2352.912</v>
       </c>
       <c r="G192" t="n">
-        <v>39358.43612491</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7775,18 +6627,15 @@
         <v>2983.2829</v>
       </c>
       <c r="G193" t="n">
-        <v>36375.15322491001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7808,18 +6657,15 @@
         <v>774.811</v>
       </c>
       <c r="G194" t="n">
-        <v>36375.15322491001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7841,18 +6687,15 @@
         <v>194.2</v>
       </c>
       <c r="G195" t="n">
-        <v>36569.35322491</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7874,18 +6717,15 @@
         <v>157.2892</v>
       </c>
       <c r="G196" t="n">
-        <v>36569.35322491</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7907,18 +6747,15 @@
         <v>2025.3962</v>
       </c>
       <c r="G197" t="n">
-        <v>38594.74942491001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7940,18 +6777,15 @@
         <v>5438.7063</v>
       </c>
       <c r="G198" t="n">
-        <v>44033.45572491</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7973,18 +6807,15 @@
         <v>1338.5788</v>
       </c>
       <c r="G199" t="n">
-        <v>44033.45572491</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8006,18 +6837,15 @@
         <v>1433.9309</v>
       </c>
       <c r="G200" t="n">
-        <v>45467.38662491</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8039,18 +6867,15 @@
         <v>1058</v>
       </c>
       <c r="G201" t="n">
-        <v>45467.38662491</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8072,18 +6897,15 @@
         <v>1049.5423</v>
       </c>
       <c r="G202" t="n">
-        <v>45467.38662491</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8105,18 +6927,15 @@
         <v>802</v>
       </c>
       <c r="G203" t="n">
-        <v>45467.38662491</v>
-      </c>
-      <c r="H203" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8138,18 +6957,15 @@
         <v>18.5371</v>
       </c>
       <c r="G204" t="n">
-        <v>45467.38662491</v>
-      </c>
-      <c r="H204" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8171,18 +6987,15 @@
         <v>270.913</v>
       </c>
       <c r="G205" t="n">
-        <v>45467.38662491</v>
-      </c>
-      <c r="H205" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8204,18 +7017,15 @@
         <v>858.3674</v>
       </c>
       <c r="G206" t="n">
-        <v>45467.38662491</v>
-      </c>
-      <c r="H206" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8237,18 +7047,15 @@
         <v>430.7143</v>
       </c>
       <c r="G207" t="n">
-        <v>45467.38662491</v>
-      </c>
-      <c r="H207" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8270,18 +7077,15 @@
         <v>112.3717</v>
       </c>
       <c r="G208" t="n">
-        <v>45467.38662491</v>
-      </c>
-      <c r="H208" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8303,18 +7107,15 @@
         <v>443.9419</v>
       </c>
       <c r="G209" t="n">
-        <v>45467.38662491</v>
-      </c>
-      <c r="H209" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8336,18 +7137,15 @@
         <v>673</v>
       </c>
       <c r="G210" t="n">
-        <v>45467.38662491</v>
-      </c>
-      <c r="H210" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8369,18 +7167,15 @@
         <v>24.4035</v>
       </c>
       <c r="G211" t="n">
-        <v>45491.79012491</v>
-      </c>
-      <c r="H211" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8402,18 +7197,15 @@
         <v>2701.3324</v>
       </c>
       <c r="G212" t="n">
-        <v>42790.45772491</v>
-      </c>
-      <c r="H212" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8435,18 +7227,15 @@
         <v>447</v>
       </c>
       <c r="G213" t="n">
-        <v>43237.45772491</v>
-      </c>
-      <c r="H213" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8468,18 +7257,15 @@
         <v>1584.001</v>
       </c>
       <c r="G214" t="n">
-        <v>41653.45672491001</v>
-      </c>
-      <c r="H214" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
